--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="12195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="标准地层" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
   <si>
     <r>
       <rPr>
@@ -654,6 +654,24 @@
     </r>
   </si>
   <si>
+    <t>钻孔编号</t>
+  </si>
+  <si>
+    <t>勘探点类型</t>
+  </si>
+  <si>
+    <t>X坐标</t>
+  </si>
+  <si>
+    <t>Y坐标</t>
+  </si>
+  <si>
+    <t>孔口标高</t>
+  </si>
+  <si>
+    <t>勘探深度</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -661,16 +679,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>序号</t>
-    </r>
-  </si>
-  <si>
-    <t>钻孔编号</t>
-  </si>
-  <si>
-    <t>勘探点类型</t>
-  </si>
-  <si>
+      <t>勘探开始</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -678,8 +688,10 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>勘探开始</t>
-    </r>
+      <t>日期</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -687,8 +699,77 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日期</t>
-    </r>
+      <t>勘探结束日期</t>
+    </r>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>鉴别孔</t>
+  </si>
+  <si>
+    <t>2017.10.13</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>2017.10.15</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>2017.10.14</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>2017.10.16</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>主层编号</t>
+  </si>
+  <si>
+    <t>亚层编号</t>
+  </si>
+  <si>
+    <t>岩土名称</t>
+  </si>
+  <si>
+    <t>填土</t>
+  </si>
+  <si>
+    <t>层底深度</t>
+  </si>
+  <si>
+    <t>粘土</t>
+  </si>
+  <si>
+    <t>白云岩</t>
+  </si>
+  <si>
+    <t>溶洞</t>
   </si>
   <si>
     <r>
@@ -698,10 +779,41 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>勘探结束日期</t>
-    </r>
-  </si>
-  <si>
+      <t>孔号及取样编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取样深度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取样长度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取样类型</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -709,7 +821,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>坐标       X</t>
+      <t>(0-</t>
     </r>
     <r>
       <rPr>
@@ -718,7 +830,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（</t>
+      <t>原状土样，</t>
     </r>
     <r>
       <rPr>
@@ -727,7 +839,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>m</t>
+      <t>1-</t>
     </r>
     <r>
       <rPr>
@@ -736,16 +848,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>坐标     Y(m)</t>
-  </si>
-  <si>
-    <t>孔口高程(m)</t>
-  </si>
-  <si>
+      <t>扰动土样，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3-</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -753,58 +866,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>孔深</t>
-    </r>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>鉴别孔</t>
-  </si>
-  <si>
-    <t>2017.10.13</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>2017.10.15</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>2017.10.14</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>2017.10.16</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>层底深度（m）</t>
-  </si>
-  <si>
+      <t>岩样，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4-</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -812,6 +884,479 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>水样）</t>
+    </r>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>孔号及试验点底深度</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杆长</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一阵击数的长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一阵击数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标贯击数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修正后的标贯击数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动探类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超重型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试验段长度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贯入度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动探击数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修正后击数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻孔编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测水日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地下水类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初见水位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稳定水位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地下水性质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上层滞水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>承压水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孔号及深度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采取率</t>
+    </r>
+  </si>
+  <si>
+    <t>RQD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分层（参考）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>①填土</t>
     </r>
   </si>
@@ -893,584 +1438,6 @@
         <charset val="134"/>
       </rPr>
       <t>④溶洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔号及取样编号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样深度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样长度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原状土样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扰动土样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岩样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水样）</t>
-    </r>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>9-1</t>
-  </si>
-  <si>
-    <t>10-1</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
-    <t>孔号及试验点底深度</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杆长</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一阵击数的长度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一阵击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标贯击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修正后的标贯击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特征值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动探类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轻型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超重型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>试验段长度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贯入度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动探击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修正后击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻孔编号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测水日期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地下水类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>初见水位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>稳定水位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地下水性质</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上层滞水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>潜水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>承压水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其它</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔号及深度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采取率</t>
-    </r>
-  </si>
-  <si>
-    <t>RQD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分层（参考）</t>
     </r>
   </si>
   <si>
@@ -1646,13 +1613,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1699,50 +1666,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1773,14 +1723,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1794,6 +1745,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -1803,22 +1769,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1842,7 +1808,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1869,19 +1835,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,49 +1949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,37 +1961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,25 +1973,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,30 +2016,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,8 +2032,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2089,20 +2064,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2122,6 +2086,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2136,181 +2126,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2335,7 +2301,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2344,16 +2310,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2386,16 +2352,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2404,7 +2370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2413,16 +2379,28 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2768,417 +2746,417 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38">
-        <v>1</v>
-      </c>
-      <c r="C2" s="38">
+      <c r="B2" s="42">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42">
         <v>0</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="42">
         <v>2</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="42">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="42">
         <v>3</v>
       </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="42">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="42">
         <v>300</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="42">
         <v>20</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="U4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="V4" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="38">
+      <c r="Y4" s="42">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="42">
         <v>3</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="42">
         <v>2</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="42">
         <v>300</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="42">
         <v>20</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="38" t="s">
+      <c r="V5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="38">
+      <c r="Y5" s="42">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="42">
         <v>4</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="42">
         <v>0</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="42">
         <v>3</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="42">
         <v>2</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="42">
         <v>300</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="42">
         <v>20</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="38" t="s">
+      <c r="U7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="38" t="s">
+      <c r="V7" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="38">
+      <c r="Y7" s="42">
         <v>10</v>
       </c>
     </row>
@@ -3205,18 +3183,18 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -3861,7 +3839,7 @@
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -5114,19 +5092,19 @@
   <sheetData>
     <row r="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D1" s="7"/>
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5398,7 +5376,7 @@
     </row>
     <row r="25" ht="15" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5697,24 +5675,24 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6544,30 +6522,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="9" style="36"/>
-    <col min="3" max="3" width="12.375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="36" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="36" customWidth="1"/>
-    <col min="10" max="15" width="9.125" style="36" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="9" style="40"/>
+    <col min="2" max="2" width="12.375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.11666666666667" style="40" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="40" customWidth="1"/>
+    <col min="9" max="12" width="9.125" style="40" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:15">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
@@ -6577,7 +6554,7 @@
       <c r="C1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -6586,371 +6563,316 @@
       <c r="F1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>68</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="16">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="16">
+        <v>362092.308</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2950443.77</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1282.35</v>
+      </c>
+      <c r="F2" s="41">
+        <v>13.9</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="16">
-        <v>362092.308</v>
-      </c>
-      <c r="G2" s="16">
-        <v>2950443.77</v>
-      </c>
-      <c r="H2" s="16">
-        <v>1282.35</v>
-      </c>
-      <c r="I2" s="37">
-        <v>13.9</v>
-      </c>
+      <c r="H2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="16">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="16">
+        <v>362092.332</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2950441.66</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1282.32</v>
+      </c>
+      <c r="F3" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="16">
-        <v>362092.332</v>
-      </c>
-      <c r="G3" s="16">
-        <v>2950441.66</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1282.32</v>
-      </c>
-      <c r="I3" s="37">
-        <v>14.4</v>
-      </c>
+      <c r="H3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="16">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="16">
+        <v>362092.292</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2950438.34</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1282.35</v>
+      </c>
+      <c r="F4" s="41">
+        <v>14.1</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="16">
-        <v>362092.292</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2950438.34</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1282.35</v>
-      </c>
-      <c r="I4" s="37">
-        <v>14.1</v>
-      </c>
+      <c r="H4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="16">
-        <v>4</v>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="16">
+        <v>362092.306</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2950435.84</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1282.4</v>
+      </c>
+      <c r="F5" s="41">
+        <v>14.3</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="16">
-        <v>362092.306</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2950435.84</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1282.4</v>
-      </c>
-      <c r="I5" s="37">
-        <v>14.3</v>
-      </c>
+      <c r="H5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="16">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="16">
+        <v>362098.34</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2950435.92</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1282.41</v>
+      </c>
+      <c r="F6" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="16">
-        <v>362098.34</v>
-      </c>
-      <c r="G6" s="16">
-        <v>2950435.92</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1282.41</v>
-      </c>
-      <c r="I6" s="37">
-        <v>14.4</v>
-      </c>
+      <c r="H6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="16">
-        <v>6</v>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="16">
+        <v>362098.341</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2950438.45</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1282.46</v>
+      </c>
+      <c r="F7" s="41">
+        <v>13.7</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="16">
-        <v>362098.341</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2950438.45</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1282.46</v>
-      </c>
-      <c r="I7" s="37">
-        <v>13.7</v>
-      </c>
+      <c r="H7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="16">
-        <v>7</v>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="16">
+        <v>71</v>
+      </c>
+      <c r="C8" s="16">
         <v>362098.33</v>
       </c>
-      <c r="G8" s="16">
+      <c r="D8" s="16">
         <v>2950443.8</v>
       </c>
-      <c r="H8" s="16">
+      <c r="E8" s="16">
         <v>1282.48</v>
       </c>
-      <c r="I8" s="37">
+      <c r="F8" s="41">
         <v>14.5</v>
       </c>
+      <c r="G8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="16">
-        <v>8</v>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="16">
+        <v>71</v>
+      </c>
+      <c r="C9" s="16">
         <v>362102.452</v>
       </c>
-      <c r="G9" s="16">
+      <c r="D9" s="16">
         <v>2950443.78</v>
       </c>
-      <c r="H9" s="16">
+      <c r="E9" s="16">
         <v>1282.45</v>
       </c>
-      <c r="I9" s="37">
+      <c r="F9" s="41">
         <v>14.2</v>
       </c>
+      <c r="G9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="16">
-        <v>9</v>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="16">
+        <v>71</v>
+      </c>
+      <c r="C10" s="16">
         <v>362104.311</v>
       </c>
-      <c r="G10" s="16">
+      <c r="D10" s="16">
         <v>2950443.03</v>
       </c>
-      <c r="H10" s="16">
+      <c r="E10" s="16">
         <v>1282.46</v>
       </c>
-      <c r="I10" s="37">
+      <c r="F10" s="41">
         <v>13.6</v>
       </c>
+      <c r="G10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="16">
-        <v>10</v>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="16">
+        <v>71</v>
+      </c>
+      <c r="C11" s="16">
         <v>362104.293</v>
       </c>
-      <c r="G11" s="16">
+      <c r="D11" s="16">
         <v>2950439.32</v>
       </c>
-      <c r="H11" s="16">
+      <c r="E11" s="16">
         <v>1282.61</v>
       </c>
-      <c r="I11" s="37">
+      <c r="F11" s="41">
         <v>13.9</v>
       </c>
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6961,291 +6883,300 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <cols>
+    <col min="2" max="4" width="9" style="34"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:12">
-      <c r="A1" s="16" t="s">
+    <row r="1" ht="15" spans="1:14">
+      <c r="A1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16">
-        <v>1</v>
-      </c>
-      <c r="D1" s="16">
+      <c r="E1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:14">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37">
+        <v>0</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="39">
+        <v>3</v>
+      </c>
+      <c r="F2" s="39">
+        <v>3.3</v>
+      </c>
+      <c r="G2" s="39">
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="39">
+        <v>3.8</v>
+      </c>
+      <c r="I2" s="39">
+        <v>3.8</v>
+      </c>
+      <c r="J2" s="39">
+        <v>3.7</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <v>3.1</v>
+      </c>
+      <c r="M2" s="39">
+        <v>3</v>
+      </c>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" ht="15" spans="1:14">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="E1" s="16">
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="39">
+        <v>6</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39">
+        <v>6.7</v>
+      </c>
+      <c r="H3" s="39">
+        <v>6.8</v>
+      </c>
+      <c r="I3" s="39">
+        <v>6.8</v>
+      </c>
+      <c r="J3" s="39">
+        <v>6.7</v>
+      </c>
+      <c r="K3" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="L3" s="39">
+        <v>6.1</v>
+      </c>
+      <c r="M3" s="39">
+        <v>6</v>
+      </c>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" ht="15" spans="1:14">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="F1" s="16">
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="39">
+        <v>9.4</v>
+      </c>
+      <c r="F4" s="39">
+        <v>9.3</v>
+      </c>
+      <c r="G4" s="39">
+        <v>8.3</v>
+      </c>
+      <c r="H4" s="39">
+        <v>9</v>
+      </c>
+      <c r="I4" s="39">
+        <v>9.1</v>
+      </c>
+      <c r="J4" s="39">
+        <v>8.8</v>
+      </c>
+      <c r="K4" s="39">
+        <v>9</v>
+      </c>
+      <c r="L4" s="39">
+        <v>8.4</v>
+      </c>
+      <c r="M4" s="39">
+        <v>9.7</v>
+      </c>
+      <c r="N4" s="39">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:14">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="39">
+        <v>10.4</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39">
+        <v>9.3</v>
+      </c>
+      <c r="H5" s="39">
+        <v>10</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39">
+        <v>9.8</v>
+      </c>
+      <c r="K5" s="39">
+        <v>10</v>
+      </c>
+      <c r="L5" s="39">
+        <v>9.4</v>
+      </c>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:14">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="G1" s="16">
-        <v>5</v>
-      </c>
-      <c r="H1" s="16">
-        <v>6</v>
-      </c>
-      <c r="I1" s="16">
-        <v>7</v>
-      </c>
-      <c r="J1" s="16">
-        <v>8</v>
-      </c>
-      <c r="K1" s="16">
-        <v>9</v>
-      </c>
-      <c r="L1" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:12">
-      <c r="A2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:12">
-      <c r="A3" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="35">
+      <c r="B6" s="37">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="39">
+        <v>12.4</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39">
+        <v>12.6</v>
+      </c>
+      <c r="H6" s="39">
+        <v>12.8</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39">
+        <v>12.2</v>
+      </c>
+      <c r="K6" s="39">
+        <v>13</v>
+      </c>
+      <c r="L6" s="39">
+        <v>12.7</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:14">
+      <c r="A7" s="36">
         <v>3</v>
       </c>
-      <c r="D3" s="35">
-        <v>3.3</v>
-      </c>
-      <c r="E3" s="35">
-        <v>3.7</v>
-      </c>
-      <c r="F3" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="G3" s="35">
-        <v>3.8</v>
-      </c>
-      <c r="H3" s="35">
-        <v>3.7</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35">
-        <v>3.1</v>
-      </c>
-      <c r="K3" s="35">
-        <v>3</v>
-      </c>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" ht="15" spans="1:12">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="35">
-        <v>6</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="F4" s="35">
-        <v>6.8</v>
-      </c>
-      <c r="G4" s="35">
-        <v>6.8</v>
-      </c>
-      <c r="H4" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="I4" s="35">
-        <v>6.5</v>
-      </c>
-      <c r="J4" s="35">
-        <v>6.1</v>
-      </c>
-      <c r="K4" s="35">
-        <v>6</v>
-      </c>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" ht="15" spans="1:12">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="35">
-        <v>9.4</v>
-      </c>
-      <c r="D5" s="35">
-        <v>9.3</v>
-      </c>
-      <c r="E5" s="35">
-        <v>8.3</v>
-      </c>
-      <c r="F5" s="35">
-        <v>9</v>
-      </c>
-      <c r="G5" s="35">
-        <v>9.1</v>
-      </c>
-      <c r="H5" s="35">
-        <v>8.8</v>
-      </c>
-      <c r="I5" s="35">
-        <v>9</v>
-      </c>
-      <c r="J5" s="35">
-        <v>8.4</v>
-      </c>
-      <c r="K5" s="35">
-        <v>9.7</v>
-      </c>
-      <c r="L5" s="35">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:12">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="35">
-        <v>10.4</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35">
-        <v>9.3</v>
-      </c>
-      <c r="F6" s="35">
-        <v>10</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35">
-        <v>9.8</v>
-      </c>
-      <c r="I6" s="35">
-        <v>10</v>
-      </c>
-      <c r="J6" s="35">
-        <v>9.4</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:12">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37">
+        <v>2</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="35">
-        <v>12.4</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35">
-        <v>12.6</v>
-      </c>
-      <c r="F7" s="35">
-        <v>12.8</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
-        <v>12.2</v>
-      </c>
-      <c r="I7" s="35">
-        <v>13</v>
-      </c>
-      <c r="J7" s="35">
-        <v>12.7</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:12">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="35">
+      <c r="D7" s="36"/>
+      <c r="E7" s="39">
         <v>13.9</v>
       </c>
-      <c r="D8" s="35">
+      <c r="F7" s="39">
         <v>14.4</v>
       </c>
-      <c r="E8" s="35">
+      <c r="G7" s="39">
         <v>14.1</v>
       </c>
-      <c r="F8" s="35">
+      <c r="H7" s="39">
         <v>14.3</v>
       </c>
-      <c r="G8" s="35">
+      <c r="I7" s="39">
         <v>14.4</v>
       </c>
-      <c r="H8" s="35">
+      <c r="J7" s="39">
         <v>13.7</v>
       </c>
-      <c r="I8" s="35">
+      <c r="K7" s="39">
         <v>14.5</v>
       </c>
-      <c r="J8" s="35">
+      <c r="L7" s="39">
         <v>14.2</v>
       </c>
-      <c r="K8" s="35">
+      <c r="M7" s="39">
         <v>13.6</v>
       </c>
-      <c r="L8" s="35">
+      <c r="N7" s="39">
         <v>13.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A8"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7273,21 +7204,21 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:4">
       <c r="A1" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -7295,7 +7226,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="16">
         <v>9.6</v>
@@ -7309,7 +7240,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="16">
         <v>13.5</v>
@@ -7323,7 +7254,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -7331,7 +7262,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" s="16">
         <v>9.5</v>
@@ -7345,7 +7276,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -7353,7 +7284,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="16">
         <v>8.5</v>
@@ -7367,7 +7298,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="16">
         <v>13.7</v>
@@ -7381,7 +7312,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -7389,7 +7320,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11" s="16">
         <v>9.2</v>
@@ -7403,7 +7334,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" s="16">
         <v>13.9</v>
@@ -7417,7 +7348,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -7425,7 +7356,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="16">
         <v>9.3</v>
@@ -7439,7 +7370,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -7447,7 +7378,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:4">
       <c r="A16" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="16">
         <v>9</v>
@@ -7461,7 +7392,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="16">
         <v>13.3</v>
@@ -7475,7 +7406,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:4">
       <c r="A18" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -7483,7 +7414,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:4">
       <c r="A19" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="16">
         <v>9.2</v>
@@ -7497,7 +7428,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" s="16">
         <v>14.1</v>
@@ -7511,7 +7442,7 @@
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -7519,7 +7450,7 @@
     </row>
     <row r="22" customHeight="1" spans="1:4">
       <c r="A22" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="16">
         <v>8.6</v>
@@ -7533,7 +7464,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="16">
         <v>13.8</v>
@@ -7547,7 +7478,7 @@
     </row>
     <row r="24" customHeight="1" spans="1:4">
       <c r="A24" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -7555,7 +7486,7 @@
     </row>
     <row r="25" customHeight="1" spans="1:4">
       <c r="A25" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" s="16">
         <v>9.9</v>
@@ -7569,7 +7500,7 @@
     </row>
     <row r="26" customHeight="1" spans="1:4">
       <c r="A26" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -7577,7 +7508,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:4">
       <c r="A27" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" s="16">
         <v>9.4</v>
@@ -7591,7 +7522,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:4">
       <c r="A28" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" s="16">
         <v>13.5</v>
@@ -7633,31 +7564,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -7795,7 +7726,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -8071,34 +8002,34 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1" spans="1:9">
       <c r="A1" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -8741,7 +8672,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:9">
       <c r="A33" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="28"/>
@@ -9475,31 +9406,31 @@
   <sheetData>
     <row r="1" ht="37.5" customHeight="1" spans="1:18">
       <c r="A1" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="16">
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F1" s="16">
         <v>2</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
@@ -9513,13 +9444,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:18">
       <c r="A2" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="25">
         <v>7.33</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="16">
         <v>1</v>
@@ -9531,7 +9462,7 @@
         <v>10.33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="16">
         <v>1</v>
@@ -9551,13 +9482,13 @@
     </row>
     <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="25">
         <v>6.9</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="16">
         <v>1</v>
@@ -9569,7 +9500,7 @@
         <v>9.9</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="16">
         <v>1</v>
@@ -9589,13 +9520,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="25">
         <v>7.38</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="16">
         <v>1</v>
@@ -9607,7 +9538,7 @@
         <v>10.38</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="16">
         <v>1</v>
@@ -9627,13 +9558,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:18">
       <c r="A5" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="25">
         <v>7.18</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
@@ -9645,7 +9576,7 @@
         <v>10.18</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="16">
         <v>1</v>
@@ -9665,13 +9596,13 @@
     </row>
     <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="25">
         <v>7.73</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
@@ -9683,7 +9614,7 @@
         <v>10.73</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="16">
         <v>1</v>
@@ -9703,13 +9634,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="25">
         <v>6.96</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
@@ -9721,7 +9652,7 @@
         <v>9.96</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="16">
         <v>1</v>
@@ -9741,13 +9672,13 @@
     </row>
     <row r="8" customHeight="1" spans="1:18">
       <c r="A8" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="25">
         <v>7.61</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -9759,7 +9690,7 @@
         <v>10.61</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="16">
         <v>1</v>
@@ -9779,13 +9710,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="25">
         <v>7.04</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="16">
         <v>1</v>
@@ -9797,7 +9728,7 @@
         <v>10.04</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="16">
         <v>1</v>
@@ -9817,13 +9748,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="25">
         <v>6.96</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="16">
         <v>1</v>
@@ -9835,7 +9766,7 @@
         <v>9.96</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="16">
         <v>1</v>
@@ -9855,13 +9786,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="25">
         <v>7.58</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="16">
         <v>1</v>
@@ -9873,7 +9804,7 @@
         <v>10.58</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="16">
         <v>1</v>
@@ -10133,23 +10064,23 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -10158,7 +10089,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -10174,7 +10105,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -10190,7 +10121,7 @@
         <v>9.4</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -10206,7 +10137,7 @@
         <v>10.4</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -10222,7 +10153,7 @@
         <v>12.4</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
@@ -10238,7 +10169,7 @@
         <v>13.9</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -10375,7 +10306,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -10396,7 +10327,7 @@
         <v>3.3</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
@@ -10410,7 +10341,7 @@
       <c r="D20" s="13"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
@@ -10426,7 +10357,7 @@
         <v>9.3</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:6">
@@ -10440,7 +10371,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:6">
@@ -10454,7 +10385,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:6">
@@ -10470,7 +10401,7 @@
         <v>14.4</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:6">
@@ -10609,7 +10540,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:6">
       <c r="A35" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -10630,7 +10561,7 @@
         <v>3.7</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:6">
@@ -10646,7 +10577,7 @@
         <v>6.7</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:6">
@@ -10662,7 +10593,7 @@
         <v>8.3</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:6">
@@ -10678,7 +10609,7 @@
         <v>9.3</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:6">
@@ -10694,7 +10625,7 @@
         <v>12.6</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:6">
@@ -10710,7 +10641,7 @@
         <v>14.1</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:6">
@@ -10851,7 +10782,7 @@
     </row>
     <row r="52" customHeight="1" spans="1:6">
       <c r="A52" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -10872,7 +10803,7 @@
         <v>3.8</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:6">
@@ -10888,7 +10819,7 @@
         <v>6.8</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:6">
@@ -10904,7 +10835,7 @@
         <v>9</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:6">
@@ -10920,7 +10851,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
@@ -10936,7 +10867,7 @@
         <v>12.8</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:6">
@@ -10952,7 +10883,7 @@
         <v>14.3</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:6">
@@ -11122,10 +11053,10 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -11133,7 +11064,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
@@ -11144,45 +11075,45 @@
     <row r="2" spans="1:13">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="16">
         <v>78</v>
@@ -11217,7 +11148,7 @@
     </row>
     <row r="4" ht="15" spans="1:13">
       <c r="A4" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="16">
         <v>70</v>
@@ -11252,7 +11183,7 @@
     </row>
     <row r="5" ht="15" spans="1:13">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="16">
         <v>71</v>
@@ -11287,7 +11218,7 @@
     </row>
     <row r="6" ht="15" spans="1:13">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="16">
         <v>78</v>
@@ -11322,7 +11253,7 @@
     </row>
     <row r="7" ht="15" spans="1:13">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="16">
         <v>80</v>
@@ -11357,7 +11288,7 @@
     </row>
     <row r="8" ht="15" spans="1:13">
       <c r="A8" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16">
         <v>78</v>
@@ -11392,7 +11323,7 @@
     </row>
     <row r="9" ht="15" spans="1:13">
       <c r="A9" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="16">
         <v>70</v>
@@ -11427,7 +11358,7 @@
     </row>
     <row r="10" ht="15" spans="1:13">
       <c r="A10" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="16">
         <v>78</v>
@@ -11462,7 +11393,7 @@
     </row>
     <row r="11" ht="15" spans="1:13">
       <c r="A11" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="16">
         <v>72</v>
@@ -11497,7 +11428,7 @@
     </row>
     <row r="12" ht="15" spans="1:13">
       <c r="A12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="16">
         <v>72</v>

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12195" activeTab="2"/>
+    <workbookView windowWidth="14400" windowHeight="12195" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="标准地层" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="159">
   <si>
     <r>
       <rPr>
@@ -939,6 +939,46 @@
     <t>10-2</t>
   </si>
   <si>
+    <t>孔号</t>
+  </si>
+  <si>
+    <t>试验点的底深度(m)</t>
+  </si>
+  <si>
+    <t>杆长(m)</t>
+  </si>
+  <si>
+    <t>一阵击数的长度(m)</t>
+  </si>
+  <si>
+    <t>一阵击数</t>
+  </si>
+  <si>
+    <t>标贯击数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修正后的标贯击数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特征值</t>
+    </r>
+  </si>
+  <si>
     <t>孔号及试验点底深度</t>
   </si>
   <si>
@@ -949,6 +989,80 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>动探类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重型，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超重型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>杆长</t>
     </r>
   </si>
@@ -960,16 +1074,18 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一阵击数的长度</t>
-    </r>
+      <t>试验段长度</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(m)</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一阵击数</t>
     </r>
   </si>
   <si>
@@ -980,7 +1096,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一阵击数</t>
+      <t>贯入度</t>
     </r>
   </si>
   <si>
@@ -991,7 +1107,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>标贯击数</t>
+      <t>动探击数</t>
     </r>
   </si>
   <si>
@@ -1002,7 +1118,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>修正后的标贯击数</t>
+      <t>修正后击数</t>
     </r>
   </si>
   <si>
@@ -1013,166 +1129,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>特征值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>钻孔编号</t>
+    </r>
+  </si>
+  <si>
+    <t>地下水位层号</t>
+  </si>
+  <si>
+    <t>水位深度(m)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>动探类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轻型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超重型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>试验段长度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贯入度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动探击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修正后击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻孔编号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>测水日期</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>地下水类型</t>
     </r>
     <r>
@@ -1621,7 +1599,7 @@
     <numFmt numFmtId="178" formatCode="0.0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,6 +1637,18 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -1812,12 +1802,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2134,10 +2118,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2146,137 +2130,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2352,7 +2336,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2369,6 +2359,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2388,11 +2384,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2730,7 +2723,7 @@
   <sheetPr/>
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
@@ -2746,417 +2739,417 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="42">
-        <v>1</v>
-      </c>
-      <c r="C2" s="42">
+      <c r="B2" s="45">
+        <v>1</v>
+      </c>
+      <c r="C2" s="45">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42" t="s">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="45">
         <v>2</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="45">
         <v>0</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="43" t="s">
+      <c r="T3" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="45">
         <v>3</v>
       </c>
-      <c r="C4" s="42">
-        <v>1</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="45">
+        <v>1</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="45">
         <v>300</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="45">
         <v>20</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="42" t="s">
+      <c r="S4" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="42" t="s">
+      <c r="U4" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="42" t="s">
+      <c r="V4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="42" t="s">
+      <c r="X4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="42">
+      <c r="Y4" s="45">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="45">
         <v>300</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="45">
         <v>20</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="45">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="45">
         <v>4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="45">
         <v>0</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="45">
         <v>3</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="45">
         <v>2</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42" t="s">
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="45">
         <v>300</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="45">
         <v>20</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="P7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="R7" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="42" t="s">
+      <c r="S7" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="T7" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="42" t="s">
+      <c r="U7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="42" t="s">
+      <c r="V7" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="42" t="s">
+      <c r="W7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="X7" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Y7" s="45">
         <v>10</v>
       </c>
     </row>
@@ -3183,13 +3176,13 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:3">
@@ -5092,13 +5085,13 @@
   <sheetData>
     <row r="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D1" s="7"/>
     </row>
@@ -5675,19 +5668,19 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
@@ -6527,20 +6520,20 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="40"/>
-    <col min="2" max="2" width="12.375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9.11666666666667" style="40" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="40" customWidth="1"/>
-    <col min="9" max="12" width="9.125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9" style="43"/>
+    <col min="2" max="2" width="12.375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="9.11666666666667" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="43" customWidth="1"/>
+    <col min="9" max="12" width="9.125" style="43" customWidth="1"/>
     <col min="13" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -6590,7 +6583,7 @@
       <c r="E2" s="16">
         <v>1282.35</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="44">
         <v>13.9</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -6620,7 +6613,7 @@
       <c r="E3" s="16">
         <v>1282.32</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="44">
         <v>14.4</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -6650,7 +6643,7 @@
       <c r="E4" s="16">
         <v>1282.35</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="44">
         <v>14.1</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -6680,7 +6673,7 @@
       <c r="E5" s="16">
         <v>1282.4</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="44">
         <v>14.3</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -6710,7 +6703,7 @@
       <c r="E6" s="16">
         <v>1282.41</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="44">
         <v>14.4</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -6740,7 +6733,7 @@
       <c r="E7" s="16">
         <v>1282.46</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="44">
         <v>13.7</v>
       </c>
       <c r="G7" s="16" t="s">
@@ -6770,7 +6763,7 @@
       <c r="E8" s="16">
         <v>1282.48</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="44">
         <v>14.5</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -6800,7 +6793,7 @@
       <c r="E9" s="16">
         <v>1282.45</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="44">
         <v>14.2</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -6830,7 +6823,7 @@
       <c r="E10" s="16">
         <v>1282.46</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="44">
         <v>13.6</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -6860,7 +6853,7 @@
       <c r="E11" s="16">
         <v>1282.61</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="44">
         <v>13.9</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -6885,28 +6878,28 @@
   <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="4" width="9" style="34"/>
+    <col min="2" max="4" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:14">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -6941,236 +6934,236 @@
       </c>
     </row>
     <row r="2" ht="15" spans="1:14">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37">
+      <c r="A2" s="40">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="42">
         <v>3</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="42">
         <v>3.3</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="42">
         <v>3.7</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="42">
         <v>3.8</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="42">
         <v>3.8</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="42">
         <v>3.7</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42">
         <v>3.1</v>
       </c>
-      <c r="M2" s="39">
+      <c r="M2" s="42">
         <v>3</v>
       </c>
-      <c r="N2" s="39"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" ht="15" spans="1:14">
-      <c r="A3" s="36">
+      <c r="A3" s="40">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="41">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="39">
+      <c r="D3" s="40"/>
+      <c r="E3" s="42">
         <v>6</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42">
         <v>6.7</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="42">
         <v>6.8</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="42">
         <v>6.8</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="42">
         <v>6.7</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="42">
         <v>6.5</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="42">
         <v>6.1</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="42">
         <v>6</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" ht="15" spans="1:14">
-      <c r="A4" s="36">
+      <c r="A4" s="40">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
-        <v>1</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="41">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="39">
+      <c r="D4" s="40"/>
+      <c r="E4" s="42">
         <v>9.4</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="42">
         <v>9.3</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="42">
         <v>8.3</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="42">
         <v>9</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="42">
         <v>9.1</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="42">
         <v>8.8</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="42">
         <v>9</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="42">
         <v>8.4</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="42">
         <v>9.7</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="42">
         <v>9.2</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:14">
-      <c r="A5" s="36">
+      <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="41">
         <v>2</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="39">
+      <c r="D5" s="40"/>
+      <c r="E5" s="42">
         <v>10.4</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
         <v>9.3</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="42">
         <v>10</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42">
         <v>9.8</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="42">
         <v>10</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="42">
         <v>9.4</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39">
+      <c r="M5" s="42"/>
+      <c r="N5" s="42">
         <v>10.2</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:14">
-      <c r="A6" s="36">
+      <c r="A6" s="40">
         <v>4</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="41">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="39">
+      <c r="D6" s="40"/>
+      <c r="E6" s="42">
         <v>12.4</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42">
         <v>12.6</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="42">
         <v>12.8</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42">
         <v>12.2</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="42">
         <v>13</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="42">
         <v>12.7</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39">
+      <c r="M6" s="42"/>
+      <c r="N6" s="42">
         <v>12.4</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
-      <c r="A7" s="36">
+      <c r="A7" s="40">
         <v>3</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="41">
         <v>2</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="39">
+      <c r="D7" s="40"/>
+      <c r="E7" s="42">
         <v>13.9</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="42">
         <v>14.4</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="42">
         <v>14.1</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="42">
         <v>14.3</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="42">
         <v>14.4</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="42">
         <v>13.7</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="42">
         <v>14.5</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="42">
         <v>14.2</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="42">
         <v>13.6</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="42">
         <v>13.9</v>
       </c>
     </row>
@@ -7225,7 +7218,7 @@
       <c r="D2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="16">
@@ -7239,7 +7232,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="16">
@@ -7261,7 +7254,7 @@
       <c r="D5" s="16"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="16">
@@ -7283,7 +7276,7 @@
       <c r="D7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="36" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="16">
@@ -7297,7 +7290,7 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="16">
@@ -7319,7 +7312,7 @@
       <c r="D10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="16">
@@ -7333,7 +7326,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="16">
@@ -7355,7 +7348,7 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="16">
@@ -7377,7 +7370,7 @@
       <c r="D15" s="16"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="37" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="16">
@@ -7391,7 +7384,7 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="37" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="16">
@@ -7413,7 +7406,7 @@
       <c r="D18" s="16"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="37" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="16">
@@ -7427,7 +7420,7 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B20" s="16">
@@ -7449,7 +7442,7 @@
       <c r="D21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="37" t="s">
         <v>109</v>
       </c>
       <c r="B22" s="16">
@@ -7463,7 +7456,7 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B23" s="16">
@@ -7485,7 +7478,7 @@
       <c r="D24" s="16"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="37" t="s">
         <v>111</v>
       </c>
       <c r="B25" s="16">
@@ -7507,7 +7500,7 @@
       <c r="D26" s="16"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B27" s="16">
@@ -7521,7 +7514,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B28" s="16">
@@ -7543,39 +7536,40 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="30" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="30" customWidth="1"/>
-    <col min="6" max="7" width="16.125" style="30"/>
-    <col min="8" max="16384" width="16.125" style="29"/>
+    <col min="1" max="1" width="16.125" style="31"/>
+    <col min="2" max="2" width="18.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="32" customWidth="1"/>
+    <col min="7" max="8" width="16.125" style="32"/>
+    <col min="9" max="16384" width="16.125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+    <row r="1" customHeight="1" spans="1:9">
+      <c r="A1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="34" t="s">
         <v>118</v>
       </c>
       <c r="F1" s="21" t="s">
@@ -7584,393 +7578,378 @@
       <c r="G1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="H1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.3</v>
+      </c>
       <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="F2" s="35">
+        <v>5.17</v>
+      </c>
       <c r="G2" s="21"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="H2" s="21"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:9">
+      <c r="B3" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="35">
+        <v>5.29</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:9">
+      <c r="B4" s="18">
+        <v>1.1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2.6</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="35">
+        <v>5.04</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:9">
+      <c r="B5" s="18">
         <v>1.6</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C5" s="21">
+        <v>3.1</v>
+      </c>
+      <c r="D5" s="21">
         <v>0.3</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="31">
-        <v>5.17</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="E5" s="21"/>
+      <c r="F5" s="35">
+        <v>5.47</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:9">
+      <c r="B6" s="18">
         <v>2.1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C6" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="D6" s="21">
         <v>0.3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="31">
-        <v>5.29</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="18">
-        <v>1.1</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="E6" s="21"/>
+      <c r="F6" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:9">
+      <c r="B7" s="18">
         <v>2.6</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C7" s="21">
+        <v>4.1</v>
+      </c>
+      <c r="D7" s="21">
         <v>0.3</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="31">
-        <v>5.04</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="E7" s="21"/>
+      <c r="F7" s="35">
+        <v>5.27</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:9">
+      <c r="B8" s="18">
         <v>3.1</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C8" s="21">
+        <v>4.6</v>
+      </c>
+      <c r="D8" s="21">
         <v>0.3</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="31">
+      <c r="E8" s="21"/>
+      <c r="F8" s="35">
+        <v>5.22</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="35">
+        <v>5.05</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:9">
+      <c r="B10" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="35">
+        <v>5.39</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:9">
+      <c r="B11" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="35">
+        <v>5.07</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:9">
+      <c r="B12" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="C12" s="21">
+        <v>4.2</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="35">
+        <v>5.46</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:9">
+      <c r="B13" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4.8</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="35">
         <v>5.47</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="B7" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:9">
+      <c r="B14" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="C14" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="D14" s="21">
         <v>0.3</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="31">
-        <v>5.5</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="B8" s="21">
-        <v>4.1</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="E14" s="21"/>
+      <c r="F14" s="35">
+        <v>5.14</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:9">
+      <c r="B15" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6</v>
+      </c>
+      <c r="D15" s="21">
         <v>0.3</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="31">
-        <v>5.27</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="B9" s="21">
-        <v>4.6</v>
-      </c>
-      <c r="C9" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="31">
-        <v>5.22</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="B11" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="C11" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="31">
-        <v>5.05</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="B12" s="21">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="31">
-        <v>5.39</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="B13" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="31">
-        <v>5.07</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="18">
-        <v>2.7</v>
-      </c>
-      <c r="B14" s="21">
-        <v>4.2</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="31">
-        <v>5.46</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="B15" s="21">
-        <v>4.8</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="31">
-        <v>5.47</v>
-      </c>
-      <c r="F15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="35">
+        <v>5.44</v>
+      </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="18">
-        <v>3.9</v>
-      </c>
-      <c r="B16" s="21">
-        <v>5.4</v>
-      </c>
-      <c r="C16" s="21">
-        <v>0.3</v>
-      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:9">
+      <c r="B16" s="18"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="31">
-        <v>5.14</v>
-      </c>
+      <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="18">
-        <v>4.5</v>
-      </c>
-      <c r="B17" s="21">
-        <v>6</v>
-      </c>
-      <c r="C17" s="21">
-        <v>0.3</v>
-      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:9">
+      <c r="B17" s="18"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="31">
-        <v>5.44</v>
-      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:9">
+      <c r="B18" s="18"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="B19" s="18"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:9">
+      <c r="B20" s="18"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:9">
+      <c r="B21" s="18"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:9">
+      <c r="B22" s="18"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:9">
+      <c r="B23" s="18"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:9">
+      <c r="B24" s="18"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="18"/>
-      <c r="B25" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:9">
+      <c r="B25" s="18"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:9">
+      <c r="B26" s="18"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="18"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8001,34 +7980,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A1" s="26" t="s">
-        <v>114</v>
+      <c r="A1" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="18"/>
@@ -8047,7 +8026,7 @@
       <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="30">
         <v>1.6</v>
       </c>
       <c r="D3" s="18">
@@ -8055,7 +8034,7 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="28">
+      <c r="G3" s="30">
         <v>5.17</v>
       </c>
       <c r="H3" s="18"/>
@@ -8068,7 +8047,7 @@
       <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="30">
         <v>1.7</v>
       </c>
       <c r="D4" s="18">
@@ -8076,7 +8055,7 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="28">
+      <c r="G4" s="30">
         <v>5.29</v>
       </c>
       <c r="H4" s="18"/>
@@ -8089,7 +8068,7 @@
       <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="30">
         <v>1.8</v>
       </c>
       <c r="D5" s="18">
@@ -8097,7 +8076,7 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="28">
+      <c r="G5" s="30">
         <v>5.04</v>
       </c>
       <c r="H5" s="18"/>
@@ -8110,7 +8089,7 @@
       <c r="B6" s="18">
         <v>1</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="30">
         <v>1.9</v>
       </c>
       <c r="D6" s="18">
@@ -8118,7 +8097,7 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="28">
+      <c r="G6" s="30">
         <v>5.47</v>
       </c>
       <c r="H6" s="18"/>
@@ -8131,7 +8110,7 @@
       <c r="B7" s="18">
         <v>1</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="30">
         <v>2</v>
       </c>
       <c r="D7" s="18">
@@ -8139,7 +8118,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="28">
+      <c r="G7" s="30">
         <v>5.5</v>
       </c>
       <c r="H7" s="18"/>
@@ -8152,7 +8131,7 @@
       <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="30">
         <v>2.1</v>
       </c>
       <c r="D8" s="18">
@@ -8160,7 +8139,7 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="28">
+      <c r="G8" s="30">
         <v>5.27</v>
       </c>
       <c r="H8" s="18"/>
@@ -8173,7 +8152,7 @@
       <c r="B9" s="18">
         <v>1</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="30">
         <v>2.2</v>
       </c>
       <c r="D9" s="18">
@@ -8181,7 +8160,7 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="28">
+      <c r="G9" s="30">
         <v>5.22</v>
       </c>
       <c r="H9" s="18"/>
@@ -8194,7 +8173,7 @@
       <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="30">
         <v>2.3</v>
       </c>
       <c r="D10" s="18">
@@ -8202,7 +8181,7 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="28">
+      <c r="G10" s="30">
         <v>5.33</v>
       </c>
       <c r="H10" s="18"/>
@@ -8215,7 +8194,7 @@
       <c r="B11" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="30">
         <v>2.4</v>
       </c>
       <c r="D11" s="18">
@@ -8223,7 +8202,7 @@
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="28">
+      <c r="G11" s="30">
         <v>5.05</v>
       </c>
       <c r="H11" s="18"/>
@@ -8236,7 +8215,7 @@
       <c r="B12" s="18">
         <v>1</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="30">
         <v>2.5</v>
       </c>
       <c r="D12" s="18">
@@ -8244,7 +8223,7 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="28">
+      <c r="G12" s="30">
         <v>5.39</v>
       </c>
       <c r="H12" s="18"/>
@@ -8257,7 +8236,7 @@
       <c r="B13" s="18">
         <v>1</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="30">
         <v>2.6</v>
       </c>
       <c r="D13" s="18">
@@ -8265,7 +8244,7 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="28">
+      <c r="G13" s="30">
         <v>5.07</v>
       </c>
       <c r="H13" s="18"/>
@@ -8278,7 +8257,7 @@
       <c r="B14" s="18">
         <v>1</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="30">
         <v>2.7</v>
       </c>
       <c r="D14" s="18">
@@ -8286,7 +8265,7 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="28">
+      <c r="G14" s="30">
         <v>5.46</v>
       </c>
       <c r="H14" s="18"/>
@@ -8299,7 +8278,7 @@
       <c r="B15" s="18">
         <v>1</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="30">
         <v>2.8</v>
       </c>
       <c r="D15" s="18">
@@ -8307,7 +8286,7 @@
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="28">
+      <c r="G15" s="30">
         <v>5.47</v>
       </c>
       <c r="H15" s="18"/>
@@ -8320,7 +8299,7 @@
       <c r="B16" s="18">
         <v>1</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="30">
         <v>2.9</v>
       </c>
       <c r="D16" s="18">
@@ -8328,7 +8307,7 @@
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="28">
+      <c r="G16" s="30">
         <v>5.14</v>
       </c>
       <c r="H16" s="18"/>
@@ -8341,7 +8320,7 @@
       <c r="B17" s="18">
         <v>1</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="30">
         <v>3</v>
       </c>
       <c r="D17" s="18">
@@ -8349,7 +8328,7 @@
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="28">
+      <c r="G17" s="30">
         <v>5.44</v>
       </c>
       <c r="H17" s="18"/>
@@ -8362,7 +8341,7 @@
       <c r="B18" s="18">
         <v>1</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="30">
         <v>3.1</v>
       </c>
       <c r="D18" s="18">
@@ -8370,7 +8349,7 @@
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="28">
+      <c r="G18" s="30">
         <v>5.53</v>
       </c>
       <c r="H18" s="18"/>
@@ -8383,7 +8362,7 @@
       <c r="B19" s="18">
         <v>1</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="30">
         <v>3.2</v>
       </c>
       <c r="D19" s="18">
@@ -8391,7 +8370,7 @@
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="28">
+      <c r="G19" s="30">
         <v>5.1</v>
       </c>
       <c r="H19" s="18"/>
@@ -8404,7 +8383,7 @@
       <c r="B20" s="18">
         <v>1</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="30">
         <v>3.3</v>
       </c>
       <c r="D20" s="18">
@@ -8412,7 +8391,7 @@
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="28">
+      <c r="G20" s="30">
         <v>5.74</v>
       </c>
       <c r="H20" s="18"/>
@@ -8425,7 +8404,7 @@
       <c r="B21" s="18">
         <v>1</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="30">
         <v>3.4</v>
       </c>
       <c r="D21" s="18">
@@ -8433,7 +8412,7 @@
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="28">
+      <c r="G21" s="30">
         <v>5.58</v>
       </c>
       <c r="H21" s="18"/>
@@ -8446,7 +8425,7 @@
       <c r="B22" s="18">
         <v>1</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="30">
         <v>3.5</v>
       </c>
       <c r="D22" s="18">
@@ -8454,7 +8433,7 @@
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="28">
+      <c r="G22" s="30">
         <v>5.05</v>
       </c>
       <c r="H22" s="18"/>
@@ -8467,7 +8446,7 @@
       <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="30">
         <v>3.6</v>
       </c>
       <c r="D23" s="18">
@@ -8475,7 +8454,7 @@
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="28">
+      <c r="G23" s="30">
         <v>5.65</v>
       </c>
       <c r="H23" s="18"/>
@@ -8488,7 +8467,7 @@
       <c r="B24" s="18">
         <v>1</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="30">
         <v>3.7</v>
       </c>
       <c r="D24" s="18">
@@ -8496,7 +8475,7 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="28">
+      <c r="G24" s="30">
         <v>5.29</v>
       </c>
       <c r="H24" s="18"/>
@@ -8509,7 +8488,7 @@
       <c r="B25" s="18">
         <v>1</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="30">
         <v>3.8</v>
       </c>
       <c r="D25" s="18">
@@ -8517,7 +8496,7 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="28">
+      <c r="G25" s="30">
         <v>5.52</v>
       </c>
       <c r="H25" s="18"/>
@@ -8530,7 +8509,7 @@
       <c r="B26" s="18">
         <v>1</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="30">
         <v>3.9</v>
       </c>
       <c r="D26" s="18">
@@ -8538,7 +8517,7 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="28">
+      <c r="G26" s="30">
         <v>5.52</v>
       </c>
       <c r="H26" s="18"/>
@@ -8551,7 +8530,7 @@
       <c r="B27" s="18">
         <v>1</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="30">
         <v>4</v>
       </c>
       <c r="D27" s="18">
@@ -8559,7 +8538,7 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="28">
+      <c r="G27" s="30">
         <v>5.68</v>
       </c>
       <c r="H27" s="18"/>
@@ -8572,7 +8551,7 @@
       <c r="B28" s="18">
         <v>1</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="30">
         <v>4.1</v>
       </c>
       <c r="D28" s="18">
@@ -8580,7 +8559,7 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="28">
+      <c r="G28" s="30">
         <v>5.29</v>
       </c>
       <c r="H28" s="18"/>
@@ -8593,7 +8572,7 @@
       <c r="B29" s="18">
         <v>1</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="30">
         <v>4.2</v>
       </c>
       <c r="D29" s="18">
@@ -8601,7 +8580,7 @@
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="28">
+      <c r="G29" s="30">
         <v>5.31</v>
       </c>
       <c r="H29" s="18"/>
@@ -8614,7 +8593,7 @@
       <c r="B30" s="18">
         <v>1</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="30">
         <v>4.3</v>
       </c>
       <c r="D30" s="18">
@@ -8622,7 +8601,7 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="28">
+      <c r="G30" s="30">
         <v>5.42</v>
       </c>
       <c r="H30" s="18"/>
@@ -8635,7 +8614,7 @@
       <c r="B31" s="18">
         <v>1</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="30">
         <v>4.4</v>
       </c>
       <c r="D31" s="18">
@@ -8643,7 +8622,7 @@
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="28">
+      <c r="G31" s="30">
         <v>5.11</v>
       </c>
       <c r="H31" s="18"/>
@@ -8656,7 +8635,7 @@
       <c r="B32" s="18">
         <v>1</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="30">
         <v>4.5</v>
       </c>
       <c r="D32" s="18">
@@ -8664,18 +8643,18 @@
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="28">
+      <c r="G32" s="30">
         <v>5.43</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="29" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -8690,7 +8669,7 @@
       <c r="B34" s="18">
         <v>1</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="30">
         <v>1.6</v>
       </c>
       <c r="D34" s="18">
@@ -8698,7 +8677,7 @@
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="28">
+      <c r="G34" s="30">
         <v>5.66</v>
       </c>
       <c r="H34" s="18"/>
@@ -8711,7 +8690,7 @@
       <c r="B35" s="18">
         <v>1</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="30">
         <v>1.7</v>
       </c>
       <c r="D35" s="18">
@@ -8719,7 +8698,7 @@
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="28">
+      <c r="G35" s="30">
         <v>5.34</v>
       </c>
       <c r="H35" s="18"/>
@@ -8732,7 +8711,7 @@
       <c r="B36" s="18">
         <v>1</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="30">
         <v>1.8</v>
       </c>
       <c r="D36" s="18">
@@ -8740,7 +8719,7 @@
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="28">
+      <c r="G36" s="30">
         <v>5.27</v>
       </c>
       <c r="H36" s="18"/>
@@ -8753,7 +8732,7 @@
       <c r="B37" s="18">
         <v>1</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="30">
         <v>1.9</v>
       </c>
       <c r="D37" s="18">
@@ -8761,7 +8740,7 @@
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="28">
+      <c r="G37" s="30">
         <v>5.06</v>
       </c>
       <c r="H37" s="18"/>
@@ -8774,7 +8753,7 @@
       <c r="B38" s="18">
         <v>1</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="30">
         <v>2</v>
       </c>
       <c r="D38" s="18">
@@ -8782,7 +8761,7 @@
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="28">
+      <c r="G38" s="30">
         <v>5.65</v>
       </c>
       <c r="H38" s="18"/>
@@ -8795,7 +8774,7 @@
       <c r="B39" s="18">
         <v>1</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="30">
         <v>2.1</v>
       </c>
       <c r="D39" s="18">
@@ -8803,7 +8782,7 @@
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="28">
+      <c r="G39" s="30">
         <v>5.58</v>
       </c>
       <c r="H39" s="18"/>
@@ -8816,7 +8795,7 @@
       <c r="B40" s="18">
         <v>1</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="30">
         <v>2.2</v>
       </c>
       <c r="D40" s="18">
@@ -8824,7 +8803,7 @@
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="28">
+      <c r="G40" s="30">
         <v>5.16</v>
       </c>
       <c r="H40" s="18"/>
@@ -8837,7 +8816,7 @@
       <c r="B41" s="18">
         <v>1</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="30">
         <v>2.3</v>
       </c>
       <c r="D41" s="18">
@@ -8845,7 +8824,7 @@
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="28">
+      <c r="G41" s="30">
         <v>5.65</v>
       </c>
       <c r="H41" s="18"/>
@@ -8858,7 +8837,7 @@
       <c r="B42" s="18">
         <v>1</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="30">
         <v>2.4</v>
       </c>
       <c r="D42" s="18">
@@ -8866,7 +8845,7 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="28">
+      <c r="G42" s="30">
         <v>5.63</v>
       </c>
       <c r="H42" s="18"/>
@@ -8879,7 +8858,7 @@
       <c r="B43" s="18">
         <v>1</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="30">
         <v>2.5</v>
       </c>
       <c r="D43" s="18">
@@ -8887,7 +8866,7 @@
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="28">
+      <c r="G43" s="30">
         <v>5.36</v>
       </c>
       <c r="H43" s="18"/>
@@ -8900,7 +8879,7 @@
       <c r="B44" s="18">
         <v>1</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="30">
         <v>2.6</v>
       </c>
       <c r="D44" s="18">
@@ -8908,7 +8887,7 @@
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="28">
+      <c r="G44" s="30">
         <v>5.47</v>
       </c>
       <c r="H44" s="18"/>
@@ -8921,7 +8900,7 @@
       <c r="B45" s="18">
         <v>1</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="30">
         <v>2.7</v>
       </c>
       <c r="D45" s="18">
@@ -8929,7 +8908,7 @@
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="28">
+      <c r="G45" s="30">
         <v>5.49</v>
       </c>
       <c r="H45" s="18"/>
@@ -8942,7 +8921,7 @@
       <c r="B46" s="18">
         <v>1</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="30">
         <v>2.8</v>
       </c>
       <c r="D46" s="18">
@@ -8950,7 +8929,7 @@
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="28">
+      <c r="G46" s="30">
         <v>5.67</v>
       </c>
       <c r="H46" s="18"/>
@@ -8963,7 +8942,7 @@
       <c r="B47" s="18">
         <v>1</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="30">
         <v>2.9</v>
       </c>
       <c r="D47" s="18">
@@ -8971,7 +8950,7 @@
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="28">
+      <c r="G47" s="30">
         <v>5.61</v>
       </c>
       <c r="H47" s="18"/>
@@ -8984,7 +8963,7 @@
       <c r="B48" s="18">
         <v>1</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="30">
         <v>3</v>
       </c>
       <c r="D48" s="18">
@@ -8992,7 +8971,7 @@
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="28">
+      <c r="G48" s="30">
         <v>5.56</v>
       </c>
       <c r="H48" s="18"/>
@@ -9005,7 +8984,7 @@
       <c r="B49" s="18">
         <v>1</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="30">
         <v>3.1</v>
       </c>
       <c r="D49" s="18">
@@ -9013,7 +8992,7 @@
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="28">
+      <c r="G49" s="30">
         <v>5.16</v>
       </c>
       <c r="H49" s="18"/>
@@ -9026,7 +9005,7 @@
       <c r="B50" s="18">
         <v>1</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="30">
         <v>3.2</v>
       </c>
       <c r="D50" s="18">
@@ -9034,7 +9013,7 @@
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="28">
+      <c r="G50" s="30">
         <v>5.52</v>
       </c>
       <c r="H50" s="18"/>
@@ -9047,7 +9026,7 @@
       <c r="B51" s="18">
         <v>1</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="30">
         <v>3.3</v>
       </c>
       <c r="D51" s="18">
@@ -9055,7 +9034,7 @@
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="28">
+      <c r="G51" s="30">
         <v>5.25</v>
       </c>
       <c r="H51" s="18"/>
@@ -9068,7 +9047,7 @@
       <c r="B52" s="18">
         <v>1</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="30">
         <v>3.4</v>
       </c>
       <c r="D52" s="18">
@@ -9076,7 +9055,7 @@
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="28">
+      <c r="G52" s="30">
         <v>5.56</v>
       </c>
       <c r="H52" s="18"/>
@@ -9089,7 +9068,7 @@
       <c r="B53" s="18">
         <v>1</v>
       </c>
-      <c r="C53" s="28">
+      <c r="C53" s="30">
         <v>3.5</v>
       </c>
       <c r="D53" s="18">
@@ -9097,7 +9076,7 @@
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="28">
+      <c r="G53" s="30">
         <v>5.75</v>
       </c>
       <c r="H53" s="18"/>
@@ -9110,7 +9089,7 @@
       <c r="B54" s="18">
         <v>1</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="30">
         <v>3.6</v>
       </c>
       <c r="D54" s="18">
@@ -9118,7 +9097,7 @@
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="28">
+      <c r="G54" s="30">
         <v>5.48</v>
       </c>
       <c r="H54" s="18"/>
@@ -9131,7 +9110,7 @@
       <c r="B55" s="18">
         <v>1</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="30">
         <v>3.7</v>
       </c>
       <c r="D55" s="18">
@@ -9139,7 +9118,7 @@
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
-      <c r="G55" s="28">
+      <c r="G55" s="30">
         <v>5.35</v>
       </c>
       <c r="H55" s="18"/>
@@ -9152,7 +9131,7 @@
       <c r="B56" s="18">
         <v>1</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="30">
         <v>3.8</v>
       </c>
       <c r="D56" s="18">
@@ -9160,7 +9139,7 @@
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
-      <c r="G56" s="28">
+      <c r="G56" s="30">
         <v>5.57</v>
       </c>
       <c r="H56" s="18"/>
@@ -9173,7 +9152,7 @@
       <c r="B57" s="18">
         <v>1</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="30">
         <v>3.9</v>
       </c>
       <c r="D57" s="18">
@@ -9181,7 +9160,7 @@
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="28">
+      <c r="G57" s="30">
         <v>5.37</v>
       </c>
       <c r="H57" s="18"/>
@@ -9194,7 +9173,7 @@
       <c r="B58" s="18">
         <v>1</v>
       </c>
-      <c r="C58" s="28">
+      <c r="C58" s="30">
         <v>4</v>
       </c>
       <c r="D58" s="18">
@@ -9202,7 +9181,7 @@
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
-      <c r="G58" s="28">
+      <c r="G58" s="30">
         <v>5.18</v>
       </c>
       <c r="H58" s="18"/>
@@ -9215,7 +9194,7 @@
       <c r="B59" s="18">
         <v>1</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="30">
         <v>4.1</v>
       </c>
       <c r="D59" s="18">
@@ -9223,7 +9202,7 @@
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="28">
+      <c r="G59" s="30">
         <v>5.69</v>
       </c>
       <c r="H59" s="18"/>
@@ -9236,7 +9215,7 @@
       <c r="B60" s="18">
         <v>1</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="30">
         <v>4.2</v>
       </c>
       <c r="D60" s="18">
@@ -9244,7 +9223,7 @@
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="28">
+      <c r="G60" s="30">
         <v>5.36</v>
       </c>
       <c r="H60" s="18"/>
@@ -9257,7 +9236,7 @@
       <c r="B61" s="18">
         <v>1</v>
       </c>
-      <c r="C61" s="28">
+      <c r="C61" s="30">
         <v>4.3</v>
       </c>
       <c r="D61" s="18">
@@ -9265,7 +9244,7 @@
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="28">
+      <c r="G61" s="30">
         <v>5.23</v>
       </c>
       <c r="H61" s="18"/>
@@ -9278,7 +9257,7 @@
       <c r="B62" s="18">
         <v>1</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="30">
         <v>4.4</v>
       </c>
       <c r="D62" s="18">
@@ -9286,7 +9265,7 @@
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="28">
+      <c r="G62" s="30">
         <v>5.21</v>
       </c>
       <c r="H62" s="18"/>
@@ -9299,7 +9278,7 @@
       <c r="B63" s="18">
         <v>1</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="30">
         <v>4.5</v>
       </c>
       <c r="D63" s="18">
@@ -9307,7 +9286,7 @@
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="28">
+      <c r="G63" s="30">
         <v>5.54</v>
       </c>
       <c r="H63" s="18"/>
@@ -9320,7 +9299,7 @@
       <c r="B64" s="18">
         <v>1</v>
       </c>
-      <c r="C64" s="28">
+      <c r="C64" s="30">
         <v>4.6</v>
       </c>
       <c r="D64" s="18">
@@ -9328,7 +9307,7 @@
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="28">
+      <c r="G64" s="30">
         <v>5.49</v>
       </c>
       <c r="H64" s="18"/>
@@ -9341,7 +9320,7 @@
       <c r="B65" s="18">
         <v>1</v>
       </c>
-      <c r="C65" s="28">
+      <c r="C65" s="30">
         <v>4.7</v>
       </c>
       <c r="D65" s="18">
@@ -9349,7 +9328,7 @@
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="28">
+      <c r="G65" s="30">
         <v>5.38</v>
       </c>
       <c r="H65" s="18"/>
@@ -9362,7 +9341,7 @@
       <c r="B66" s="18">
         <v>1</v>
       </c>
-      <c r="C66" s="28">
+      <c r="C66" s="30">
         <v>4.8</v>
       </c>
       <c r="D66" s="18">
@@ -9370,7 +9349,7 @@
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="28">
+      <c r="G66" s="30">
         <v>5.28</v>
       </c>
       <c r="H66" s="18"/>
@@ -9385,53 +9364,49 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="23"/>
-    <col min="3" max="3" width="13.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="23" customWidth="1"/>
-    <col min="6" max="6" width="9" style="23"/>
-    <col min="7" max="7" width="13.875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="23.375" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="23"/>
+    <col min="1" max="3" width="9" style="23"/>
+    <col min="4" max="4" width="13.5" style="23" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23"/>
+    <col min="8" max="8" width="13.875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="23.375" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" customHeight="1" spans="1:18">
+    <row r="1" ht="37.5" customHeight="1" spans="1:19">
       <c r="A1" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="16">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="16">
-        <v>2</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>129</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -9441,588 +9416,669 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
       <c r="R1" s="24"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:18">
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
         <v>7.33</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
       <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="16">
-        <v>10.33</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="16">
-        <v>1</v>
-      </c>
-      <c r="I2" s="16">
-        <v>3</v>
-      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:18">
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:19">
       <c r="A3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
         <v>6.9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
       <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="16">
-        <v>9.9</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="16">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16">
-        <v>3</v>
-      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:18">
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:19">
       <c r="A4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
         <v>7.38</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
       <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="16">
-        <v>10.38</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>3</v>
-      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:18">
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:19">
       <c r="A5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
         <v>7.18</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
       <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="16">
-        <v>10.18</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16">
-        <v>3</v>
-      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="24"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:18">
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:19">
       <c r="A6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
         <v>7.73</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
       <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="16">
-        <v>10.73</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>3</v>
-      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:18">
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:19">
       <c r="A7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
         <v>6.96</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
       <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
-        <v>9.96</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16">
-        <v>3</v>
-      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:18">
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
         <v>7.61</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
       <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="F8" s="16">
-        <v>10.61</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <v>3</v>
-      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:18">
+      <c r="S8" s="16"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26">
         <v>7.04</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
       <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="16">
-        <v>10.04</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16">
-        <v>3</v>
-      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="24"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:18">
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
         <v>6.96</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
       <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="16">
-        <v>9.96</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16">
-        <v>3</v>
-      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:18">
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="26">
         <v>7.58</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
       <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="16">
-        <v>10.58</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>3</v>
-      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:18">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:19">
+      <c r="A12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27">
+        <v>10.33</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27">
+        <v>3</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:18">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:19">
+      <c r="A13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2</v>
+      </c>
+      <c r="C13" s="27">
+        <v>9.9</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="27">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
+        <v>3</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:18">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:19">
+      <c r="A14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="27">
+        <v>10.38</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
+        <v>3</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:18">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:19">
+      <c r="A15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="27">
+        <v>10.18</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
+        <v>3</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="24"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:18">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:19">
+      <c r="A16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27">
+        <v>10.73</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
+        <v>3</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:18">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:19">
+      <c r="A17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2</v>
+      </c>
+      <c r="C17" s="27">
+        <v>9.96</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27">
+        <v>3</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="24"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:18">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="S17" s="16"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:19">
+      <c r="A18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2</v>
+      </c>
+      <c r="C18" s="27">
+        <v>10.61</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27">
+        <v>3</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:18">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:19">
+      <c r="A19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="16">
+        <v>2</v>
+      </c>
+      <c r="C19" s="27">
+        <v>10.04</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27">
+        <v>3</v>
+      </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="24"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:18">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:19">
+      <c r="A20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="16">
+        <v>2</v>
+      </c>
+      <c r="C20" s="27">
+        <v>9.96</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27">
+        <v>3</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:18">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="S20" s="16"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:19">
+      <c r="A21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="16">
+        <v>2</v>
+      </c>
+      <c r="C21" s="27">
+        <v>10.58</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="27">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27">
+        <v>3</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="24"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:18">
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:19">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10041,6 +10097,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10064,17 +10121,17 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="18" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F1" s="18"/>
     </row>
@@ -10089,7 +10146,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -10105,7 +10162,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -10121,7 +10178,7 @@
         <v>9.4</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -10137,7 +10194,7 @@
         <v>10.4</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -10153,7 +10210,7 @@
         <v>12.4</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
@@ -10169,7 +10226,7 @@
         <v>13.9</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -10327,7 +10384,7 @@
         <v>3.3</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
@@ -10341,7 +10398,7 @@
       <c r="D20" s="13"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
@@ -10357,7 +10414,7 @@
         <v>9.3</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:6">
@@ -10371,7 +10428,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:6">
@@ -10385,7 +10442,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:6">
@@ -10401,7 +10458,7 @@
         <v>14.4</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:6">
@@ -10561,7 +10618,7 @@
         <v>3.7</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:6">
@@ -10577,7 +10634,7 @@
         <v>6.7</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:6">
@@ -10593,7 +10650,7 @@
         <v>8.3</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:6">
@@ -10609,7 +10666,7 @@
         <v>9.3</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:6">
@@ -10625,7 +10682,7 @@
         <v>12.6</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:6">
@@ -10641,7 +10698,7 @@
         <v>14.1</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:6">
@@ -10803,7 +10860,7 @@
         <v>3.8</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:6">
@@ -10819,7 +10876,7 @@
         <v>6.8</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:6">
@@ -10835,7 +10892,7 @@
         <v>9</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:6">
@@ -10851,7 +10908,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
@@ -10867,7 +10924,7 @@
         <v>12.8</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:6">
@@ -10883,7 +10940,7 @@
         <v>14.3</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:6">
@@ -11056,7 +11113,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -11064,7 +11121,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
@@ -11075,40 +11132,40 @@
     <row r="2" spans="1:13">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:13">

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12195" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="11445" windowHeight="9495" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="标准地层" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -979,462 +979,343 @@
     </r>
   </si>
   <si>
+    <t>动探类型(1-轻型/2-重型/3-超重型)</t>
+  </si>
+  <si>
+    <t>试验段长度(m)</t>
+  </si>
+  <si>
+    <t>贯入度</t>
+  </si>
+  <si>
+    <t>动探击数</t>
+  </si>
+  <si>
+    <t>修正后击数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻孔编号</t>
+    </r>
+  </si>
+  <si>
+    <t>地下水位层号</t>
+  </si>
+  <si>
+    <t>水位深度(m)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测水日期</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地下水类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初见水位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稳定水位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地下水性质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上层滞水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>承压水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孔号及深度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采取率</t>
+    </r>
+  </si>
+  <si>
+    <t>RQD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分层（参考）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①填土</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>②粘土</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白云岩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白云岩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>④溶洞</t>
+    </r>
+  </si>
+  <si>
+    <t>岩芯采取率</t>
+  </si>
+  <si>
+    <t>①填土</t>
+  </si>
+  <si>
+    <t>②粘土</t>
+  </si>
+  <si>
+    <t>③1白云岩</t>
+  </si>
+  <si>
+    <t>③2白云岩</t>
+  </si>
+  <si>
+    <t>④溶洞</t>
+  </si>
+  <si>
     <t>孔号及试验点底深度</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动探类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轻型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重型，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超重型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杆长</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>试验段长度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>一阵击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贯入度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>动探击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>修正后击数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钻孔编号</t>
-    </r>
-  </si>
-  <si>
-    <t>地下水位层号</t>
-  </si>
-  <si>
-    <t>水位深度(m)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测水日期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>地下水类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>初见水位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>稳定水位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地下水性质</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上层滞水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>潜水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>承压水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其它</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔号及深度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>采取率</t>
-    </r>
-  </si>
-  <si>
-    <t>RQD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分层（参考）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①填土</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>②粘土</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>③</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白云岩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>③</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白云岩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>④溶洞</t>
-    </r>
-  </si>
-  <si>
-    <t>岩芯采取率</t>
-  </si>
-  <si>
-    <t>①填土</t>
-  </si>
-  <si>
-    <t>②粘土</t>
-  </si>
-  <si>
-    <t>③1白云岩</t>
-  </si>
-  <si>
-    <t>③2白云岩</t>
-  </si>
-  <si>
-    <t>④溶洞</t>
   </si>
   <si>
     <r>
@@ -1591,15 +1472,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1649,12 +1530,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1668,7 +1543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1683,6 +1558,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1712,32 +1625,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1745,13 +1642,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1766,15 +1656,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1791,14 +1674,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1825,7 +1700,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1837,19 +1748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,25 +1760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,91 +1784,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,13 +1826,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2018,15 +1893,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2087,6 +1953,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2118,10 +1993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2130,19 +2005,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2151,116 +2026,116 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2285,7 +2160,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2294,16 +2169,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2339,19 +2214,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2360,13 +2235,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2375,25 +2250,22 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2739,417 +2611,417 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="X1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="45">
-        <v>1</v>
-      </c>
-      <c r="C2" s="45">
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44">
         <v>0</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>2</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>0</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="T3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>3</v>
       </c>
-      <c r="C4" s="45">
-        <v>1</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
+      <c r="C4" s="44">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="45">
+      <c r="N4" s="44">
         <v>300</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="44">
         <v>20</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Q4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="45" t="s">
+      <c r="V4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="45" t="s">
+      <c r="W4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="X4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="45">
+      <c r="Y4" s="44">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>2</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="44">
         <v>300</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="44">
         <v>20</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="U5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="45" t="s">
+      <c r="V5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="45" t="s">
+      <c r="W5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="45" t="s">
+      <c r="X5" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="45">
+      <c r="Y5" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>4</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>0</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="46" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>3</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>2</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="44">
         <v>300</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="44">
         <v>20</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="46" t="s">
+      <c r="T7" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="45" t="s">
+      <c r="V7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="45" t="s">
+      <c r="W7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="45" t="s">
+      <c r="X7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="Y7" s="45">
+      <c r="Y7" s="44">
         <v>10</v>
       </c>
     </row>
@@ -3176,13 +3048,13 @@
   <sheetData>
     <row r="1" ht="27" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:3">
@@ -5085,13 +4957,13 @@
   <sheetData>
     <row r="1" ht="30.75" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="7"/>
     </row>
@@ -5668,19 +5540,19 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
@@ -6525,15 +6397,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="43"/>
-    <col min="2" max="2" width="12.375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="9.11666666666667" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="43" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="43" customWidth="1"/>
-    <col min="9" max="12" width="9.125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="12.375" style="42" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9.11666666666667" style="42" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="42" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="42" customWidth="1"/>
+    <col min="9" max="12" width="9.125" style="42" customWidth="1"/>
     <col min="13" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
@@ -6583,7 +6455,7 @@
       <c r="E2" s="16">
         <v>1282.35</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="43">
         <v>13.9</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -6613,7 +6485,7 @@
       <c r="E3" s="16">
         <v>1282.32</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <v>14.4</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -6643,7 +6515,7 @@
       <c r="E4" s="16">
         <v>1282.35</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="43">
         <v>14.1</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -6673,7 +6545,7 @@
       <c r="E5" s="16">
         <v>1282.4</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <v>14.3</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -6703,7 +6575,7 @@
       <c r="E6" s="16">
         <v>1282.41</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <v>14.4</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -6733,7 +6605,7 @@
       <c r="E7" s="16">
         <v>1282.46</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="43">
         <v>13.7</v>
       </c>
       <c r="G7" s="16" t="s">
@@ -6763,7 +6635,7 @@
       <c r="E8" s="16">
         <v>1282.48</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="43">
         <v>14.5</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -6793,7 +6665,7 @@
       <c r="E9" s="16">
         <v>1282.45</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <v>14.2</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -6823,7 +6695,7 @@
       <c r="E10" s="16">
         <v>1282.46</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <v>13.6</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -6853,7 +6725,7 @@
       <c r="E11" s="16">
         <v>1282.61</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <v>13.9</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -6886,20 +6758,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="4" width="9" style="38"/>
+    <col min="2" max="4" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:14">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -6934,236 +6806,236 @@
       </c>
     </row>
     <row r="2" ht="15" spans="1:14">
-      <c r="A2" s="40">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40">
         <v>0</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>3</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="41">
         <v>3.3</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <v>3.7</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="41">
         <v>3.8</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="41">
         <v>3.8</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="41">
         <v>3.7</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
         <v>3.1</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="41">
         <v>3</v>
       </c>
-      <c r="N2" s="42"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" ht="15" spans="1:14">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>0</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42">
+      <c r="D3" s="39"/>
+      <c r="E3" s="41">
         <v>6</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41">
         <v>6.7</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>6.8</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>6.8</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <v>6.7</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <v>6.5</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="41">
         <v>6.1</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="41">
         <v>6</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" ht="15" spans="1:14">
-      <c r="A4" s="40">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="40">
         <v>1</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42">
+      <c r="D4" s="39"/>
+      <c r="E4" s="41">
         <v>9.4</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>9.3</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>8.3</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="41">
         <v>9</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="41">
         <v>9.1</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="41">
         <v>8.8</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="41">
         <v>9</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="41">
         <v>8.4</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="41">
         <v>9.7</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="41">
         <v>9.2</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:14">
-      <c r="A5" s="40">
+      <c r="A5" s="39">
         <v>3</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>2</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="42">
+      <c r="D5" s="39"/>
+      <c r="E5" s="41">
         <v>10.4</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41">
         <v>9.3</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <v>10</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41">
         <v>9.8</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="41">
         <v>10</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="41">
         <v>9.4</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42">
+      <c r="M5" s="41"/>
+      <c r="N5" s="41">
         <v>10.2</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:14">
-      <c r="A6" s="40">
+      <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>4</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="42">
+      <c r="D6" s="39"/>
+      <c r="E6" s="41">
         <v>12.4</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41">
         <v>12.6</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <v>12.8</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41">
         <v>12.2</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <v>13</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="41">
         <v>12.7</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42">
+      <c r="M6" s="41"/>
+      <c r="N6" s="41">
         <v>12.4</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>3</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="42">
+      <c r="D7" s="39"/>
+      <c r="E7" s="41">
         <v>13.9</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <v>14.4</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>14.1</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <v>14.3</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="41">
         <v>14.4</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="41">
         <v>13.7</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
         <v>14.5</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="41">
         <v>14.2</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="41">
         <v>13.6</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="41">
         <v>13.9</v>
       </c>
     </row>
@@ -7960,1400 +7832,1388 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+    <row r="1" ht="33.75" customHeight="1" spans="1:10">
+      <c r="A1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30">
+        <v>1.6</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.1</v>
+      </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="H2" s="30">
+        <v>5.17</v>
+      </c>
       <c r="I2" s="18"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="18">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:10">
+      <c r="B3" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="18">
         <v>0.1</v>
       </c>
-      <c r="B3" s="18">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="30">
+        <v>5.29</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:10">
+      <c r="B4" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="30">
+        <v>5.04</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:10">
+      <c r="B5" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1.9</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="30">
+        <v>5.47</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:10">
+      <c r="B6" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:10">
+      <c r="B7" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="30">
+        <v>5.27</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:10">
+      <c r="B8" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>2.2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="30">
+        <v>5.22</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:10">
+      <c r="B9" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>2.3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="30">
+        <v>5.33</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:10">
+      <c r="B10" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="30">
+        <v>5.05</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:10">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="30">
+        <v>5.39</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:10">
+      <c r="B12" s="18">
+        <v>1.1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <v>2.6</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="30">
+        <v>5.07</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:10">
+      <c r="B13" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2.7</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="30">
+        <v>5.46</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:10">
+      <c r="B14" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <v>2.8</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="30">
+        <v>5.47</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:10">
+      <c r="B15" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="30">
+        <v>5.14</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:10">
+      <c r="B16" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="30">
+        <v>5.44</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:10">
+      <c r="B17" s="18">
         <v>1.6</v>
       </c>
-      <c r="D3" s="18">
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30">
+        <v>3.1</v>
+      </c>
+      <c r="E17" s="18">
         <v>0.1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="30">
-        <v>5.17</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="18">
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="30">
+        <v>5.53</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:10">
+      <c r="B18" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
+        <v>3.2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="30">
+        <v>5.1</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:10">
+      <c r="B19" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="30">
+        <v>5.74</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:10">
+      <c r="B20" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30">
+        <v>3.4</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="30">
+        <v>5.58</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:10">
+      <c r="B21" s="18">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="30">
+        <v>5.05</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:10">
+      <c r="B22" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30">
+        <v>3.6</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="30">
+        <v>5.65</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:10">
+      <c r="B23" s="18">
+        <v>2.2</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="30">
+        <v>3.7</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="30">
+        <v>5.29</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:10">
+      <c r="B24" s="18">
+        <v>2.3</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30">
+        <v>3.8</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="30">
+        <v>5.52</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:10">
+      <c r="B25" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30">
+        <v>3.9</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="30">
+        <v>5.52</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:10">
+      <c r="B26" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30">
+        <v>4</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="30">
+        <v>5.68</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:10">
+      <c r="B27" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="30">
+        <v>4.1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="30">
+        <v>5.29</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:10">
+      <c r="B28" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="30">
+        <v>4.2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="30">
+        <v>5.31</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:10">
+      <c r="B29" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="30">
+        <v>5.42</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:10">
+      <c r="B30" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1</v>
+      </c>
+      <c r="D30" s="30">
+        <v>4.4</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="30">
+        <v>5.11</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:10">
+      <c r="B31" s="18">
+        <v>3</v>
+      </c>
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="30">
+        <v>5.43</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1</v>
+      </c>
+      <c r="D32" s="30">
+        <v>1.6</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="30">
+        <v>5.66</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:10">
+      <c r="B33" s="18">
         <v>0.2</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="30">
         <v>1.7</v>
       </c>
-      <c r="D4" s="18">
+      <c r="E33" s="18">
         <v>0.1</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="30">
-        <v>5.29</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1.8</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="30">
-        <v>5.04</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30">
-        <v>1.9</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="30">
-        <v>5.47</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="30">
-        <v>2</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="30">
-        <v>5.5</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30">
-        <v>2.1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="30">
-        <v>5.27</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="30">
-        <v>2.2</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="30">
-        <v>5.22</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="B10" s="18">
-        <v>1</v>
-      </c>
-      <c r="C10" s="30">
-        <v>2.3</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="30">
-        <v>5.33</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="B11" s="18">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30">
-        <v>2.4</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="30">
-        <v>5.05</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="18">
-        <v>1</v>
-      </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="30">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="30">
-        <v>5.39</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="18">
-        <v>1.1</v>
-      </c>
-      <c r="B13" s="18">
-        <v>1</v>
-      </c>
-      <c r="C13" s="30">
-        <v>2.6</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="30">
-        <v>5.07</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="B14" s="18">
-        <v>1</v>
-      </c>
-      <c r="C14" s="30">
-        <v>2.7</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="30">
-        <v>5.46</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="30">
-        <v>2.8</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="30">
-        <v>5.47</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="18">
-        <v>1.4</v>
-      </c>
-      <c r="B16" s="18">
-        <v>1</v>
-      </c>
-      <c r="C16" s="30">
-        <v>2.9</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="30">
-        <v>5.14</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="B17" s="18">
-        <v>1</v>
-      </c>
-      <c r="C17" s="30">
-        <v>3</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="30">
-        <v>5.44</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30">
-        <v>3.1</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="30">
-        <v>5.53</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="B19" s="18">
-        <v>1</v>
-      </c>
-      <c r="C19" s="30">
-        <v>3.2</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="30">
-        <v>5.1</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="B20" s="18">
-        <v>1</v>
-      </c>
-      <c r="C20" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="30">
-        <v>5.74</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="18">
-        <v>1.9</v>
-      </c>
-      <c r="B21" s="18">
-        <v>1</v>
-      </c>
-      <c r="C21" s="30">
-        <v>3.4</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="30">
-        <v>5.58</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="18">
-        <v>2</v>
-      </c>
-      <c r="B22" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="30">
-        <v>5.05</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="B23" s="18">
-        <v>1</v>
-      </c>
-      <c r="C23" s="30">
-        <v>3.6</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="30">
-        <v>5.65</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="18">
-        <v>2.2</v>
-      </c>
-      <c r="B24" s="18">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30">
-        <v>3.7</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="30">
-        <v>5.29</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="18">
-        <v>2.3</v>
-      </c>
-      <c r="B25" s="18">
-        <v>1</v>
-      </c>
-      <c r="C25" s="30">
-        <v>3.8</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="30">
-        <v>5.52</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="B26" s="18">
-        <v>1</v>
-      </c>
-      <c r="C26" s="30">
-        <v>3.9</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="30">
-        <v>5.52</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="B27" s="18">
-        <v>1</v>
-      </c>
-      <c r="C27" s="30">
-        <v>4</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="30">
-        <v>5.68</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="B28" s="18">
-        <v>1</v>
-      </c>
-      <c r="C28" s="30">
-        <v>4.1</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="30">
-        <v>5.29</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="18">
-        <v>2.7</v>
-      </c>
-      <c r="B29" s="18">
-        <v>1</v>
-      </c>
-      <c r="C29" s="30">
-        <v>4.2</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="30">
-        <v>5.31</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="18">
-        <v>2.8</v>
-      </c>
-      <c r="B30" s="18">
-        <v>1</v>
-      </c>
-      <c r="C30" s="30">
-        <v>4.3</v>
-      </c>
-      <c r="D30" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="30">
-        <v>5.42</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="B31" s="18">
-        <v>1</v>
-      </c>
-      <c r="C31" s="30">
-        <v>4.4</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="30">
-        <v>5.11</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="18">
-        <v>3</v>
-      </c>
-      <c r="B32" s="18">
-        <v>1</v>
-      </c>
-      <c r="C32" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="30">
-        <v>5.43</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="30">
+        <v>5.34</v>
+      </c>
       <c r="I33" s="18"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="18">
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" customHeight="1" spans="2:10">
+      <c r="B34" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="30">
+        <v>1.8</v>
+      </c>
+      <c r="E34" s="18">
         <v>0.1</v>
       </c>
-      <c r="B34" s="18">
-        <v>1</v>
-      </c>
-      <c r="C34" s="30">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="30">
+        <v>5.27</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:10">
+      <c r="B35" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+      <c r="D35" s="30">
+        <v>1.9</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="30">
+        <v>5.06</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:10">
+      <c r="B36" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="18">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="30">
+        <v>5.65</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:10">
+      <c r="B37" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="C37" s="18">
+        <v>1</v>
+      </c>
+      <c r="D37" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="30">
+        <v>5.58</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:10">
+      <c r="B38" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30">
+        <v>2.2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="30">
+        <v>5.16</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:10">
+      <c r="B39" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1</v>
+      </c>
+      <c r="D39" s="30">
+        <v>2.3</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="30">
+        <v>5.65</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:10">
+      <c r="B40" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="C40" s="18">
+        <v>1</v>
+      </c>
+      <c r="D40" s="30">
+        <v>2.4</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="30">
+        <v>5.63</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:10">
+      <c r="B41" s="18">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18">
+        <v>1</v>
+      </c>
+      <c r="D41" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="E41" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="30">
+        <v>5.36</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:10">
+      <c r="B42" s="18">
+        <v>1.1</v>
+      </c>
+      <c r="C42" s="18">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30">
+        <v>2.6</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="30">
+        <v>5.47</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" customHeight="1" spans="2:10">
+      <c r="B43" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="C43" s="18">
+        <v>1</v>
+      </c>
+      <c r="D43" s="30">
+        <v>2.7</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="30">
+        <v>5.49</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" customHeight="1" spans="2:10">
+      <c r="B44" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="C44" s="18">
+        <v>1</v>
+      </c>
+      <c r="D44" s="30">
+        <v>2.8</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="30">
+        <v>5.67</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:10">
+      <c r="B45" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="C45" s="18">
+        <v>1</v>
+      </c>
+      <c r="D45" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="E45" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="30">
+        <v>5.61</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" customHeight="1" spans="2:10">
+      <c r="B46" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="C46" s="18">
+        <v>1</v>
+      </c>
+      <c r="D46" s="30">
+        <v>3</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="30">
+        <v>5.56</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:10">
+      <c r="B47" s="18">
         <v>1.6</v>
       </c>
-      <c r="D34" s="18">
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="30">
+        <v>3.1</v>
+      </c>
+      <c r="E47" s="18">
         <v>0.1</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="30">
-        <v>5.66</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="B35" s="18">
-        <v>1</v>
-      </c>
-      <c r="C35" s="30">
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="30">
+        <v>5.16</v>
+      </c>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" customHeight="1" spans="2:10">
+      <c r="B48" s="18">
         <v>1.7</v>
       </c>
-      <c r="D35" s="18">
+      <c r="C48" s="18">
+        <v>1</v>
+      </c>
+      <c r="D48" s="30">
+        <v>3.2</v>
+      </c>
+      <c r="E48" s="18">
         <v>0.1</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="30">
-        <v>5.34</v>
-      </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="B36" s="18">
-        <v>1</v>
-      </c>
-      <c r="C36" s="30">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="30">
+        <v>5.52</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:10">
+      <c r="B49" s="18">
         <v>1.8</v>
       </c>
-      <c r="D36" s="18">
+      <c r="C49" s="18">
+        <v>1</v>
+      </c>
+      <c r="D49" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="E49" s="18">
         <v>0.1</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="30">
-        <v>5.27</v>
-      </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="B37" s="18">
-        <v>1</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="30">
+        <v>5.25</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:10">
+      <c r="B50" s="18">
         <v>1.9</v>
       </c>
-      <c r="D37" s="18">
+      <c r="C50" s="18">
+        <v>1</v>
+      </c>
+      <c r="D50" s="30">
+        <v>3.4</v>
+      </c>
+      <c r="E50" s="18">
         <v>0.1</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="30">
-        <v>5.06</v>
-      </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="B38" s="18">
-        <v>1</v>
-      </c>
-      <c r="C38" s="30">
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="30">
+        <v>5.56</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:10">
+      <c r="B51" s="18">
         <v>2</v>
       </c>
-      <c r="D38" s="18">
+      <c r="C51" s="18">
+        <v>1</v>
+      </c>
+      <c r="D51" s="30">
+        <v>3.5</v>
+      </c>
+      <c r="E51" s="18">
         <v>0.1</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="30">
-        <v>5.65</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="B39" s="18">
-        <v>1</v>
-      </c>
-      <c r="C39" s="30">
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="30">
+        <v>5.75</v>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" customHeight="1" spans="2:10">
+      <c r="B52" s="18">
         <v>2.1</v>
       </c>
-      <c r="D39" s="18">
+      <c r="C52" s="18">
+        <v>1</v>
+      </c>
+      <c r="D52" s="30">
+        <v>3.6</v>
+      </c>
+      <c r="E52" s="18">
         <v>0.1</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="30">
-        <v>5.58</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="B40" s="18">
-        <v>1</v>
-      </c>
-      <c r="C40" s="30">
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="30">
+        <v>5.48</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:10">
+      <c r="B53" s="18">
         <v>2.2</v>
       </c>
-      <c r="D40" s="18">
+      <c r="C53" s="18">
+        <v>1</v>
+      </c>
+      <c r="D53" s="30">
+        <v>3.7</v>
+      </c>
+      <c r="E53" s="18">
         <v>0.1</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="30">
-        <v>5.16</v>
-      </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="18">
-        <v>1</v>
-      </c>
-      <c r="C41" s="30">
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="30">
+        <v>5.35</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:10">
+      <c r="B54" s="18">
         <v>2.3</v>
       </c>
-      <c r="D41" s="18">
+      <c r="C54" s="18">
+        <v>1</v>
+      </c>
+      <c r="D54" s="30">
+        <v>3.8</v>
+      </c>
+      <c r="E54" s="18">
         <v>0.1</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="30">
-        <v>5.65</v>
-      </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="B42" s="18">
-        <v>1</v>
-      </c>
-      <c r="C42" s="30">
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="30">
+        <v>5.57</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:10">
+      <c r="B55" s="18">
         <v>2.4</v>
       </c>
-      <c r="D42" s="18">
+      <c r="C55" s="18">
+        <v>1</v>
+      </c>
+      <c r="D55" s="30">
+        <v>3.9</v>
+      </c>
+      <c r="E55" s="18">
         <v>0.1</v>
       </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="30">
-        <v>5.63</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="18">
-        <v>1</v>
-      </c>
-      <c r="B43" s="18">
-        <v>1</v>
-      </c>
-      <c r="C43" s="30">
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="30">
+        <v>5.37</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:10">
+      <c r="B56" s="18">
         <v>2.5</v>
       </c>
-      <c r="D43" s="18">
+      <c r="C56" s="18">
+        <v>1</v>
+      </c>
+      <c r="D56" s="30">
+        <v>4</v>
+      </c>
+      <c r="E56" s="18">
         <v>0.1</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="30">
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="30">
+        <v>5.18</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:10">
+      <c r="B57" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="C57" s="18">
+        <v>1</v>
+      </c>
+      <c r="D57" s="30">
+        <v>4.1</v>
+      </c>
+      <c r="E57" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="30">
+        <v>5.69</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:10">
+      <c r="B58" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="C58" s="18">
+        <v>1</v>
+      </c>
+      <c r="D58" s="30">
+        <v>4.2</v>
+      </c>
+      <c r="E58" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="30">
         <v>5.36</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="18">
-        <v>1.1</v>
-      </c>
-      <c r="B44" s="18">
-        <v>1</v>
-      </c>
-      <c r="C44" s="30">
-        <v>2.6</v>
-      </c>
-      <c r="D44" s="18">
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:10">
+      <c r="B59" s="18">
+        <v>2.8</v>
+      </c>
+      <c r="C59" s="18">
+        <v>1</v>
+      </c>
+      <c r="D59" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="E59" s="18">
         <v>0.1</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="30">
-        <v>5.47</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="B45" s="18">
-        <v>1</v>
-      </c>
-      <c r="C45" s="30">
-        <v>2.7</v>
-      </c>
-      <c r="D45" s="18">
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="30">
+        <v>5.23</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:10">
+      <c r="B60" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="C60" s="18">
+        <v>1</v>
+      </c>
+      <c r="D60" s="30">
+        <v>4.4</v>
+      </c>
+      <c r="E60" s="18">
         <v>0.1</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="30">
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="30">
+        <v>5.21</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:10">
+      <c r="B61" s="18">
+        <v>3</v>
+      </c>
+      <c r="C61" s="18">
+        <v>1</v>
+      </c>
+      <c r="D61" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="E61" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="30">
+        <v>5.54</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:10">
+      <c r="B62" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="C62" s="18">
+        <v>1</v>
+      </c>
+      <c r="D62" s="30">
+        <v>4.6</v>
+      </c>
+      <c r="E62" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="30">
         <v>5.49</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="B46" s="18">
-        <v>1</v>
-      </c>
-      <c r="C46" s="30">
-        <v>2.8</v>
-      </c>
-      <c r="D46" s="18">
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:10">
+      <c r="B63" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="C63" s="18">
+        <v>1</v>
+      </c>
+      <c r="D63" s="30">
+        <v>4.7</v>
+      </c>
+      <c r="E63" s="18">
         <v>0.1</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="30">
-        <v>5.67</v>
-      </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="18">
-        <v>1.4</v>
-      </c>
-      <c r="B47" s="18">
-        <v>1</v>
-      </c>
-      <c r="C47" s="30">
-        <v>2.9</v>
-      </c>
-      <c r="D47" s="18">
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="30">
+        <v>5.38</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:10">
+      <c r="B64" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="C64" s="18">
+        <v>1</v>
+      </c>
+      <c r="D64" s="30">
+        <v>4.8</v>
+      </c>
+      <c r="E64" s="18">
         <v>0.1</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="30">
-        <v>5.61</v>
-      </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="B48" s="18">
-        <v>1</v>
-      </c>
-      <c r="C48" s="30">
-        <v>3</v>
-      </c>
-      <c r="D48" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="30">
-        <v>5.56</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="B49" s="18">
-        <v>1</v>
-      </c>
-      <c r="C49" s="30">
-        <v>3.1</v>
-      </c>
-      <c r="D49" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="30">
-        <v>5.16</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="B50" s="18">
-        <v>1</v>
-      </c>
-      <c r="C50" s="30">
-        <v>3.2</v>
-      </c>
-      <c r="D50" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="30">
-        <v>5.52</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="B51" s="18">
-        <v>1</v>
-      </c>
-      <c r="C51" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="D51" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="30">
-        <v>5.25</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="18">
-        <v>1.9</v>
-      </c>
-      <c r="B52" s="18">
-        <v>1</v>
-      </c>
-      <c r="C52" s="30">
-        <v>3.4</v>
-      </c>
-      <c r="D52" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="30">
-        <v>5.56</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="18">
-        <v>2</v>
-      </c>
-      <c r="B53" s="18">
-        <v>1</v>
-      </c>
-      <c r="C53" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="30">
-        <v>5.75</v>
-      </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="18">
-        <v>2.1</v>
-      </c>
-      <c r="B54" s="18">
-        <v>1</v>
-      </c>
-      <c r="C54" s="30">
-        <v>3.6</v>
-      </c>
-      <c r="D54" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="30">
-        <v>5.48</v>
-      </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="18">
-        <v>2.2</v>
-      </c>
-      <c r="B55" s="18">
-        <v>1</v>
-      </c>
-      <c r="C55" s="30">
-        <v>3.7</v>
-      </c>
-      <c r="D55" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="30">
-        <v>5.35</v>
-      </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:9">
-      <c r="A56" s="18">
-        <v>2.3</v>
-      </c>
-      <c r="B56" s="18">
-        <v>1</v>
-      </c>
-      <c r="C56" s="30">
-        <v>3.8</v>
-      </c>
-      <c r="D56" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="30">
-        <v>5.57</v>
-      </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="18">
-        <v>2.4</v>
-      </c>
-      <c r="B57" s="18">
-        <v>1</v>
-      </c>
-      <c r="C57" s="30">
-        <v>3.9</v>
-      </c>
-      <c r="D57" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="30">
-        <v>5.37</v>
-      </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="B58" s="18">
-        <v>1</v>
-      </c>
-      <c r="C58" s="30">
-        <v>4</v>
-      </c>
-      <c r="D58" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="30">
-        <v>5.18</v>
-      </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="B59" s="18">
-        <v>1</v>
-      </c>
-      <c r="C59" s="30">
-        <v>4.1</v>
-      </c>
-      <c r="D59" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="30">
-        <v>5.69</v>
-      </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="18">
-        <v>2.7</v>
-      </c>
-      <c r="B60" s="18">
-        <v>1</v>
-      </c>
-      <c r="C60" s="30">
-        <v>4.2</v>
-      </c>
-      <c r="D60" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="30">
-        <v>5.36</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="18">
-        <v>2.8</v>
-      </c>
-      <c r="B61" s="18">
-        <v>1</v>
-      </c>
-      <c r="C61" s="30">
-        <v>4.3</v>
-      </c>
-      <c r="D61" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="30">
-        <v>5.23</v>
-      </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="B62" s="18">
-        <v>1</v>
-      </c>
-      <c r="C62" s="30">
-        <v>4.4</v>
-      </c>
-      <c r="D62" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="30">
-        <v>5.21</v>
-      </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="18">
-        <v>3</v>
-      </c>
-      <c r="B63" s="18">
-        <v>1</v>
-      </c>
-      <c r="C63" s="30">
-        <v>4.5</v>
-      </c>
-      <c r="D63" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="30">
-        <v>5.54</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="18">
-        <v>3.1</v>
-      </c>
-      <c r="B64" s="18">
-        <v>1</v>
-      </c>
-      <c r="C64" s="30">
-        <v>4.6</v>
-      </c>
-      <c r="D64" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E64" s="18"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="30">
-        <v>5.49</v>
-      </c>
-      <c r="H64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="30">
+        <v>5.28</v>
+      </c>
       <c r="I64" s="18"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:9">
-      <c r="A65" s="18">
-        <v>3.2</v>
-      </c>
-      <c r="B65" s="18">
-        <v>1</v>
-      </c>
-      <c r="C65" s="30">
-        <v>4.7</v>
-      </c>
-      <c r="D65" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="30">
-        <v>5.38</v>
-      </c>
-      <c r="H65" s="18"/>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" customHeight="1" spans="9:10">
       <c r="I65" s="18"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:9">
-      <c r="A66" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="B66" s="18">
-        <v>1</v>
-      </c>
-      <c r="C66" s="30">
-        <v>4.8</v>
-      </c>
-      <c r="D66" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="30">
-        <v>5.28</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="J65" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9366,7 +9226,7 @@
   <sheetPr/>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
@@ -9387,22 +9247,22 @@
   <sheetData>
     <row r="1" ht="37.5" customHeight="1" spans="1:19">
       <c r="A1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="G1" s="16"/>
       <c r="H1" s="24"/>
@@ -9755,16 +9615,16 @@
       <c r="B12" s="16">
         <v>2</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="21">
         <v>10.33</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="27">
-        <v>1</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
         <v>3</v>
       </c>
       <c r="G12" s="16"/>
@@ -9788,16 +9648,16 @@
       <c r="B13" s="16">
         <v>2</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="21">
         <v>9.9</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="27">
-        <v>1</v>
-      </c>
-      <c r="F13" s="27">
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
         <v>3</v>
       </c>
       <c r="G13" s="16"/>
@@ -9821,16 +9681,16 @@
       <c r="B14" s="16">
         <v>2</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="21">
         <v>10.38</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="27">
-        <v>1</v>
-      </c>
-      <c r="F14" s="27">
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
         <v>3</v>
       </c>
       <c r="G14" s="16"/>
@@ -9854,16 +9714,16 @@
       <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="21">
         <v>10.18</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="27">
-        <v>1</v>
-      </c>
-      <c r="F15" s="27">
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
         <v>3</v>
       </c>
       <c r="G15" s="16"/>
@@ -9887,16 +9747,16 @@
       <c r="B16" s="16">
         <v>2</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="21">
         <v>10.73</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="27">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21">
         <v>3</v>
       </c>
       <c r="G16" s="16"/>
@@ -9920,16 +9780,16 @@
       <c r="B17" s="16">
         <v>2</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="21">
         <v>9.96</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="27">
-        <v>1</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
         <v>3</v>
       </c>
       <c r="G17" s="16"/>
@@ -9953,16 +9813,16 @@
       <c r="B18" s="16">
         <v>2</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="21">
         <v>10.61</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="27">
-        <v>1</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
         <v>3</v>
       </c>
       <c r="G18" s="16"/>
@@ -9986,16 +9846,16 @@
       <c r="B19" s="16">
         <v>2</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <v>10.04</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="27">
-        <v>1</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21">
         <v>3</v>
       </c>
       <c r="G19" s="16"/>
@@ -10019,16 +9879,16 @@
       <c r="B20" s="16">
         <v>2</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="21">
         <v>9.96</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="27">
-        <v>1</v>
-      </c>
-      <c r="F20" s="27">
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
         <v>3</v>
       </c>
       <c r="G20" s="16"/>
@@ -10052,16 +9912,16 @@
       <c r="B21" s="16">
         <v>2</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="21">
         <v>10.58</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="27">
-        <v>1</v>
-      </c>
-      <c r="F21" s="27">
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21">
         <v>3</v>
       </c>
       <c r="G21" s="16"/>
@@ -10121,17 +9981,17 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F1" s="18"/>
     </row>
@@ -10146,7 +10006,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -10162,7 +10022,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -10178,7 +10038,7 @@
         <v>9.4</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
@@ -10194,7 +10054,7 @@
         <v>10.4</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
@@ -10210,7 +10070,7 @@
         <v>12.4</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
@@ -10226,7 +10086,7 @@
         <v>13.9</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -10384,7 +10244,7 @@
         <v>3.3</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
@@ -10398,7 +10258,7 @@
       <c r="D20" s="13"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:6">
@@ -10414,7 +10274,7 @@
         <v>9.3</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:6">
@@ -10428,7 +10288,7 @@
       <c r="D22" s="13"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:6">
@@ -10442,7 +10302,7 @@
       <c r="D23" s="13"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:6">
@@ -10458,7 +10318,7 @@
         <v>14.4</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:6">
@@ -10618,7 +10478,7 @@
         <v>3.7</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:6">
@@ -10634,7 +10494,7 @@
         <v>6.7</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:6">
@@ -10650,7 +10510,7 @@
         <v>8.3</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:6">
@@ -10666,7 +10526,7 @@
         <v>9.3</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:6">
@@ -10682,7 +10542,7 @@
         <v>12.6</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:6">
@@ -10698,7 +10558,7 @@
         <v>14.1</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:6">
@@ -10860,7 +10720,7 @@
         <v>3.8</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:6">
@@ -10876,7 +10736,7 @@
         <v>6.8</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:6">
@@ -10892,7 +10752,7 @@
         <v>9</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:6">
@@ -10908,7 +10768,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:6">
@@ -10924,7 +10784,7 @@
         <v>12.8</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:6">
@@ -10940,7 +10800,7 @@
         <v>14.3</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:6">
@@ -11113,7 +10973,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -11121,7 +10981,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
@@ -11132,40 +10992,40 @@
     <row r="2" spans="1:13">
       <c r="A2" s="16"/>
       <c r="B2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>150</v>
-      </c>
       <c r="G2" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>150</v>
-      </c>
       <c r="M2" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:13">

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11445" windowHeight="9495" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="11445" windowHeight="9495" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="标准地层" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -772,120 +772,16 @@
     <t>溶洞</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔号及取样编号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样深度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样长度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原状土样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扰动土样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岩样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水样）</t>
-    </r>
+    <t>取样编号</t>
+  </si>
+  <si>
+    <t>取样深度</t>
+  </si>
+  <si>
+    <t>取样长度</t>
+  </si>
+  <si>
+    <t>取样类型</t>
   </si>
   <si>
     <t>1-1</t>
@@ -1472,13 +1368,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1536,14 +1432,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,26 +1475,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1595,7 +1492,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,9 +1522,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1641,41 +1561,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1694,13 +1590,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,169 +1764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,15 +1781,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1915,8 +1802,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,16 +1838,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1971,17 +1873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1993,10 +1889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2005,133 +1901,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2244,14 +2140,14 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6753,7 +6649,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -6768,10 +6664,10 @@
       <c r="B1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -7051,351 +6947,304 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="9" style="23"/>
-    <col min="4" max="4" width="25.375" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="36.75" customHeight="1" spans="1:5">
+      <c r="A1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="16">
+      <c r="C2" s="16">
         <v>9.6</v>
       </c>
+      <c r="D2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="C3" s="16">
+        <v>13.5</v>
+      </c>
+      <c r="D3" s="16">
         <v>0.2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="16">
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="16">
+        <v>13.9</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16">
+        <v>9.3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="16">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="16">
+        <v>13.3</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="16">
+        <v>14.1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="16">
+        <v>9.4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:5">
+      <c r="B18" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="16">
         <v>13.5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D18" s="16">
         <v>0.2</v>
       </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="16">
-        <v>13.7</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="16">
-        <v>9.2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="16">
-        <v>13.9</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="16">
-        <v>9.3</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="16">
-        <v>9</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="16">
-        <v>13.3</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="16">
-        <v>9.2</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="16">
-        <v>14.1</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="16">
-        <v>8.6</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="16">
-        <v>13.8</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="16">
-        <v>9.9</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="16">
-        <v>9.4</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="16">
-        <v>13.5</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="E18" s="16">
         <v>3</v>
       </c>
     </row>
@@ -7413,7 +7262,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="15" customHeight="1"/>
@@ -7834,7 +7683,7 @@
   <sheetPr/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11445" windowHeight="9495" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="11445" windowHeight="9495" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="标准地层" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -772,16 +772,120 @@
     <t>溶洞</t>
   </si>
   <si>
-    <t>取样编号</t>
-  </si>
-  <si>
-    <t>取样深度</t>
-  </si>
-  <si>
-    <t>取样长度</t>
-  </si>
-  <si>
-    <t>取样类型</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孔号及取样编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取样深度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取样长度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取样类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(0-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原状土样，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扰动土样，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岩样，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水样）</t>
+    </r>
   </si>
   <si>
     <t>1-1</t>
@@ -1368,13 +1472,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1432,30 +1536,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,11 +1563,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1492,15 +1595,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,24 +1617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1561,17 +1641,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1590,7 +1694,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,67 +1844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,55 +1862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,43 +1874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,6 +1885,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1802,23 +1915,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1838,16 +1936,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1873,11 +1971,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1889,10 +1993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1901,133 +2005,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2140,14 +2244,14 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6649,7 +6753,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -6664,10 +6768,10 @@
       <c r="B1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -6947,304 +7051,351 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="9" style="23"/>
-    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="9" style="23"/>
+    <col min="4" max="4" width="25.375" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>93</v>
       </c>
+      <c r="B1" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="C1" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="16">
+      <c r="B3" s="16">
         <v>9.6</v>
       </c>
-      <c r="D2" s="16">
+      <c r="C3" s="16">
         <v>0.2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="D3" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="2:5">
-      <c r="B3" s="37" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="16">
+      <c r="B4" s="16">
         <v>13.5</v>
       </c>
-      <c r="D3" s="16">
+      <c r="C4" s="16">
         <v>0.2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="D4" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="13" t="s">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="16">
+      <c r="B6" s="16">
         <v>9.5</v>
       </c>
-      <c r="D4" s="16">
+      <c r="C6" s="16">
         <v>0.2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="13" t="s">
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="16">
+      <c r="B8" s="16">
         <v>8.5</v>
       </c>
-      <c r="D5" s="16">
+      <c r="C8" s="16">
         <v>0.2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="D8" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:5">
-      <c r="B6" s="37" t="s">
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="16">
+      <c r="B9" s="16">
         <v>13.7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="C9" s="16">
         <v>0.2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="D9" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="13" t="s">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="16">
+      <c r="B11" s="16">
         <v>9.2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="C11" s="16">
         <v>0.2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="D11" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:5">
-      <c r="B8" s="37" t="s">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="16">
+      <c r="B12" s="16">
         <v>13.9</v>
       </c>
-      <c r="D8" s="16">
+      <c r="C12" s="16">
         <v>0.2</v>
       </c>
-      <c r="E8" s="16">
+      <c r="D12" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="13" t="s">
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="16">
+      <c r="B14" s="16">
         <v>9.3</v>
       </c>
-      <c r="D9" s="16">
+      <c r="C14" s="16">
         <v>0.2</v>
       </c>
-      <c r="E9" s="16">
+      <c r="D14" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="13" t="s">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="16">
+      <c r="B16" s="16">
         <v>9</v>
       </c>
-      <c r="D10" s="16">
+      <c r="C16" s="16">
         <v>0.2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="D16" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:5">
-      <c r="B11" s="38" t="s">
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="16">
+      <c r="B17" s="16">
         <v>13.3</v>
       </c>
-      <c r="D11" s="16">
+      <c r="C17" s="16">
         <v>0.2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="D17" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="16">
+      <c r="B19" s="16">
         <v>9.2</v>
       </c>
-      <c r="D12" s="16">
+      <c r="C19" s="16">
         <v>0.2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="D19" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:5">
-      <c r="B13" s="38" t="s">
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="16">
+      <c r="B20" s="16">
         <v>14.1</v>
       </c>
-      <c r="D13" s="16">
+      <c r="C20" s="16">
         <v>0.2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="D20" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="13" t="s">
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="16">
+      <c r="B22" s="16">
         <v>8.6</v>
       </c>
-      <c r="D14" s="16">
+      <c r="C22" s="16">
         <v>0.2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="D22" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:5">
-      <c r="B15" s="38" t="s">
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="16">
+      <c r="B23" s="16">
         <v>13.8</v>
       </c>
-      <c r="D15" s="16">
+      <c r="C23" s="16">
         <v>0.2</v>
       </c>
-      <c r="E15" s="16">
+      <c r="D23" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="13" t="s">
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="16">
+      <c r="B25" s="16">
         <v>9.9</v>
       </c>
-      <c r="D16" s="16">
+      <c r="C25" s="16">
         <v>0.2</v>
       </c>
-      <c r="E16" s="16">
+      <c r="D25" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="13" t="s">
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="16">
+      <c r="B27" s="16">
         <v>9.4</v>
       </c>
-      <c r="D17" s="16">
+      <c r="C27" s="16">
         <v>0.2</v>
       </c>
-      <c r="E17" s="16">
+      <c r="D27" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:5">
-      <c r="B18" s="38" t="s">
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="16">
+      <c r="B28" s="16">
         <v>13.5</v>
       </c>
-      <c r="D18" s="16">
+      <c r="C28" s="16">
         <v>0.2</v>
       </c>
-      <c r="E18" s="16">
+      <c r="D28" s="16">
         <v>3</v>
       </c>
     </row>
@@ -7262,7 +7413,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="15" customHeight="1"/>
@@ -7683,7 +7834,7 @@
   <sheetPr/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11445" windowHeight="9495" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="11445" windowHeight="9495" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="标准地层" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -772,120 +772,16 @@
     <t>溶洞</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔号及取样编号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样深度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样长度</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取样类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(0-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原状土样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扰动土样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>岩样，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水样）</t>
-    </r>
+    <t>取样编号</t>
+  </si>
+  <si>
+    <t>取样深度</t>
+  </si>
+  <si>
+    <t>取样长度</t>
+  </si>
+  <si>
+    <t>取样类型(0-原状土样，1-扰动土样，3-岩样，4-水样）</t>
   </si>
   <si>
     <t>1-1</t>
@@ -1472,13 +1368,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1536,14 +1432,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,16 +1475,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1583,21 +1495,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1625,21 +1522,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -1647,9 +1529,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,7 +1538,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1678,6 +1567,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1694,19 +1590,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,13 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,31 +1674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,13 +1716,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,49 +1752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1862,19 +1764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,11 +1784,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,23 +1861,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1950,41 +1881,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1993,10 +1889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2005,16 +1901,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2023,115 +1919,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2244,14 +2140,14 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6768,10 +6664,10 @@
       <c r="B1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -7051,351 +6947,304 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="9" style="23"/>
-    <col min="4" max="4" width="25.375" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="36.75" customHeight="1" spans="1:5">
+      <c r="A1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="16">
+      <c r="C2" s="16">
         <v>9.6</v>
       </c>
+      <c r="D2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="37" t="s">
+        <v>98</v>
+      </c>
       <c r="C3" s="16">
+        <v>13.5</v>
+      </c>
+      <c r="D3" s="16">
         <v>0.2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="16">
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="16">
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="16">
+        <v>13.9</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16">
+        <v>9.3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="16">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="16">
+        <v>13.3</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="16">
+        <v>9.2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="16">
+        <v>14.1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="16">
+        <v>9.4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:5">
+      <c r="B18" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="16">
         <v>13.5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="D18" s="16">
         <v>0.2</v>
       </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="16">
-        <v>13.7</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="16">
-        <v>9.2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="16">
-        <v>13.9</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="16">
-        <v>9.3</v>
-      </c>
-      <c r="C14" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="16">
-        <v>9</v>
-      </c>
-      <c r="C16" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="16">
-        <v>13.3</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="16">
-        <v>9.2</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="16">
-        <v>14.1</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="16">
-        <v>8.6</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="16">
-        <v>13.8</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D23" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="16">
-        <v>9.9</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="16">
-        <v>9.4</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="16">
-        <v>13.5</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="E18" s="16">
         <v>3</v>
       </c>
     </row>
@@ -7834,10 +7683,10 @@
   <sheetPr/>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="9495" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="24000" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标准地层" sheetId="1" r:id="rId1"/>
@@ -1244,14 +1244,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1342,25 +1342,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1372,26 +1364,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1408,7 +1402,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,12 +1410,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1437,49 +1471,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,13 +1500,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,13 +1602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,121 +1614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,7 +1632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,7 +1656,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,45 +1700,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1771,8 +1732,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1791,15 +1800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1808,10 +1808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1820,133 +1820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1963,10 +1963,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,25 +1975,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2026,10 +2026,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2044,37 +2044,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2089,13 +2089,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2104,13 +2104,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2119,43 +2119,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5072,10 +5072,10 @@
   <sheetPr/>
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5130,10 +5130,10 @@
         <v>71</v>
       </c>
       <c r="C2" s="15">
+        <v>211790.036</v>
+      </c>
+      <c r="D2" s="15">
         <v>120598.177</v>
-      </c>
-      <c r="D2" s="15">
-        <v>211790.036</v>
       </c>
       <c r="E2" s="15">
         <v>7.506</v>
@@ -5146,7 +5146,6 @@
         <v>72</v>
       </c>
       <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
     </row>
@@ -5158,10 +5157,10 @@
         <v>74</v>
       </c>
       <c r="C3" s="15">
+        <v>211806.268</v>
+      </c>
+      <c r="D3" s="15">
         <v>120589.19</v>
-      </c>
-      <c r="D3" s="15">
-        <v>211806.268</v>
       </c>
       <c r="E3" s="15">
         <v>7.937</v>
@@ -5174,7 +5173,6 @@
         <v>75</v>
       </c>
       <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
       <c r="K3" s="73"/>
       <c r="L3" s="73"/>
     </row>
@@ -5186,10 +5184,10 @@
         <v>71</v>
       </c>
       <c r="C4" s="15">
+        <v>211837.181</v>
+      </c>
+      <c r="D4" s="15">
         <v>120601.238</v>
-      </c>
-      <c r="D4" s="15">
-        <v>211837.181</v>
       </c>
       <c r="E4" s="15">
         <v>7.601</v>
@@ -5202,7 +5200,6 @@
         <v>77</v>
       </c>
       <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
       <c r="K4" s="73"/>
       <c r="L4" s="73"/>
     </row>
@@ -5214,10 +5211,10 @@
         <v>74</v>
       </c>
       <c r="C5" s="15">
+        <v>211794.611</v>
+      </c>
+      <c r="D5" s="15">
         <v>120574.67</v>
-      </c>
-      <c r="D5" s="15">
-        <v>211794.611</v>
       </c>
       <c r="E5" s="15">
         <v>7.609</v>
@@ -5230,7 +5227,6 @@
         <v>79</v>
       </c>
       <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
       <c r="K5" s="73"/>
       <c r="L5" s="73"/>
     </row>
@@ -5242,10 +5238,10 @@
         <v>71</v>
       </c>
       <c r="C6" s="15">
+        <v>211808.913</v>
+      </c>
+      <c r="D6" s="15">
         <v>120570.142</v>
-      </c>
-      <c r="D6" s="15">
-        <v>211808.913</v>
       </c>
       <c r="E6" s="15">
         <v>7.567</v>
@@ -5258,7 +5254,6 @@
         <v>81</v>
       </c>
       <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
       <c r="K6" s="73"/>
       <c r="L6" s="73"/>
     </row>
@@ -5270,10 +5265,10 @@
         <v>71</v>
       </c>
       <c r="C7" s="15">
+        <v>211823.904</v>
+      </c>
+      <c r="D7" s="15">
         <v>120582.971</v>
-      </c>
-      <c r="D7" s="15">
-        <v>211823.904</v>
       </c>
       <c r="E7" s="15">
         <v>7.623</v>
@@ -5286,7 +5281,6 @@
         <v>77</v>
       </c>
       <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
       <c r="K7" s="73"/>
       <c r="L7" s="73"/>
     </row>
@@ -5298,10 +5292,10 @@
         <v>74</v>
       </c>
       <c r="C8" s="15">
+        <v>211840.456</v>
+      </c>
+      <c r="D8" s="15">
         <v>120579.149</v>
-      </c>
-      <c r="D8" s="15">
-        <v>211840.456</v>
       </c>
       <c r="E8" s="15">
         <v>7.699</v>
@@ -5314,7 +5308,6 @@
         <v>77</v>
       </c>
       <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
     </row>
@@ -5326,10 +5319,10 @@
         <v>71</v>
       </c>
       <c r="C9" s="15">
+        <v>211801.366</v>
+      </c>
+      <c r="D9" s="15">
         <v>120552.078</v>
-      </c>
-      <c r="D9" s="15">
-        <v>211801.366</v>
       </c>
       <c r="E9" s="15">
         <v>8.118</v>
@@ -5342,7 +5335,6 @@
         <v>81</v>
       </c>
       <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
     </row>
@@ -5354,10 +5346,10 @@
         <v>74</v>
       </c>
       <c r="C10" s="15">
+        <v>211813.6</v>
+      </c>
+      <c r="D10" s="15">
         <v>120550.239</v>
-      </c>
-      <c r="D10" s="15">
-        <v>211813.6</v>
       </c>
       <c r="E10" s="15">
         <v>7.643</v>
@@ -5370,7 +5362,6 @@
         <v>75</v>
       </c>
       <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
       <c r="K10" s="73"/>
       <c r="L10" s="73"/>
     </row>
@@ -5382,10 +5373,10 @@
         <v>71</v>
       </c>
       <c r="C11" s="15">
+        <v>211831.168</v>
+      </c>
+      <c r="D11" s="15">
         <v>120543.524</v>
-      </c>
-      <c r="D11" s="15">
-        <v>211831.168</v>
       </c>
       <c r="E11" s="15">
         <v>7.56</v>
@@ -5398,7 +5389,6 @@
         <v>81</v>
       </c>
       <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
       <c r="K11" s="73"/>
       <c r="L11" s="73"/>
     </row>
@@ -5410,10 +5400,10 @@
         <v>74</v>
       </c>
       <c r="C12" s="15">
+        <v>211843.582</v>
+      </c>
+      <c r="D12" s="15">
         <v>120558.193</v>
-      </c>
-      <c r="D12" s="15">
-        <v>211843.582</v>
       </c>
       <c r="E12" s="15">
         <v>7.567</v>
@@ -5426,7 +5416,6 @@
         <v>81</v>
       </c>
       <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
     </row>
@@ -5438,10 +5427,10 @@
         <v>74</v>
       </c>
       <c r="C13" s="15">
+        <v>211800.396</v>
+      </c>
+      <c r="D13" s="15">
         <v>120527.578</v>
-      </c>
-      <c r="D13" s="15">
-        <v>211800.396</v>
       </c>
       <c r="E13" s="15">
         <v>7.764</v>
@@ -5454,7 +5443,6 @@
         <v>77</v>
       </c>
       <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
     </row>
@@ -5466,10 +5454,10 @@
         <v>71</v>
       </c>
       <c r="C14" s="15">
+        <v>211818.365</v>
+      </c>
+      <c r="D14" s="15">
         <v>120525.76</v>
-      </c>
-      <c r="D14" s="15">
-        <v>211818.365</v>
       </c>
       <c r="E14" s="15">
         <v>7.624</v>
@@ -5482,7 +5470,6 @@
         <v>75</v>
       </c>
       <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
       <c r="K14" s="72"/>
       <c r="L14" s="72"/>
     </row>
@@ -5494,10 +5481,10 @@
         <v>71</v>
       </c>
       <c r="C15" s="15">
+        <v>211849.175</v>
+      </c>
+      <c r="D15" s="15">
         <v>120537.166</v>
-      </c>
-      <c r="D15" s="15">
-        <v>211849.175</v>
       </c>
       <c r="E15" s="15">
         <v>7.611</v>
@@ -5510,7 +5497,6 @@
         <v>91</v>
       </c>
       <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
       <c r="K15" s="72"/>
       <c r="L15" s="72"/>
     </row>
@@ -5522,10 +5508,10 @@
         <v>74</v>
       </c>
       <c r="C16" s="15">
+        <v>211828.328</v>
+      </c>
+      <c r="D16" s="15">
         <v>120513.713</v>
-      </c>
-      <c r="D16" s="15">
-        <v>211828.328</v>
       </c>
       <c r="E16" s="15">
         <v>7.281</v>
@@ -5538,7 +5524,6 @@
         <v>77</v>
       </c>
       <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
       <c r="K16" s="72"/>
       <c r="L16" s="72"/>
     </row>
@@ -5550,10 +5535,10 @@
         <v>71</v>
       </c>
       <c r="C17" s="15">
+        <v>211846.406</v>
+      </c>
+      <c r="D17" s="15">
         <v>120521.078</v>
-      </c>
-      <c r="D17" s="15">
-        <v>211846.406</v>
       </c>
       <c r="E17" s="15">
         <v>8.159</v>
@@ -5566,7 +5551,6 @@
         <v>91</v>
       </c>
       <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
       <c r="K17" s="72"/>
       <c r="L17" s="72"/>
     </row>
@@ -5578,10 +5562,10 @@
         <v>74</v>
       </c>
       <c r="C18" s="15">
+        <v>211867.332</v>
+      </c>
+      <c r="D18" s="15">
         <v>120532.231</v>
-      </c>
-      <c r="D18" s="15">
-        <v>211867.332</v>
       </c>
       <c r="E18" s="15">
         <v>7.587</v>
@@ -5594,7 +5578,6 @@
         <v>91</v>
       </c>
       <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
     </row>
@@ -5606,10 +5589,10 @@
         <v>71</v>
       </c>
       <c r="C19" s="15">
+        <v>211883.708</v>
+      </c>
+      <c r="D19" s="15">
         <v>120551.257</v>
-      </c>
-      <c r="D19" s="15">
-        <v>211883.708</v>
       </c>
       <c r="E19" s="15">
         <v>7.406</v>
@@ -5622,7 +5605,6 @@
         <v>91</v>
       </c>
       <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
       <c r="K19" s="72"/>
       <c r="L19" s="72"/>
     </row>
@@ -5634,10 +5616,10 @@
         <v>74</v>
       </c>
       <c r="C20" s="15">
+        <v>211901.519</v>
+      </c>
+      <c r="D20" s="15">
         <v>120568.516</v>
-      </c>
-      <c r="D20" s="15">
-        <v>211901.519</v>
       </c>
       <c r="E20" s="15">
         <v>7.522</v>
@@ -5650,7 +5632,6 @@
         <v>79</v>
       </c>
       <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
     </row>
@@ -5662,10 +5643,10 @@
         <v>71</v>
       </c>
       <c r="C21" s="15">
+        <v>211912.977</v>
+      </c>
+      <c r="D21" s="15">
         <v>120585.504</v>
-      </c>
-      <c r="D21" s="15">
-        <v>211912.977</v>
       </c>
       <c r="E21" s="15">
         <v>7.686</v>
@@ -5678,7 +5659,6 @@
         <v>98</v>
       </c>
       <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
       <c r="K21" s="72"/>
       <c r="L21" s="72"/>
     </row>
@@ -5690,10 +5670,10 @@
         <v>71</v>
       </c>
       <c r="C22" s="15">
+        <v>211888.95</v>
+      </c>
+      <c r="D22" s="15">
         <v>120531.614</v>
-      </c>
-      <c r="D22" s="15">
-        <v>211888.95</v>
       </c>
       <c r="E22" s="15">
         <v>7.808</v>
@@ -5706,7 +5686,6 @@
         <v>81</v>
       </c>
       <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
     </row>
@@ -5718,10 +5697,10 @@
         <v>71</v>
       </c>
       <c r="C23" s="15">
+        <v>211911.862</v>
+      </c>
+      <c r="D23" s="15">
         <v>120559.37</v>
-      </c>
-      <c r="D23" s="15">
-        <v>211911.862</v>
       </c>
       <c r="E23" s="15">
         <v>7.477</v>
@@ -5734,7 +5713,6 @@
         <v>79</v>
       </c>
       <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
       <c r="K23" s="72"/>
       <c r="L23" s="72"/>
     </row>
@@ -5746,10 +5724,10 @@
         <v>74</v>
       </c>
       <c r="C24" s="15">
+        <v>211893.718</v>
+      </c>
+      <c r="D24" s="15">
         <v>120514.026</v>
-      </c>
-      <c r="D24" s="15">
-        <v>211893.718</v>
       </c>
       <c r="E24" s="15">
         <v>7.566</v>
@@ -5762,7 +5740,6 @@
         <v>81</v>
       </c>
       <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
     </row>
@@ -5774,10 +5751,10 @@
         <v>71</v>
       </c>
       <c r="C25" s="15">
+        <v>211907.635</v>
+      </c>
+      <c r="D25" s="15">
         <v>120532.963</v>
-      </c>
-      <c r="D25" s="15">
-        <v>211907.635</v>
       </c>
       <c r="E25" s="15">
         <v>7.282</v>
@@ -5790,7 +5767,6 @@
         <v>75</v>
       </c>
       <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
     </row>
@@ -5802,10 +5778,10 @@
         <v>74</v>
       </c>
       <c r="C26" s="15">
+        <v>211928.199</v>
+      </c>
+      <c r="D26" s="15">
         <v>120556.719</v>
-      </c>
-      <c r="D26" s="15">
-        <v>211928.199</v>
       </c>
       <c r="E26" s="15">
         <v>7.575</v>
@@ -5818,7 +5794,6 @@
         <v>98</v>
       </c>
       <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
       <c r="K26" s="72"/>
       <c r="L26" s="72"/>
     </row>
@@ -5830,10 +5805,10 @@
         <v>71</v>
       </c>
       <c r="C27" s="15">
-        <v>120496.843</v>
+        <v>211861.575</v>
       </c>
       <c r="D27" s="15">
-        <v>211898.236</v>
+        <v>120626.172</v>
       </c>
       <c r="E27" s="15">
         <v>7.469</v>
@@ -5846,7 +5821,6 @@
         <v>91</v>
       </c>
       <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
       <c r="K27" s="72"/>
       <c r="L27" s="72"/>
     </row>
@@ -5858,10 +5832,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="15">
+        <v>211735.105</v>
+      </c>
+      <c r="D28" s="15">
         <v>120498.117</v>
-      </c>
-      <c r="D28" s="15">
-        <v>211735.105</v>
       </c>
       <c r="E28" s="15">
         <v>8.047</v>
@@ -5874,7 +5848,6 @@
         <v>77</v>
       </c>
       <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
       <c r="K28" s="72"/>
       <c r="L28" s="72"/>
     </row>
@@ -5886,10 +5859,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="15">
+        <v>211743.807</v>
+      </c>
+      <c r="D29" s="15">
         <v>120479.334</v>
-      </c>
-      <c r="D29" s="15">
-        <v>211743.807</v>
       </c>
       <c r="E29" s="15">
         <v>7.804</v>
@@ -5902,7 +5875,6 @@
         <v>98</v>
       </c>
       <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
       <c r="K29" s="72"/>
       <c r="L29" s="72"/>
     </row>
@@ -5914,10 +5886,10 @@
         <v>74</v>
       </c>
       <c r="C30" s="15">
+        <v>211758.813</v>
+      </c>
+      <c r="D30" s="15">
         <v>120489.133</v>
-      </c>
-      <c r="D30" s="15">
-        <v>211758.813</v>
       </c>
       <c r="E30" s="15">
         <v>7.557</v>
@@ -5930,7 +5902,6 @@
         <v>79</v>
       </c>
       <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
       <c r="K30" s="72"/>
       <c r="L30" s="72"/>
     </row>
@@ -5942,10 +5913,10 @@
         <v>74</v>
       </c>
       <c r="C31" s="15">
+        <v>211754.97</v>
+      </c>
+      <c r="D31" s="15">
         <v>120464.101</v>
-      </c>
-      <c r="D31" s="15">
-        <v>211754.97</v>
       </c>
       <c r="E31" s="15">
         <v>7.563</v>
@@ -5958,7 +5929,6 @@
         <v>98</v>
       </c>
       <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
       <c r="K31" s="72"/>
       <c r="L31" s="72"/>
     </row>
@@ -5970,10 +5940,10 @@
         <v>71</v>
       </c>
       <c r="C32" s="15">
+        <v>211776.954</v>
+      </c>
+      <c r="D32" s="15">
         <v>120476.348</v>
-      </c>
-      <c r="D32" s="15">
-        <v>211776.954</v>
       </c>
       <c r="E32" s="15">
         <v>7.553</v>
@@ -5986,7 +5956,6 @@
         <v>79</v>
       </c>
       <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
       <c r="K32" s="72"/>
       <c r="L32" s="72"/>
     </row>
@@ -5998,10 +5967,10 @@
         <v>71</v>
       </c>
       <c r="C33" s="15">
+        <v>211772.957</v>
+      </c>
+      <c r="D33" s="15">
         <v>120457.553</v>
-      </c>
-      <c r="D33" s="15">
-        <v>211772.957</v>
       </c>
       <c r="E33" s="15">
         <v>7.579</v>
@@ -6014,7 +5983,6 @@
         <v>98</v>
       </c>
       <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
     </row>
@@ -6026,10 +5994,10 @@
         <v>74</v>
       </c>
       <c r="C34" s="15">
+        <v>211836.236</v>
+      </c>
+      <c r="D34" s="15">
         <v>120454.648</v>
-      </c>
-      <c r="D34" s="15">
-        <v>211836.236</v>
       </c>
       <c r="E34" s="15">
         <v>7.537</v>
@@ -6042,7 +6010,6 @@
         <v>79</v>
       </c>
       <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
       <c r="K34" s="72"/>
       <c r="L34" s="72"/>
     </row>
@@ -6054,10 +6021,10 @@
         <v>71</v>
       </c>
       <c r="C35" s="15">
+        <v>211840.213</v>
+      </c>
+      <c r="D35" s="15">
         <v>120393.526</v>
-      </c>
-      <c r="D35" s="15">
-        <v>211840.213</v>
       </c>
       <c r="E35" s="15">
         <v>7.576</v>
@@ -6070,7 +6037,6 @@
         <v>79</v>
       </c>
       <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
       <c r="K35" s="72"/>
       <c r="L35" s="72"/>
     </row>
@@ -6082,10 +6048,10 @@
         <v>74</v>
       </c>
       <c r="C36" s="15">
+        <v>211839.81</v>
+      </c>
+      <c r="D36" s="15">
         <v>120369.168</v>
-      </c>
-      <c r="D36" s="15">
-        <v>211839.81</v>
       </c>
       <c r="E36" s="15">
         <v>7.666</v>
@@ -6098,7 +6064,6 @@
         <v>79</v>
       </c>
       <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
       <c r="K36" s="72"/>
       <c r="L36" s="72"/>
     </row>
@@ -6110,10 +6075,10 @@
         <v>71</v>
       </c>
       <c r="C37" s="15">
+        <v>211868.812</v>
+      </c>
+      <c r="D37" s="15">
         <v>120401.943</v>
-      </c>
-      <c r="D37" s="15">
-        <v>211868.812</v>
       </c>
       <c r="E37" s="15">
         <v>8</v>
@@ -6126,7 +6091,6 @@
         <v>98</v>
       </c>
       <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
       <c r="K37" s="72"/>
       <c r="L37" s="72"/>
     </row>
@@ -6138,10 +6102,10 @@
         <v>74</v>
       </c>
       <c r="C38" s="15">
+        <v>211882.167</v>
+      </c>
+      <c r="D38" s="15">
         <v>120420.606</v>
-      </c>
-      <c r="D38" s="15">
-        <v>211882.167</v>
       </c>
       <c r="E38" s="15">
         <v>7.498</v>
@@ -6154,7 +6118,6 @@
         <v>98</v>
       </c>
       <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
       <c r="K38" s="72"/>
       <c r="L38" s="72"/>
     </row>
@@ -6166,10 +6129,10 @@
         <v>71</v>
       </c>
       <c r="C39" s="15">
+        <v>211910.206</v>
+      </c>
+      <c r="D39" s="15">
         <v>120439.704</v>
-      </c>
-      <c r="D39" s="15">
-        <v>211910.206</v>
       </c>
       <c r="E39" s="15">
         <v>7.398</v>
@@ -6182,7 +6145,6 @@
         <v>77</v>
       </c>
       <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
       <c r="K39" s="72"/>
       <c r="L39" s="72"/>
     </row>
@@ -6194,10 +6156,10 @@
         <v>74</v>
       </c>
       <c r="C40" s="15">
+        <v>211928.68</v>
+      </c>
+      <c r="D40" s="15">
         <v>120453.476</v>
-      </c>
-      <c r="D40" s="15">
-        <v>211928.68</v>
       </c>
       <c r="E40" s="15">
         <v>7.547</v>
@@ -6210,7 +6172,6 @@
         <v>77</v>
       </c>
       <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
       <c r="K40" s="72"/>
       <c r="L40" s="72"/>
     </row>
@@ -6222,10 +6183,10 @@
         <v>71</v>
       </c>
       <c r="C41" s="15">
+        <v>211954.901</v>
+      </c>
+      <c r="D41" s="15">
         <v>120462.357</v>
-      </c>
-      <c r="D41" s="15">
-        <v>211954.901</v>
       </c>
       <c r="E41" s="15">
         <v>7.427</v>
@@ -6238,7 +6199,6 @@
         <v>75</v>
       </c>
       <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
     </row>
@@ -7082,7 +7042,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31838,7 +31798,7 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="9495" activeTab="1"/>
+    <workbookView windowWidth="23233" windowHeight="9511"/>
   </bookViews>
   <sheets>
     <sheet name="勘探点表" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="497">
   <si>
     <t>钻孔编号</t>
   </si>
@@ -48,72 +48,1401 @@
     <t>ZK1</t>
   </si>
   <si>
+    <t>鉴别孔</t>
+  </si>
+  <si>
+    <t>117423.433</t>
+  </si>
+  <si>
+    <t>160661.338</t>
+  </si>
+  <si>
+    <t>131.85</t>
+  </si>
+  <si>
+    <t>ZK2</t>
+  </si>
+  <si>
     <t>取土标贯钻孔</t>
   </si>
   <si>
-    <t>2020.3.19</t>
-  </si>
-  <si>
-    <t>ZK2</t>
-  </si>
-  <si>
-    <t>鉴别孔</t>
+    <t>117454.008</t>
+  </si>
+  <si>
+    <t>160661.306</t>
+  </si>
+  <si>
+    <t>131.83</t>
   </si>
   <si>
     <t>ZK3</t>
   </si>
   <si>
+    <t>117479.016</t>
+  </si>
+  <si>
+    <t>160661.525</t>
+  </si>
+  <si>
     <t>ZK4</t>
   </si>
   <si>
+    <t>117511.499</t>
+  </si>
+  <si>
+    <t>160661.317</t>
+  </si>
+  <si>
+    <t>131.80</t>
+  </si>
+  <si>
     <t>ZK5</t>
   </si>
   <si>
+    <t>117521.615</t>
+  </si>
+  <si>
+    <t>160641.709</t>
+  </si>
+  <si>
+    <t>131.99</t>
+  </si>
+  <si>
     <t>ZK6</t>
   </si>
   <si>
+    <t>117497.434</t>
+  </si>
+  <si>
+    <t>160641.713</t>
+  </si>
+  <si>
+    <t>132.02</t>
+  </si>
+  <si>
     <t>ZK7</t>
   </si>
   <si>
-    <t>2020.3.20</t>
+    <t>117470.912</t>
+  </si>
+  <si>
+    <t>160641.798</t>
+  </si>
+  <si>
+    <t>132.00</t>
   </si>
   <si>
     <t>ZK8</t>
   </si>
   <si>
+    <t>117443.808</t>
+  </si>
+  <si>
+    <t>160641.742</t>
+  </si>
+  <si>
+    <t>132.06</t>
+  </si>
+  <si>
     <t>ZK9</t>
   </si>
   <si>
-    <t>2020.3.18</t>
+    <t>117423.385</t>
+  </si>
+  <si>
+    <t>160641.708</t>
+  </si>
+  <si>
+    <t>132.04</t>
   </si>
   <si>
     <t>ZK10</t>
   </si>
   <si>
+    <t>117439.189</t>
+  </si>
+  <si>
+    <t>160632.699</t>
+  </si>
+  <si>
+    <t>132.12</t>
+  </si>
+  <si>
+    <t>ZK11</t>
+  </si>
+  <si>
+    <t>117422.702</t>
+  </si>
+  <si>
+    <t>160626.179</t>
+  </si>
+  <si>
+    <t>132.20</t>
+  </si>
+  <si>
     <t>ZK12</t>
   </si>
   <si>
+    <t>117464.919</t>
+  </si>
+  <si>
+    <t>160626.218</t>
+  </si>
+  <si>
+    <t>132.15</t>
+  </si>
+  <si>
     <t>ZK13</t>
   </si>
   <si>
+    <t>117422.823</t>
+  </si>
+  <si>
+    <t>160617.128</t>
+  </si>
+  <si>
+    <t>132.89</t>
+  </si>
+  <si>
+    <t>ZK14</t>
+  </si>
+  <si>
+    <t>117443.400</t>
+  </si>
+  <si>
+    <t>160615.597</t>
+  </si>
+  <si>
+    <t>133.21</t>
+  </si>
+  <si>
     <t>ZK15</t>
   </si>
   <si>
-    <t>取土试样钻孔</t>
-  </si>
-  <si>
-    <t>2020.3.17</t>
+    <t>117464.879</t>
+  </si>
+  <si>
+    <t>160617.038</t>
+  </si>
+  <si>
+    <t>132.99</t>
   </si>
   <si>
     <t>ZK16</t>
   </si>
   <si>
+    <t>117495.916</t>
+  </si>
+  <si>
+    <t>160632.722</t>
+  </si>
+  <si>
+    <t>132.09</t>
+  </si>
+  <si>
     <t>ZK17</t>
   </si>
   <si>
+    <t>117479.389</t>
+  </si>
+  <si>
+    <t>160626.222</t>
+  </si>
+  <si>
     <t>ZK18</t>
   </si>
   <si>
+    <t>117521.612</t>
+  </si>
+  <si>
+    <t>160626.201</t>
+  </si>
+  <si>
+    <t>132.16</t>
+  </si>
+  <si>
+    <t>ZK19</t>
+  </si>
+  <si>
+    <t>117479.499</t>
+  </si>
+  <si>
+    <t>160617.016</t>
+  </si>
+  <si>
+    <t>ZK20</t>
+  </si>
+  <si>
+    <t>117500.481</t>
+  </si>
+  <si>
+    <t>160615.485</t>
+  </si>
+  <si>
+    <t>133.34</t>
+  </si>
+  <si>
+    <t>ZK21</t>
+  </si>
+  <si>
+    <t>117521.616</t>
+  </si>
+  <si>
+    <t>160616.949</t>
+  </si>
+  <si>
+    <t>133.15</t>
+  </si>
+  <si>
+    <t>ZK23</t>
+  </si>
+  <si>
+    <t>160565.630</t>
+  </si>
+  <si>
+    <t>ZK25</t>
+  </si>
+  <si>
+    <t>117422.829</t>
+  </si>
+  <si>
+    <t>160556.409</t>
+  </si>
+  <si>
+    <t>133.51</t>
+  </si>
+  <si>
+    <t>ZK30</t>
+  </si>
+  <si>
+    <t>117521.609</t>
+  </si>
+  <si>
+    <t>160565.641</t>
+  </si>
+  <si>
+    <t>133.38</t>
+  </si>
+  <si>
+    <t>ZK33</t>
+  </si>
+  <si>
+    <t>117521.589</t>
+  </si>
+  <si>
+    <t>160556.323</t>
+  </si>
+  <si>
+    <t>133.40</t>
+  </si>
+  <si>
+    <t>ZK34</t>
+  </si>
+  <si>
+    <t>117423.494</t>
+  </si>
+  <si>
+    <t>160506.531</t>
+  </si>
+  <si>
+    <t>133.45</t>
+  </si>
+  <si>
+    <t>ZK37</t>
+  </si>
+  <si>
+    <t>117423.439</t>
+  </si>
+  <si>
+    <t>160497.022</t>
+  </si>
+  <si>
+    <t>ZK40</t>
+  </si>
+  <si>
+    <t>117424.535</t>
+  </si>
+  <si>
+    <t>160422.239</t>
+  </si>
+  <si>
+    <t>133.30</t>
+  </si>
+  <si>
+    <t>ZK41</t>
+  </si>
+  <si>
+    <t>117441.880</t>
+  </si>
+  <si>
+    <t>160424.733</t>
+  </si>
+  <si>
+    <t>133.29</t>
+  </si>
+  <si>
+    <t>ZK42</t>
+  </si>
+  <si>
+    <t>117461.107</t>
+  </si>
+  <si>
+    <t>160422.572</t>
+  </si>
+  <si>
+    <t>133.37</t>
+  </si>
+  <si>
+    <t>ZK43</t>
+  </si>
+  <si>
+    <t>117423.177</t>
+  </si>
+  <si>
+    <t>160414.037</t>
+  </si>
+  <si>
+    <t>133.56</t>
+  </si>
+  <si>
+    <t>ZK44</t>
+  </si>
+  <si>
+    <t>117440.488</t>
+  </si>
+  <si>
+    <t>160407.528</t>
+  </si>
+  <si>
+    <t>134.41</t>
+  </si>
+  <si>
+    <t>ZK45</t>
+  </si>
+  <si>
+    <t>117467.881</t>
+  </si>
+  <si>
+    <t>160408.105</t>
+  </si>
+  <si>
+    <t>133.77</t>
+  </si>
+  <si>
+    <t>ZK47</t>
+  </si>
+  <si>
+    <t>117443.412</t>
+  </si>
+  <si>
+    <t>160365.513</t>
+  </si>
+  <si>
+    <t>138.48</t>
+  </si>
+  <si>
+    <t>ZK48</t>
+  </si>
+  <si>
+    <t>117464.909</t>
+  </si>
+  <si>
+    <t>160364.132</t>
+  </si>
+  <si>
+    <t>138.56</t>
+  </si>
+  <si>
+    <t>ZK49</t>
+  </si>
+  <si>
+    <t>117422.718</t>
+  </si>
+  <si>
+    <t>160354.897</t>
+  </si>
+  <si>
+    <t>136.16</t>
+  </si>
+  <si>
+    <t>ZK50</t>
+  </si>
+  <si>
+    <t>117439.195</t>
+  </si>
+  <si>
+    <t>160348.554</t>
+  </si>
+  <si>
+    <t>137.60</t>
+  </si>
+  <si>
+    <t>ZK51</t>
+  </si>
+  <si>
+    <t>117464.906</t>
+  </si>
+  <si>
+    <t>160354.917</t>
+  </si>
+  <si>
+    <t>138.32</t>
+  </si>
+  <si>
+    <t>ZK52</t>
+  </si>
+  <si>
+    <t>117479.431</t>
+  </si>
+  <si>
+    <t>160364.107</t>
+  </si>
+  <si>
+    <t>137.81</t>
+  </si>
+  <si>
+    <t>ZK53</t>
+  </si>
+  <si>
+    <t>117500.112</t>
+  </si>
+  <si>
+    <t>160365.507</t>
+  </si>
+  <si>
+    <t>137.12</t>
+  </si>
+  <si>
+    <t>ZK54</t>
+  </si>
+  <si>
+    <t>117521.579</t>
+  </si>
+  <si>
+    <t>160364.151</t>
+  </si>
+  <si>
+    <t>136.92</t>
+  </si>
+  <si>
+    <t>ZK70</t>
+  </si>
+  <si>
+    <t>117565.811</t>
+  </si>
+  <si>
+    <t>160379.975</t>
+  </si>
+  <si>
+    <t>135.10</t>
+  </si>
+  <si>
+    <t>ZK71</t>
+  </si>
+  <si>
+    <t>117582.293</t>
+  </si>
+  <si>
+    <t>160379.937</t>
+  </si>
+  <si>
+    <t>136.43</t>
+  </si>
+  <si>
+    <t>ZK72</t>
+  </si>
+  <si>
+    <t>117608.044</t>
+  </si>
+  <si>
+    <t>160380.027</t>
+  </si>
+  <si>
+    <t>ZK73</t>
+  </si>
+  <si>
+    <t>117565.935</t>
+  </si>
+  <si>
+    <t>160370.826</t>
+  </si>
+  <si>
+    <t>136.05</t>
+  </si>
+  <si>
+    <t>ZK74</t>
+  </si>
+  <si>
+    <t>117586.924</t>
+  </si>
+  <si>
+    <t>160369.259</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>ZK75</t>
+  </si>
+  <si>
+    <t>160370.680</t>
+  </si>
+  <si>
+    <t>135.99</t>
+  </si>
+  <si>
+    <t>ZK76</t>
+  </si>
+  <si>
+    <t>117628.436</t>
+  </si>
+  <si>
+    <t>160383.676</t>
+  </si>
+  <si>
+    <t>136.29</t>
+  </si>
+  <si>
+    <t>ZK77</t>
+  </si>
+  <si>
+    <t>117644.522</t>
+  </si>
+  <si>
+    <t>160385.411</t>
+  </si>
+  <si>
+    <t>136.24</t>
+  </si>
+  <si>
+    <t>ZK78</t>
+  </si>
+  <si>
+    <t>117660.612</t>
+  </si>
+  <si>
+    <t>160383.687</t>
+  </si>
+  <si>
+    <t>136.45</t>
+  </si>
+  <si>
+    <t>ZK79</t>
+  </si>
+  <si>
+    <t>117628.410</t>
+  </si>
+  <si>
+    <t>160374.228</t>
+  </si>
+  <si>
+    <t>136.33</t>
+  </si>
+  <si>
+    <t>ZK80</t>
+  </si>
+  <si>
+    <t>117644.469</t>
+  </si>
+  <si>
+    <t>160371.321</t>
+  </si>
+  <si>
+    <t>136.26</t>
+  </si>
+  <si>
+    <t>ZK81</t>
+  </si>
+  <si>
+    <t>117660.648</t>
+  </si>
+  <si>
+    <t>160374.179</t>
+  </si>
+  <si>
+    <t>136.14</t>
+  </si>
+  <si>
+    <t>ZK82</t>
+  </si>
+  <si>
+    <t>117683.457</t>
+  </si>
+  <si>
+    <t>160383.699</t>
+  </si>
+  <si>
+    <t>ZK83</t>
+  </si>
+  <si>
+    <t>117699.522</t>
+  </si>
+  <si>
+    <t>160385.951</t>
+  </si>
+  <si>
+    <t>136.06</t>
+  </si>
+  <si>
+    <t>ZK84</t>
+  </si>
+  <si>
+    <t>117715.636</t>
+  </si>
+  <si>
+    <t>160383.662</t>
+  </si>
+  <si>
+    <t>ZK85</t>
+  </si>
+  <si>
+    <t>117683.404</t>
+  </si>
+  <si>
+    <t>160374.182</t>
+  </si>
+  <si>
+    <t>136.18</t>
+  </si>
+  <si>
+    <t>ZK86</t>
+  </si>
+  <si>
+    <t>117699.491</t>
+  </si>
+  <si>
+    <t>160371.272</t>
+  </si>
+  <si>
+    <t>135.97</t>
+  </si>
+  <si>
+    <t>ZK87</t>
+  </si>
+  <si>
+    <t>117715.627</t>
+  </si>
+  <si>
+    <t>160374.176</t>
+  </si>
+  <si>
+    <t>136.37</t>
+  </si>
+  <si>
+    <t>ZK88</t>
+  </si>
+  <si>
+    <t>117736.015</t>
+  </si>
+  <si>
+    <t>160380.013</t>
+  </si>
+  <si>
+    <t>136.65</t>
+  </si>
+  <si>
+    <t>ZK89</t>
+  </si>
+  <si>
+    <t>117752.533</t>
+  </si>
+  <si>
+    <t>160386.527</t>
+  </si>
+  <si>
+    <t>ZK90</t>
+  </si>
+  <si>
+    <t>117778.194</t>
+  </si>
+  <si>
+    <t>160380.010</t>
+  </si>
+  <si>
+    <t>ZK91</t>
+  </si>
+  <si>
+    <t>117736.137</t>
+  </si>
+  <si>
+    <t>160370.803</t>
+  </si>
+  <si>
+    <t>136.62</t>
+  </si>
+  <si>
+    <t>ZK92</t>
+  </si>
+  <si>
+    <t>117757.135</t>
+  </si>
+  <si>
+    <t>160369.251</t>
+  </si>
+  <si>
+    <t>136.70</t>
+  </si>
+  <si>
+    <t>ZK93</t>
+  </si>
+  <si>
+    <t>117778.226</t>
+  </si>
+  <si>
+    <t>160370.701</t>
+  </si>
+  <si>
+    <t>137.01</t>
+  </si>
+  <si>
+    <t>ZK101</t>
+  </si>
+  <si>
+    <t>117643.210</t>
+  </si>
+  <si>
+    <t>160306.382</t>
+  </si>
+  <si>
+    <t>137.26</t>
+  </si>
+  <si>
+    <t>ZK102</t>
+  </si>
+  <si>
+    <t>117664.699</t>
+  </si>
+  <si>
+    <t>160305.007</t>
+  </si>
+  <si>
+    <t>137.15</t>
+  </si>
+  <si>
+    <t>ZK105</t>
+  </si>
+  <si>
+    <t>117664.705</t>
+  </si>
+  <si>
+    <t>160295.800</t>
+  </si>
+  <si>
+    <t>137.42</t>
+  </si>
+  <si>
+    <t>ZK106</t>
+  </si>
+  <si>
+    <t>117679.360</t>
+  </si>
+  <si>
+    <t>160304.987</t>
+  </si>
+  <si>
+    <t>137.13</t>
+  </si>
+  <si>
+    <t>ZK107</t>
+  </si>
+  <si>
+    <t>117700.035</t>
+  </si>
+  <si>
+    <t>160306.436</t>
+  </si>
+  <si>
+    <t>ZK108</t>
+  </si>
+  <si>
+    <t>117721.530</t>
+  </si>
+  <si>
+    <t>160305.029</t>
+  </si>
+  <si>
+    <t>137.84</t>
+  </si>
+  <si>
+    <t>ZK109</t>
+  </si>
+  <si>
+    <t>117679.302</t>
+  </si>
+  <si>
+    <t>160295.830</t>
+  </si>
+  <si>
+    <t>ZK110</t>
+  </si>
+  <si>
+    <t>117695.824</t>
+  </si>
+  <si>
+    <t>160289.378</t>
+  </si>
+  <si>
+    <t>137.21</t>
+  </si>
+  <si>
+    <t>ZK111</t>
+  </si>
+  <si>
+    <t>117721.524</t>
+  </si>
+  <si>
+    <t>160295.818</t>
+  </si>
+  <si>
+    <t>137.35</t>
+  </si>
+  <si>
+    <t>ZK112</t>
+  </si>
+  <si>
+    <t>117735.999</t>
+  </si>
+  <si>
+    <t>160304.970</t>
+  </si>
+  <si>
+    <t>137.65</t>
+  </si>
+  <si>
+    <t>ZK113</t>
+  </si>
+  <si>
+    <t>117756.718</t>
+  </si>
+  <si>
+    <t>160306.405</t>
+  </si>
+  <si>
+    <t>137.53</t>
+  </si>
+  <si>
+    <t>ZK114</t>
+  </si>
+  <si>
+    <t>117778.215</t>
+  </si>
+  <si>
+    <t>160305.039</t>
+  </si>
+  <si>
+    <t>137.55</t>
+  </si>
+  <si>
+    <t>ZK115</t>
+  </si>
+  <si>
+    <t>117736.003</t>
+  </si>
+  <si>
+    <t>160295.789</t>
+  </si>
+  <si>
+    <t>137.50</t>
+  </si>
+  <si>
+    <t>ZK116</t>
+  </si>
+  <si>
+    <t>117752.550</t>
+  </si>
+  <si>
+    <t>160289.429</t>
+  </si>
+  <si>
+    <t>137.56</t>
+  </si>
+  <si>
+    <t>ZK117</t>
+  </si>
+  <si>
+    <t>117778.239</t>
+  </si>
+  <si>
+    <t>160295.803</t>
+  </si>
+  <si>
+    <t>137.86</t>
+  </si>
+  <si>
+    <t>ZK118</t>
+  </si>
+  <si>
+    <t>117767.631</t>
+  </si>
+  <si>
+    <t>160323.742</t>
+  </si>
+  <si>
+    <t>ZK119</t>
+  </si>
+  <si>
+    <t>117778.250</t>
+  </si>
+  <si>
+    <t>160351.912</t>
+  </si>
+  <si>
+    <t>137.25</t>
+  </si>
+  <si>
+    <t>ZK120</t>
+  </si>
+  <si>
+    <t>117422.682</t>
+  </si>
+  <si>
+    <t>160590.072</t>
+  </si>
+  <si>
+    <t>133.44</t>
+  </si>
+  <si>
+    <t>ZK121</t>
+  </si>
+  <si>
+    <t>117443.278</t>
+  </si>
+  <si>
+    <t>160592.331</t>
+  </si>
+  <si>
+    <t>ZK122</t>
+  </si>
+  <si>
+    <t>117464.887</t>
+  </si>
+  <si>
+    <t>160592.291</t>
+  </si>
+  <si>
+    <t>133.35</t>
+  </si>
+  <si>
+    <t>ZK123</t>
+  </si>
+  <si>
+    <t>117479.473</t>
+  </si>
+  <si>
+    <t>160592.309</t>
+  </si>
+  <si>
+    <t>133.36</t>
+  </si>
+  <si>
+    <t>ZK124</t>
+  </si>
+  <si>
+    <t>117500.405</t>
+  </si>
+  <si>
+    <t>160592.264</t>
+  </si>
+  <si>
+    <t>ZK125</t>
+  </si>
+  <si>
+    <t>160592.240</t>
+  </si>
+  <si>
+    <t>133.31</t>
+  </si>
+  <si>
+    <t>ZK126</t>
+  </si>
+  <si>
+    <t>117423.717</t>
+  </si>
+  <si>
+    <t>160533.355</t>
+  </si>
+  <si>
+    <t>ZK130</t>
+  </si>
+  <si>
+    <t>117522.094</t>
+  </si>
+  <si>
+    <t>160533.271</t>
+  </si>
+  <si>
+    <t>133.43</t>
+  </si>
+  <si>
+    <t>ZK132</t>
+  </si>
+  <si>
+    <t>117514.056</t>
+  </si>
+  <si>
+    <t>160503.208</t>
+  </si>
+  <si>
+    <t>ZK133</t>
+  </si>
+  <si>
+    <t>117423.342</t>
+  </si>
+  <si>
+    <t>160475.908</t>
+  </si>
+  <si>
+    <t>ZK136</t>
+  </si>
+  <si>
+    <t>117513.562</t>
+  </si>
+  <si>
+    <t>160474.787</t>
+  </si>
+  <si>
+    <t>ZK137</t>
+  </si>
+  <si>
+    <t>117422.722</t>
+  </si>
+  <si>
+    <t>160445.936</t>
+  </si>
+  <si>
+    <t>133.32</t>
+  </si>
+  <si>
+    <t>ZK138</t>
+  </si>
+  <si>
+    <t>117453.943</t>
+  </si>
+  <si>
+    <t>160444.885</t>
+  </si>
+  <si>
+    <t>ZK139</t>
+  </si>
+  <si>
+    <t>117487.779</t>
+  </si>
+  <si>
+    <t>160443.453</t>
+  </si>
+  <si>
+    <t>133.39</t>
+  </si>
+  <si>
+    <t>ZK140</t>
+  </si>
+  <si>
+    <t>117511.389</t>
+  </si>
+  <si>
+    <t>160443.447</t>
+  </si>
+  <si>
+    <t>133.41</t>
+  </si>
+  <si>
+    <t>ZK141</t>
+  </si>
+  <si>
+    <t>117485.916</t>
+  </si>
+  <si>
+    <t>160413.628</t>
+  </si>
+  <si>
+    <t>133.52</t>
+  </si>
+  <si>
+    <t>ZK142</t>
+  </si>
+  <si>
+    <t>117510.444</t>
+  </si>
+  <si>
+    <t>160413.471</t>
+  </si>
+  <si>
+    <t>133.50</t>
+  </si>
+  <si>
+    <t>ZK144</t>
+  </si>
+  <si>
+    <t>117440.140</t>
+  </si>
+  <si>
+    <t>160387.035</t>
+  </si>
+  <si>
+    <t>137.37</t>
+  </si>
+  <si>
+    <t>ZK145</t>
+  </si>
+  <si>
+    <t>117470.137</t>
+  </si>
+  <si>
+    <t>160386.661</t>
+  </si>
+  <si>
+    <t>137.74</t>
+  </si>
+  <si>
+    <t>ZK146</t>
+  </si>
+  <si>
+    <t>117488.843</t>
+  </si>
+  <si>
+    <t>160386.917</t>
+  </si>
+  <si>
+    <t>136.63</t>
+  </si>
+  <si>
+    <t>ZK147</t>
+  </si>
+  <si>
+    <t>117518.046</t>
+  </si>
+  <si>
+    <t>160386.935</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>ZK155</t>
+  </si>
+  <si>
+    <t>117615.615</t>
+  </si>
+  <si>
+    <t>160397.125</t>
+  </si>
+  <si>
+    <t>132.95</t>
+  </si>
+  <si>
+    <t>ZK156</t>
+  </si>
+  <si>
+    <t>117634.168</t>
+  </si>
+  <si>
+    <t>160397.123</t>
+  </si>
+  <si>
+    <t>ZK157</t>
+  </si>
+  <si>
+    <t>117716.904</t>
+  </si>
+  <si>
+    <t>160397.116</t>
+  </si>
+  <si>
+    <t>133.48</t>
+  </si>
+  <si>
+    <t>ZK158</t>
+  </si>
+  <si>
+    <t>117735.443</t>
+  </si>
+  <si>
+    <t>160397.129</t>
+  </si>
+  <si>
+    <t>134.21</t>
+  </si>
+  <si>
+    <t>ZK159</t>
+  </si>
+  <si>
+    <t>117557.385</t>
+  </si>
+  <si>
+    <t>160351.558</t>
+  </si>
+  <si>
+    <t>135.90</t>
+  </si>
+  <si>
+    <t>ZK160</t>
+  </si>
+  <si>
+    <t>117583.734</t>
+  </si>
+  <si>
+    <t>160351.508</t>
+  </si>
+  <si>
+    <t>136.02</t>
+  </si>
+  <si>
+    <t>ZK161</t>
+  </si>
+  <si>
+    <t>117613.727</t>
+  </si>
+  <si>
+    <t>160351.474</t>
+  </si>
+  <si>
+    <t>ZK162</t>
+  </si>
+  <si>
+    <t>117643.696</t>
+  </si>
+  <si>
+    <t>160351.545</t>
+  </si>
+  <si>
+    <t>ZK163</t>
+  </si>
+  <si>
+    <t>117673.702</t>
+  </si>
+  <si>
+    <t>160351.479</t>
+  </si>
+  <si>
+    <t>ZK164</t>
+  </si>
+  <si>
+    <t>117703.760</t>
+  </si>
+  <si>
+    <t>160351.549</t>
+  </si>
+  <si>
+    <t>ZK165</t>
+  </si>
+  <si>
+    <t>117733.688</t>
+  </si>
+  <si>
+    <t>160351.541</t>
+  </si>
+  <si>
+    <t>137.51</t>
+  </si>
+  <si>
+    <t>ZK166</t>
+  </si>
+  <si>
+    <t>117758.319</t>
+  </si>
+  <si>
+    <t>160351.554</t>
+  </si>
+  <si>
+    <t>137.28</t>
+  </si>
+  <si>
+    <t>ZK169</t>
+  </si>
+  <si>
+    <t>117613.775</t>
+  </si>
+  <si>
+    <t>160326.537</t>
+  </si>
+  <si>
+    <t>135.83</t>
+  </si>
+  <si>
+    <t>ZK170</t>
+  </si>
+  <si>
+    <t>117643.810</t>
+  </si>
+  <si>
+    <t>160326.517</t>
+  </si>
+  <si>
+    <t>136.94</t>
+  </si>
+  <si>
+    <t>ZK171</t>
+  </si>
+  <si>
+    <t>117673.776</t>
+  </si>
+  <si>
+    <t>160326.541</t>
+  </si>
+  <si>
+    <t>137.17</t>
+  </si>
+  <si>
+    <t>ZK172</t>
+  </si>
+  <si>
+    <t>117703.779</t>
+  </si>
+  <si>
+    <t>160326.521</t>
+  </si>
+  <si>
+    <t>137.30</t>
+  </si>
+  <si>
+    <t>ZK173</t>
+  </si>
+  <si>
+    <t>117733.813</t>
+  </si>
+  <si>
+    <t>160326.522</t>
+  </si>
+  <si>
+    <t>137.46</t>
+  </si>
+  <si>
+    <t>ZK174</t>
+  </si>
+  <si>
+    <t>117753.637</t>
+  </si>
+  <si>
+    <t>160326.501</t>
+  </si>
+  <si>
+    <t>137.31</t>
+  </si>
+  <si>
+    <t>ZK175</t>
+  </si>
+  <si>
+    <t>117789.011</t>
+  </si>
+  <si>
+    <t>160305.595</t>
+  </si>
+  <si>
+    <t>137.57</t>
+  </si>
+  <si>
+    <t>ZK178</t>
+  </si>
+  <si>
+    <t>117789.198</t>
+  </si>
+  <si>
+    <t>160284.789</t>
+  </si>
+  <si>
+    <t>138.06</t>
+  </si>
+  <si>
     <t>主层编号</t>
   </si>
   <si>
@@ -123,64 +1452,22 @@
     <t>岩土名称</t>
   </si>
   <si>
-    <t>zk1</t>
-  </si>
-  <si>
-    <t>zk2</t>
-  </si>
-  <si>
-    <t>zk3</t>
-  </si>
-  <si>
-    <t>zk4</t>
-  </si>
-  <si>
-    <t>zk5</t>
-  </si>
-  <si>
-    <t>zk6</t>
-  </si>
-  <si>
-    <t>zk7</t>
-  </si>
-  <si>
-    <t>zk8</t>
-  </si>
-  <si>
-    <t>zk9</t>
-  </si>
-  <si>
-    <t>zk10</t>
-  </si>
-  <si>
-    <t>zk12</t>
-  </si>
-  <si>
-    <t>zk13</t>
-  </si>
-  <si>
-    <t>zk15</t>
-  </si>
-  <si>
-    <t>zk16</t>
-  </si>
-  <si>
-    <t>zk17</t>
-  </si>
-  <si>
-    <t>zk18</t>
-  </si>
-  <si>
-    <t>填土</t>
+    <t>杂填土</t>
   </si>
   <si>
     <t>层底深度</t>
   </si>
   <si>
-    <t>粉质粘土</t>
-  </si>
-  <si>
-    <t>泥质砂岩</t>
+    <t>花岗岩（孤石）</t>
+  </si>
+  <si>
+    <t>耕土</t>
+  </si>
+  <si>
+    <t>砂质黏性土</t>
+  </si>
+  <si>
+    <t>花岗岩</t>
   </si>
   <si>
     <t>取样深度</t>
@@ -234,11 +1521,11 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,12 +1590,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -323,14 +1604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +1612,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,36 +1634,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,9 +1648,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,9 +1664,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,6 +1681,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,8 +1724,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +1741,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,13 +1756,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,31 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +1840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,31 +1864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,37 +1882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +1900,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +1959,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -696,43 +2027,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,21 +2056,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +2064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +2076,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,10 +2225,10 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -974,7 +2255,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -983,16 +2264,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1007,7 +2288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,10 +2309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1040,14 +2321,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,40 +2333,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1428,25 +2700,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B17"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="9" style="49"/>
-    <col min="2" max="2" width="15" style="49" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.11666666666667" style="49" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="49" customWidth="1"/>
-    <col min="9" max="12" width="9.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="9" style="46"/>
+    <col min="2" max="2" width="15" style="46" customWidth="1"/>
+    <col min="3" max="3" width="14.6238532110092" style="46" customWidth="1"/>
+    <col min="4" max="4" width="11.3761467889908" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11.6238532110092" style="48" customWidth="1"/>
+    <col min="6" max="6" width="9.11926605504587" style="46" customWidth="1"/>
+    <col min="7" max="7" width="12.8715596330275" style="46" customWidth="1"/>
+    <col min="8" max="8" width="13.7522935779817" style="46" customWidth="1"/>
+    <col min="9" max="12" width="9.12844036697248" style="46" customWidth="1"/>
     <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -1480,1569 +2752,2743 @@
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
     </row>
-    <row r="2" s="48" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
+    <row r="2" s="47" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
-        <v>148078.063</v>
-      </c>
-      <c r="D2" s="17">
-        <v>223850.932</v>
-      </c>
-      <c r="E2" s="17">
-        <v>40.723</v>
-      </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-    </row>
-    <row r="3" s="48" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
+      <c r="D2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+    </row>
+    <row r="3" s="47" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
       <c r="A3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" s="47" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
+      <c r="A4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17">
-        <v>148073.577</v>
-      </c>
-      <c r="D3" s="17">
-        <v>223860.132</v>
-      </c>
-      <c r="E3" s="17">
-        <v>40.987</v>
-      </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-    </row>
-    <row r="4" s="48" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+    </row>
+    <row r="5" s="47" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="52"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" s="47" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17">
-        <v>148069.402</v>
-      </c>
-      <c r="D4" s="17">
-        <v>223868.723</v>
-      </c>
-      <c r="E4" s="17">
-        <v>41.069</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-    </row>
-    <row r="5" s="48" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
-      <c r="A5" s="15" t="s">
+      <c r="C6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="52"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" s="47" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="17">
-        <v>148074.318</v>
-      </c>
-      <c r="D5" s="17">
-        <v>223849.111</v>
-      </c>
-      <c r="E5" s="17">
-        <v>40.552</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="K5" s="55"/>
-    </row>
-    <row r="6" s="48" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
-      <c r="A6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="52"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" s="47" customFormat="1" ht="15.75" spans="1:11">
+      <c r="A8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17">
-        <v>148067.037</v>
-      </c>
-      <c r="D6" s="17">
-        <v>223856.871</v>
-      </c>
-      <c r="E6" s="17">
-        <v>41.017</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="K6" s="55"/>
-    </row>
-    <row r="7" s="48" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
-      <c r="A7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="17">
-        <v>148062.843</v>
-      </c>
-      <c r="D7" s="17">
-        <v>223865.522</v>
-      </c>
-      <c r="E7" s="17">
-        <v>41.073</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="K7" s="55"/>
-    </row>
-    <row r="8" s="48" customFormat="1" ht="15.75" spans="1:11">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="17">
-        <v>148027.063</v>
-      </c>
-      <c r="D8" s="17">
-        <v>223876.33</v>
-      </c>
-      <c r="E8" s="17">
-        <v>40.648</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="55"/>
-      <c r="K8" s="55"/>
-    </row>
-    <row r="9" s="48" customFormat="1" ht="15.75" spans="1:11">
+      <c r="C8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="52"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" s="47" customFormat="1" ht="15.75" spans="1:11">
       <c r="A9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="52"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" s="47" customFormat="1" ht="15.75" spans="1:11">
+      <c r="A10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17">
-        <v>148022.903</v>
-      </c>
-      <c r="D9" s="17">
-        <v>223885.93</v>
-      </c>
-      <c r="E9" s="17">
-        <v>40.895</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="55"/>
-      <c r="K9" s="55"/>
-    </row>
-    <row r="10" s="48" customFormat="1" ht="15.75" spans="1:11">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17">
-        <v>148019.456</v>
-      </c>
-      <c r="D10" s="17">
-        <v>223894.516</v>
-      </c>
-      <c r="E10" s="17">
-        <v>41.069</v>
-      </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="55"/>
-      <c r="K10" s="55"/>
-    </row>
-    <row r="11" s="48" customFormat="1" ht="15.75" spans="1:12">
+      <c r="C10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="52"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" s="47" customFormat="1" ht="15.75" spans="1:12">
       <c r="A11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17">
-        <v>148017.919</v>
-      </c>
-      <c r="D11" s="17">
-        <v>223872.086</v>
-      </c>
-      <c r="E11" s="17">
-        <v>40.675</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" s="48" customFormat="1" ht="15.75" spans="1:12">
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" s="47" customFormat="1" ht="15.75" spans="1:12">
       <c r="A12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17">
-        <v>148008.249</v>
-      </c>
-      <c r="D12" s="17">
-        <v>223893.206</v>
-      </c>
-      <c r="E12" s="17">
-        <v>41.146</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-    </row>
-    <row r="13" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17">
-        <v>148008.737</v>
-      </c>
-      <c r="D13" s="17">
-        <v>223868.06</v>
-      </c>
-      <c r="E13" s="17">
-        <v>40.644</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="17">
-        <v>147999.129</v>
-      </c>
-      <c r="D14" s="17">
-        <v>223889.142</v>
-      </c>
-      <c r="E14" s="17">
-        <v>41.003</v>
-      </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" s="48" customFormat="1" ht="15.75" spans="1:12">
+      <c r="C14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" s="47" customFormat="1" ht="15.75" spans="1:12">
       <c r="A15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17">
-        <v>147999.209</v>
-      </c>
-      <c r="D15" s="17">
-        <v>223863.714</v>
-      </c>
-      <c r="E15" s="17">
-        <v>40.761</v>
-      </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A16" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="17">
-        <v>147994.873</v>
-      </c>
-      <c r="D16" s="17">
-        <v>223873.372</v>
-      </c>
-      <c r="E16" s="17">
-        <v>40.81</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" s="48" customFormat="1" ht="15.75" spans="1:12">
+      <c r="C16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" s="47" customFormat="1" ht="15.75" spans="1:12">
       <c r="A17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="17">
-        <v>147991.663</v>
-      </c>
-      <c r="D17" s="17">
-        <v>223880.326</v>
-      </c>
-      <c r="E17" s="17">
-        <v>40.95</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-    </row>
-    <row r="18" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A18" s="15"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-    </row>
-    <row r="19" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A19" s="15"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="20" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A20" s="15"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-    </row>
-    <row r="21" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A21" s="15"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-    </row>
-    <row r="22" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A22" s="15"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-    </row>
-    <row r="23" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A23" s="15"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-    </row>
-    <row r="24" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A24" s="15"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-    </row>
-    <row r="25" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A25" s="15"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-    </row>
-    <row r="26" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A26" s="15"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-    </row>
-    <row r="27" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A27" s="15"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-    </row>
-    <row r="28" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A28" s="15"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-    </row>
-    <row r="29" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A29" s="15"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-    </row>
-    <row r="30" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A30" s="15"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-    </row>
-    <row r="31" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A31" s="15"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-    </row>
-    <row r="32" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A32" s="15"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-    </row>
-    <row r="33" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A33" s="15"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-    </row>
-    <row r="34" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A34" s="15"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-    </row>
-    <row r="35" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A35" s="15"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-    </row>
-    <row r="36" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A36" s="15"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-    </row>
-    <row r="37" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A37" s="15"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-    </row>
-    <row r="38" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A38" s="15"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-    </row>
-    <row r="39" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A39" s="15"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-    </row>
-    <row r="40" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A40" s="15"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-    </row>
-    <row r="41" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A41" s="15"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-    </row>
-    <row r="42" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A42" s="53"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-    </row>
-    <row r="43" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A43" s="53"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-    </row>
-    <row r="44" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A44" s="53"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-    </row>
-    <row r="45" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A45" s="53"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-    </row>
-    <row r="46" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A46" s="53"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-    </row>
-    <row r="47" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A47" s="53"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-    </row>
-    <row r="48" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-    </row>
-    <row r="49" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-    </row>
-    <row r="50" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-    </row>
-    <row r="51" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-    </row>
-    <row r="52" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-    </row>
-    <row r="53" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-    </row>
-    <row r="54" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-    </row>
-    <row r="55" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-    </row>
-    <row r="56" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-    </row>
-    <row r="57" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-    </row>
-    <row r="58" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-    </row>
-    <row r="59" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A59" s="53"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-    </row>
-    <row r="60" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-    </row>
-    <row r="61" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A61" s="53"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-    </row>
-    <row r="62" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A62" s="53"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-    </row>
-    <row r="63" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A63" s="53"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-    </row>
-    <row r="64" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A64" s="53"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-    </row>
-    <row r="65" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A65" s="53"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-    </row>
-    <row r="66" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-    </row>
-    <row r="67" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A67" s="53"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-    </row>
-    <row r="68" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A68" s="53"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-    </row>
-    <row r="69" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-    </row>
-    <row r="70" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-    </row>
-    <row r="71" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A71" s="53"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-    </row>
-    <row r="72" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-    </row>
-    <row r="73" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-    </row>
-    <row r="74" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="53"/>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
-      <c r="L74" s="53"/>
-    </row>
-    <row r="75" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
-      <c r="L75" s="53"/>
-    </row>
-    <row r="76" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A76" s="53"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-    </row>
-    <row r="77" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A77" s="53"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="53"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-    </row>
-    <row r="78" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A78" s="53"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-    </row>
-    <row r="79" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A79" s="53"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-    </row>
-    <row r="80" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A80" s="53"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-    </row>
-    <row r="81" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A81" s="53"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="53"/>
-      <c r="L81" s="53"/>
-    </row>
-    <row r="82" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A82" s="53"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-    </row>
-    <row r="83" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A83" s="53"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="53"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-    </row>
-    <row r="84" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A84" s="53"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="53"/>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="53"/>
-      <c r="L84" s="53"/>
-    </row>
-    <row r="85" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="53"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-    </row>
-    <row r="86" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A86" s="53"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="53"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-    </row>
-    <row r="87" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A87" s="53"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-    </row>
-    <row r="88" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A88" s="53"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-    </row>
-    <row r="89" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A89" s="53"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-    </row>
-    <row r="90" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="53"/>
-      <c r="L90" s="53"/>
-    </row>
-    <row r="91" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A91" s="53"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="53"/>
-    </row>
-    <row r="92" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A92" s="53"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="53"/>
-      <c r="L92" s="53"/>
-    </row>
-    <row r="93" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A93" s="53"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="53"/>
-      <c r="I93" s="53"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="53"/>
-      <c r="L93" s="53"/>
-    </row>
-    <row r="94" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-    </row>
-    <row r="95" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A95" s="53"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-    </row>
-    <row r="96" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A96" s="53"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-    </row>
-    <row r="97" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-    </row>
-    <row r="98" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-    </row>
-    <row r="99" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-    </row>
-    <row r="100" s="48" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A100" s="53"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="53"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="53"/>
-      <c r="L100" s="53"/>
+      <c r="C17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+    </row>
+    <row r="24" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+    </row>
+    <row r="26" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+    </row>
+    <row r="28" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A28" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A30" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A32" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A33" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A34" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A35" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+    </row>
+    <row r="36" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A36" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+    </row>
+    <row r="37" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A37" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+    </row>
+    <row r="38" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A38" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+    </row>
+    <row r="39" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A39" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+    </row>
+    <row r="40" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A40" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+    </row>
+    <row r="41" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A41" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+    </row>
+    <row r="42" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A42" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A43" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+    </row>
+    <row r="44" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A44" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+    </row>
+    <row r="45" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A45" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+    </row>
+    <row r="46" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A46" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+    </row>
+    <row r="47" s="47" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A47" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+    </row>
+    <row r="48" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A48" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+    </row>
+    <row r="49" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A49" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+    </row>
+    <row r="50" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A50" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+    </row>
+    <row r="51" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A51" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+    </row>
+    <row r="52" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A52" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A53" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+    </row>
+    <row r="54" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A54" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A55" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+    </row>
+    <row r="56" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A56" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+    </row>
+    <row r="57" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A57" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+    </row>
+    <row r="58" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A58" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+    </row>
+    <row r="59" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A59" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+    </row>
+    <row r="60" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A60" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+    </row>
+    <row r="61" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A61" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+    </row>
+    <row r="62" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A62" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+    </row>
+    <row r="63" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A63" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+    </row>
+    <row r="64" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A64" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+    </row>
+    <row r="65" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A65" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+    </row>
+    <row r="66" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A66" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+    </row>
+    <row r="67" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A67" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
+    </row>
+    <row r="68" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A68" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
+    </row>
+    <row r="69" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A69" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+    </row>
+    <row r="70" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A70" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+    </row>
+    <row r="71" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A71" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+    </row>
+    <row r="72" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A72" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+    </row>
+    <row r="73" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A73" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+    </row>
+    <row r="74" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A74" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+    </row>
+    <row r="75" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A75" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+    </row>
+    <row r="76" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A76" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+    </row>
+    <row r="77" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A77" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+    </row>
+    <row r="78" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A78" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+    </row>
+    <row r="79" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A79" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+    </row>
+    <row r="80" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A80" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+    </row>
+    <row r="81" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A81" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="E81" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+    </row>
+    <row r="82" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A82" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="E82" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+    </row>
+    <row r="83" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A83" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="E83" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+    </row>
+    <row r="84" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A84" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E84" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+    </row>
+    <row r="85" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A85" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E85" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+    </row>
+    <row r="86" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A86" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+    </row>
+    <row r="87" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A87" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="E87" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+    </row>
+    <row r="88" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A88" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+    </row>
+    <row r="89" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A89" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+    </row>
+    <row r="90" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A90" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E90" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+    </row>
+    <row r="91" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A91" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="E91" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+    </row>
+    <row r="92" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A92" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="E92" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="45"/>
+    </row>
+    <row r="93" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A93" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+    </row>
+    <row r="94" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A94" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="E94" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="45"/>
+      <c r="L94" s="45"/>
+    </row>
+    <row r="95" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A95" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="E95" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
+    </row>
+    <row r="96" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A96" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="D96" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="E96" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+    </row>
+    <row r="97" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A97" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="E97" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+    </row>
+    <row r="98" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A98" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="E98" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
+    </row>
+    <row r="99" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A99" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="E99" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
+    </row>
+    <row r="100" s="47" customFormat="1" ht="15.7" spans="1:12">
+      <c r="A100" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="45"/>
+      <c r="L100" s="45"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B101" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="E102" s="48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="E103" s="48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104" s="48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D105" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E106" s="48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B107" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="D107" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="E107" s="48" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B108" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="D108" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="E108" s="48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="D109" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="E109" s="48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="B110" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="D110" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="E110" s="48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D111" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="E111" s="48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="B113" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="D113" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" s="48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="D114" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="E114" s="48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B115" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="D115" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="E115" s="48" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="B116" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="D116" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="E116" s="48" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="B117" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="E117" s="48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B118" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="E118" s="48" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="D119" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="E119" s="48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="B120" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="D120" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" s="48" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="B121" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="D121" s="46" t="s">
+        <v>460</v>
+      </c>
+      <c r="E121" s="48" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B122" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="B123" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="D123" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="B124" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="D124" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>473</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3053,164 +5499,436 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DR160"/>
+  <dimension ref="A1:DW160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E4" sqref="E4"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.2" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.2018348623853" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="9" width="9" style="38"/>
     <col min="10" max="28" width="9" style="39"/>
     <col min="35" max="43" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:43">
+    <row r="1" ht="15.7" spans="1:127">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>474</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>475</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>33</v>
+        <v>476</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="47"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS1" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT1" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU1" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV1" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW1" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="AX1" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY1" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ1" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA1" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB1" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC1" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD1" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE1" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="BG1" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH1" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="BI1" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="BJ1" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="BK1" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL1" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM1" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="BN1" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="BO1" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="BP1" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="BQ1" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="BR1" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="BS1" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="BT1" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="BU1" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="BV1" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="BW1" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="BX1" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY1" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="BZ1" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="CA1" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="CB1" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="CC1" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="CD1" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="CE1" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF1" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="CG1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="CH1" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="CI1" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="CJ1" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="CK1" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="CL1" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="CM1" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="CN1" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="CO1" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="CP1" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="CQ1" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="CR1" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="CS1" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="CT1" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="CU1" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="CV1" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW1" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="CX1" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="CY1" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="CZ1" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="DA1" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="DB1" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="DC1" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="DD1" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="DE1" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="DF1" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="DG1" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="DH1" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="DI1" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="DJ1" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="DK1" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="DL1" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="DM1" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="DN1" s="46" t="s">
+        <v>434</v>
+      </c>
+      <c r="DO1" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="DP1" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="DQ1" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="DR1" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="DS1" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="DT1" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="DU1" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="DV1" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="DW1" s="46" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:122">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="F2" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="G2" s="34">
-        <v>4</v>
-      </c>
-      <c r="H2" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="I2" s="34">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="K2" s="7">
-        <v>4</v>
-      </c>
-      <c r="L2" s="7">
-        <v>4</v>
-      </c>
-      <c r="M2" s="7">
-        <v>4</v>
-      </c>
-      <c r="N2" s="34">
-        <v>4.2</v>
-      </c>
-      <c r="O2" s="34">
-        <v>3.8</v>
-      </c>
-      <c r="P2" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="Q2" s="34">
-        <v>3.9</v>
-      </c>
-      <c r="R2" s="34">
-        <v>4</v>
-      </c>
-      <c r="S2" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="T2" s="34">
-        <v>3.5</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="34"/>
       <c r="V2" s="34"/>
       <c r="W2" s="34"/>
@@ -3309,64 +6027,32 @@
       <c r="DR2" s="34"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:122">
-      <c r="A3" s="41">
-        <v>2</v>
+      <c r="A3" s="40">
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="34">
-        <v>15.6</v>
-      </c>
-      <c r="F3" s="34">
-        <v>15.5</v>
-      </c>
-      <c r="G3" s="34">
-        <v>15.3</v>
-      </c>
-      <c r="H3" s="34">
-        <v>15.4</v>
-      </c>
-      <c r="I3" s="34">
-        <v>15.2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>15.2</v>
-      </c>
-      <c r="K3" s="7">
-        <v>16</v>
-      </c>
-      <c r="L3" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="M3" s="7">
-        <v>15</v>
-      </c>
-      <c r="N3" s="34">
-        <v>16.2</v>
-      </c>
-      <c r="O3" s="34">
-        <v>18</v>
-      </c>
-      <c r="P3" s="34">
-        <v>16.7</v>
-      </c>
-      <c r="Q3" s="34">
-        <v>18.4</v>
-      </c>
-      <c r="R3" s="34">
-        <v>16</v>
-      </c>
-      <c r="S3" s="34">
-        <v>18.5</v>
-      </c>
-      <c r="T3" s="34">
-        <v>19.8</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
       <c r="U3" s="34"/>
       <c r="V3" s="34"/>
       <c r="W3" s="34"/>
@@ -3466,48 +6152,30 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:122">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="41"/>
+        <v>480</v>
+      </c>
+      <c r="D4" s="40"/>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-      <c r="K4" s="34">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7">
-        <v>22.4</v>
-      </c>
-      <c r="M4" s="34">
-        <v>21.7</v>
-      </c>
-      <c r="N4" s="34">
-        <v>23</v>
-      </c>
-      <c r="O4" s="34">
-        <v>19.5</v>
-      </c>
-      <c r="P4" s="34">
-        <v>22.2</v>
-      </c>
-      <c r="Q4" s="34">
-        <v>19.2</v>
-      </c>
-      <c r="R4" s="34">
-        <v>22.2</v>
-      </c>
-      <c r="S4" s="34">
-        <v>20.5</v>
-      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
       <c r="V4" s="34"/>
@@ -3608,265 +6276,151 @@
     </row>
     <row r="5" s="37" customFormat="1" spans="1:122">
       <c r="A5" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="37">
         <v>0</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43">
-        <v>25.2</v>
-      </c>
-      <c r="L5" s="43">
-        <v>26</v>
-      </c>
-      <c r="M5" s="45">
-        <v>25</v>
-      </c>
-      <c r="N5" s="43">
-        <v>26.8</v>
-      </c>
-      <c r="O5" s="43">
-        <v>23.5</v>
-      </c>
-      <c r="P5" s="43">
-        <v>25.2</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>23.2</v>
-      </c>
-      <c r="R5" s="43">
-        <v>25.3</v>
-      </c>
-      <c r="S5" s="43">
-        <v>23.5</v>
-      </c>
-      <c r="T5" s="43">
-        <v>23.5</v>
-      </c>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="43"/>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="43"/>
-      <c r="BV5" s="43"/>
-      <c r="BW5" s="43"/>
-      <c r="BX5" s="43"/>
-      <c r="BY5" s="43"/>
-      <c r="BZ5" s="43"/>
-      <c r="CA5" s="43"/>
-      <c r="CB5" s="43"/>
-      <c r="CC5" s="43"/>
-      <c r="CD5" s="43"/>
-      <c r="CE5" s="43"/>
-      <c r="CF5" s="43"/>
-      <c r="CG5" s="43"/>
-      <c r="CH5" s="43"/>
-      <c r="CI5" s="43"/>
-      <c r="CJ5" s="43"/>
-      <c r="CK5" s="43"/>
-      <c r="CL5" s="43"/>
-      <c r="CM5" s="43"/>
-      <c r="CN5" s="43"/>
-      <c r="CO5" s="43"/>
-      <c r="CP5" s="43"/>
-      <c r="CQ5" s="43"/>
-      <c r="CR5" s="43"/>
-      <c r="CS5" s="43"/>
-      <c r="CT5" s="43"/>
-      <c r="CU5" s="43"/>
-      <c r="CV5" s="43"/>
-      <c r="CW5" s="43"/>
-      <c r="CX5" s="43"/>
-      <c r="CY5" s="43"/>
-      <c r="CZ5" s="43"/>
-      <c r="DA5" s="43"/>
-      <c r="DB5" s="43"/>
-      <c r="DC5" s="43"/>
-      <c r="DD5" s="43"/>
-      <c r="DE5" s="43"/>
-      <c r="DF5" s="43"/>
-      <c r="DG5" s="43"/>
-      <c r="DH5" s="43"/>
-      <c r="DI5" s="43"/>
-      <c r="DJ5" s="43"/>
-      <c r="DK5" s="43"/>
-      <c r="DL5" s="43"/>
-      <c r="DM5" s="43"/>
-      <c r="DN5" s="43"/>
-      <c r="DO5" s="43"/>
-      <c r="DP5" s="43"/>
-      <c r="DQ5" s="43"/>
-      <c r="DR5" s="43"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="4:122">
-      <c r="D6" s="41"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="34"/>
-      <c r="AQ6" s="34"/>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="34"/>
-      <c r="BB6" s="34"/>
-      <c r="BC6" s="34"/>
-      <c r="BD6" s="34"/>
-      <c r="BE6" s="34"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="34"/>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="34"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="34"/>
-      <c r="BN6" s="34"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="34"/>
-      <c r="BQ6" s="34"/>
-      <c r="BR6" s="34"/>
-      <c r="BS6" s="34"/>
-      <c r="BT6" s="34"/>
-      <c r="BU6" s="34"/>
-      <c r="BV6" s="34"/>
-      <c r="BW6" s="34"/>
-      <c r="BX6" s="34"/>
-      <c r="BY6" s="34"/>
-      <c r="BZ6" s="34"/>
-      <c r="CA6" s="34"/>
-      <c r="CB6" s="34"/>
-      <c r="CC6" s="34"/>
-      <c r="CD6" s="34"/>
-      <c r="CE6" s="34"/>
-      <c r="CF6" s="34"/>
-      <c r="CG6" s="34"/>
-      <c r="CH6" s="34"/>
-      <c r="CI6" s="34"/>
-      <c r="CJ6" s="34"/>
-      <c r="CK6" s="34"/>
-      <c r="CL6" s="34"/>
-      <c r="CM6" s="34"/>
-      <c r="CN6" s="34"/>
-      <c r="CO6" s="34"/>
-      <c r="CP6" s="34"/>
-      <c r="CQ6" s="34"/>
-      <c r="CR6" s="34"/>
-      <c r="CS6" s="34"/>
-      <c r="CT6" s="34"/>
-      <c r="CU6" s="34"/>
-      <c r="CV6" s="34"/>
-      <c r="CW6" s="34"/>
-      <c r="CX6" s="34"/>
-      <c r="CY6" s="34"/>
-      <c r="CZ6" s="34"/>
-      <c r="DA6" s="34"/>
-      <c r="DB6" s="34"/>
-      <c r="DC6" s="34"/>
-      <c r="DD6" s="34"/>
-      <c r="DE6" s="34"/>
-      <c r="DF6" s="34"/>
-      <c r="DG6" s="34"/>
-      <c r="DH6" s="34"/>
-      <c r="DI6" s="34"/>
-      <c r="DJ6" s="34"/>
-      <c r="DK6" s="34"/>
-      <c r="DL6" s="34"/>
-      <c r="DM6" s="34"/>
-      <c r="DN6" s="34"/>
-      <c r="DO6" s="34"/>
-      <c r="DP6" s="34"/>
-      <c r="DQ6" s="34"/>
-      <c r="DR6" s="34"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="4:122">
-      <c r="D7" s="41"/>
+        <v>481</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42"/>
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42"/>
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42"/>
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
+      <c r="CW5" s="42"/>
+      <c r="CX5" s="42"/>
+      <c r="CY5" s="42"/>
+      <c r="CZ5" s="42"/>
+      <c r="DA5" s="42"/>
+      <c r="DB5" s="42"/>
+      <c r="DC5" s="42"/>
+      <c r="DD5" s="42"/>
+      <c r="DE5" s="42"/>
+      <c r="DF5" s="42"/>
+      <c r="DG5" s="42"/>
+      <c r="DH5" s="42"/>
+      <c r="DI5" s="42"/>
+      <c r="DJ5" s="42"/>
+      <c r="DK5" s="42"/>
+      <c r="DL5" s="42"/>
+      <c r="DM5" s="42"/>
+      <c r="DN5" s="42"/>
+      <c r="DO5" s="42"/>
+      <c r="DP5" s="42"/>
+      <c r="DQ5" s="42"/>
+      <c r="DR5" s="42"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:122">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="40"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -3980,8 +6534,17 @@
       <c r="DQ7" s="34"/>
       <c r="DR7" s="34"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="4:122">
-      <c r="D8" s="41"/>
+    <row r="8" s="1" customFormat="1" spans="1:122">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" s="40"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -4096,7 +6659,7 @@
       <c r="DR8" s="34"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="4:122">
-      <c r="D9" s="41"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -4211,7 +6774,7 @@
       <c r="DR9" s="34"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="4:122">
-      <c r="D10" s="41"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -20761,16 +23324,16 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="33"/>
-    <col min="2" max="2" width="8.58333333333333" style="34" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.58715596330275" style="34" customWidth="1"/>
+    <col min="3" max="3" width="25.3761467889908" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -20779,233 +23342,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>54</v>
+        <v>483</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>55</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="35">
-        <v>1.7</v>
-      </c>
-      <c r="C2" s="36">
-        <v>0</v>
-      </c>
+      <c r="A2" s="31"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="35">
-        <v>3.3</v>
-      </c>
-      <c r="C3" s="36">
-        <v>0</v>
-      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="31"/>
-      <c r="B4" s="35">
-        <v>5.3</v>
-      </c>
-      <c r="C4" s="36">
-        <v>0</v>
-      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="31"/>
-      <c r="B5" s="35">
-        <v>7.3</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="35">
-        <v>1.7</v>
-      </c>
-      <c r="C6" s="36">
-        <v>0</v>
-      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="31"/>
-      <c r="B7" s="35">
-        <v>3.7</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="34">
-        <v>7.7</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="34">
-        <v>9.7</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="34">
-        <v>1.7</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="C11" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="34">
-        <v>5.7</v>
-      </c>
-      <c r="C12" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="2:3">
-      <c r="B13" s="34">
-        <v>9.7</v>
-      </c>
-      <c r="C13" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="C14" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="2:3">
-      <c r="B15" s="34">
-        <v>7.7</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:3">
-      <c r="B17" s="34">
-        <v>5.9</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="34">
-        <v>1.7</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:3">
-      <c r="B19" s="34">
-        <v>9.7</v>
-      </c>
-      <c r="C19" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="34">
-        <v>7.9</v>
-      </c>
-      <c r="C21" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="34">
-        <v>1.9</v>
-      </c>
-      <c r="C22" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:3">
-      <c r="B23" s="34">
-        <v>9.9</v>
-      </c>
-      <c r="C23" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="34">
-        <v>1.7</v>
-      </c>
-      <c r="C24" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:3">
-      <c r="B25" s="34">
-        <v>7.2</v>
-      </c>
-      <c r="C25" s="36">
-        <v>0</v>
-      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+    </row>
+    <row r="8" customHeight="1" spans="3:3">
+      <c r="C8" s="36"/>
+    </row>
+    <row r="9" customHeight="1" spans="3:3">
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:3">
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" customHeight="1" spans="3:3">
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" customHeight="1" spans="3:3">
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" customHeight="1" spans="3:3">
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" customHeight="1" spans="3:3">
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" customHeight="1" spans="3:3">
+      <c r="C15" s="36"/>
+    </row>
+    <row r="16" customHeight="1" spans="3:3">
+      <c r="C16" s="36"/>
+    </row>
+    <row r="17" customHeight="1" spans="3:3">
+      <c r="C17" s="36"/>
+    </row>
+    <row r="18" customHeight="1" spans="3:3">
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" customHeight="1" spans="3:3">
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" customHeight="1" spans="3:3">
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" customHeight="1" spans="3:3">
+      <c r="C21" s="36"/>
+    </row>
+    <row r="22" customHeight="1" spans="3:3">
+      <c r="C22" s="36"/>
+    </row>
+    <row r="23" customHeight="1" spans="3:3">
+      <c r="C23" s="36"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:3">
+      <c r="C24" s="36"/>
+    </row>
+    <row r="25" customHeight="1" spans="3:3">
+      <c r="C25" s="36"/>
     </row>
     <row r="26" customHeight="1" spans="3:3">
       <c r="C26" s="36"/>
@@ -21142,889 +23565,405 @@
   <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.125" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="16.1284403669725" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="21"/>
-    <col min="2" max="2" width="18.5083333333333" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="16.125" style="26"/>
+    <col min="1" max="1" width="16.1284403669725" style="21"/>
+    <col min="2" max="2" width="18.5045871559633" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9.12844036697248" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.12844036697248" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.5045871559633" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="16.1284403669725" style="26"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>56</v>
+        <v>485</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>57</v>
+        <v>486</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>58</v>
+        <v>487</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>60</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="27">
-        <v>2.45</v>
-      </c>
-      <c r="C2" s="28">
-        <v>8</v>
-      </c>
-      <c r="D2" s="29">
-        <f t="shared" ref="D2:D11" si="0">B2+2</f>
-        <v>4.45</v>
-      </c>
-      <c r="E2" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A2" s="31"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="33"/>
-      <c r="B3" s="22">
-        <v>4.05</v>
-      </c>
-      <c r="C3" s="28">
-        <v>9</v>
-      </c>
-      <c r="D3" s="29">
-        <f t="shared" si="0"/>
-        <v>6.05</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="27"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="31"/>
-      <c r="B4" s="22">
-        <v>6.05</v>
-      </c>
-      <c r="C4" s="28">
-        <v>10</v>
-      </c>
-      <c r="D4" s="29">
-        <f t="shared" si="0"/>
-        <v>8.05</v>
-      </c>
-      <c r="E4" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="27"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="31"/>
-      <c r="B5" s="22">
-        <v>8.05</v>
-      </c>
-      <c r="C5" s="28">
-        <v>11</v>
-      </c>
-      <c r="D5" s="29">
-        <f t="shared" si="0"/>
-        <v>10.05</v>
-      </c>
-      <c r="E5" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="27"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="33"/>
-      <c r="B6" s="22">
-        <v>10.05</v>
-      </c>
-      <c r="C6" s="28">
-        <v>14</v>
-      </c>
-      <c r="D6" s="29">
-        <f t="shared" si="0"/>
-        <v>12.05</v>
-      </c>
-      <c r="E6" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="27"/>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="27">
-        <v>2.45</v>
-      </c>
-      <c r="C7" s="28">
-        <v>9</v>
-      </c>
-      <c r="D7" s="29">
-        <f t="shared" si="0"/>
-        <v>4.45</v>
-      </c>
-      <c r="E7" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="33"/>
-      <c r="B8" s="27">
-        <v>4.45</v>
-      </c>
-      <c r="C8" s="28">
-        <v>9</v>
-      </c>
-      <c r="D8" s="29">
-        <f t="shared" si="0"/>
-        <v>6.45</v>
-      </c>
-      <c r="E8" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="33"/>
-      <c r="B9" s="27">
-        <v>6.45</v>
-      </c>
-      <c r="C9" s="28">
-        <v>9</v>
-      </c>
-      <c r="D9" s="29">
-        <f t="shared" si="0"/>
-        <v>8.45</v>
-      </c>
-      <c r="E9" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="33"/>
-      <c r="B10" s="27">
-        <v>8.45</v>
-      </c>
-      <c r="C10" s="28">
-        <v>10</v>
-      </c>
-      <c r="D10" s="29">
-        <f t="shared" si="0"/>
-        <v>10.45</v>
-      </c>
-      <c r="E10" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="33"/>
-      <c r="B11" s="27">
-        <v>10.45</v>
-      </c>
-      <c r="C11" s="28">
-        <v>11</v>
-      </c>
-      <c r="D11" s="29">
-        <f t="shared" si="0"/>
-        <v>12.45</v>
-      </c>
-      <c r="E11" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="27">
-        <v>2.45</v>
-      </c>
-      <c r="C12" s="28">
-        <v>9</v>
-      </c>
-      <c r="D12" s="29">
-        <f t="shared" ref="D12:D17" si="1">B12+2</f>
-        <v>4.45</v>
-      </c>
-      <c r="E12" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A12" s="33"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="33"/>
-      <c r="B13" s="27">
-        <v>4.45</v>
-      </c>
-      <c r="C13" s="28">
-        <v>8</v>
-      </c>
-      <c r="D13" s="29">
-        <f t="shared" si="1"/>
-        <v>6.45</v>
-      </c>
-      <c r="E13" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="33"/>
-      <c r="B14" s="27">
-        <v>6.45</v>
-      </c>
-      <c r="C14" s="28">
-        <v>10</v>
-      </c>
-      <c r="D14" s="29">
-        <f t="shared" si="1"/>
-        <v>8.45</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="33"/>
-      <c r="B15" s="27">
-        <v>8.45</v>
-      </c>
-      <c r="C15" s="28">
-        <v>10</v>
-      </c>
-      <c r="D15" s="29">
-        <f t="shared" si="1"/>
-        <v>10.45</v>
-      </c>
-      <c r="E15" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="33"/>
-      <c r="B16" s="27">
-        <v>10.45</v>
-      </c>
-      <c r="C16" s="28">
-        <v>10</v>
-      </c>
-      <c r="D16" s="29">
-        <f t="shared" si="1"/>
-        <v>12.45</v>
-      </c>
-      <c r="E16" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="33"/>
-      <c r="B17" s="27">
-        <v>13.65</v>
-      </c>
-      <c r="C17" s="29">
-        <v>10</v>
-      </c>
-      <c r="D17" s="29">
-        <f t="shared" si="1"/>
-        <v>15.65</v>
-      </c>
-      <c r="E17" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="27">
-        <v>2.45</v>
-      </c>
-      <c r="C18" s="29">
-        <v>9</v>
-      </c>
-      <c r="D18" s="29">
-        <f t="shared" ref="D18:D24" si="2">B18+2</f>
-        <v>4.45</v>
-      </c>
-      <c r="E18" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A18" s="33"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="33"/>
-      <c r="B19" s="27">
-        <v>4.45</v>
-      </c>
-      <c r="C19" s="29">
-        <v>10</v>
-      </c>
-      <c r="D19" s="29">
-        <f t="shared" si="2"/>
-        <v>6.45</v>
-      </c>
-      <c r="E19" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="33"/>
-      <c r="B20" s="27">
-        <v>6.45</v>
-      </c>
-      <c r="C20" s="29">
-        <v>10</v>
-      </c>
-      <c r="D20" s="29">
-        <f t="shared" si="2"/>
-        <v>8.45</v>
-      </c>
-      <c r="E20" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="33"/>
-      <c r="B21" s="27">
-        <v>8.45</v>
-      </c>
-      <c r="C21" s="29">
-        <v>11</v>
-      </c>
-      <c r="D21" s="29">
-        <f t="shared" si="2"/>
-        <v>10.45</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="33"/>
-      <c r="B22" s="27">
-        <v>10.45</v>
-      </c>
-      <c r="C22" s="29">
-        <v>12</v>
-      </c>
-      <c r="D22" s="29">
-        <f t="shared" si="2"/>
-        <v>12.45</v>
-      </c>
-      <c r="E22" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="33"/>
-      <c r="B23" s="27">
-        <v>12.45</v>
-      </c>
-      <c r="C23" s="28">
-        <v>12</v>
-      </c>
-      <c r="D23" s="29">
-        <f t="shared" si="2"/>
-        <v>14.45</v>
-      </c>
-      <c r="E23" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="33"/>
-      <c r="B24" s="27">
-        <v>15.65</v>
-      </c>
-      <c r="C24" s="28">
-        <v>12</v>
-      </c>
-      <c r="D24" s="29">
-        <f t="shared" si="2"/>
-        <v>17.65</v>
-      </c>
-      <c r="E24" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="27">
-        <v>2.65</v>
-      </c>
-      <c r="C25" s="28">
-        <v>8</v>
-      </c>
-      <c r="D25" s="29">
-        <f t="shared" ref="D25:D33" si="3">B25+2</f>
-        <v>4.65</v>
-      </c>
-      <c r="E25" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A25" s="33"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="33"/>
-      <c r="B26" s="22">
-        <v>4.65</v>
-      </c>
-      <c r="C26" s="28">
-        <v>9</v>
-      </c>
-      <c r="D26" s="29">
-        <f t="shared" si="3"/>
-        <v>6.65</v>
-      </c>
-      <c r="E26" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="33"/>
-      <c r="B27" s="22">
-        <v>6.65</v>
-      </c>
-      <c r="C27" s="23">
-        <v>10</v>
-      </c>
-      <c r="D27" s="29">
-        <f t="shared" si="3"/>
-        <v>8.65</v>
-      </c>
-      <c r="E27" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="33"/>
-      <c r="B28" s="22">
-        <v>8.65</v>
-      </c>
-      <c r="C28" s="23">
-        <v>10</v>
-      </c>
-      <c r="D28" s="29">
-        <f t="shared" si="3"/>
-        <v>10.65</v>
-      </c>
-      <c r="E28" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="33"/>
-      <c r="B29" s="22">
-        <v>10.65</v>
-      </c>
-      <c r="C29" s="23">
-        <v>11</v>
-      </c>
-      <c r="D29" s="29">
-        <f t="shared" si="3"/>
-        <v>12.65</v>
-      </c>
-      <c r="E29" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="33"/>
-      <c r="B30" s="22">
-        <v>12.65</v>
-      </c>
-      <c r="C30" s="23">
-        <v>10</v>
-      </c>
-      <c r="D30" s="29">
-        <f t="shared" si="3"/>
-        <v>14.65</v>
-      </c>
-      <c r="E30" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="33"/>
-      <c r="B31" s="22">
-        <v>14.65</v>
-      </c>
-      <c r="C31" s="23">
-        <v>12</v>
-      </c>
-      <c r="D31" s="29">
-        <f t="shared" si="3"/>
-        <v>16.65</v>
-      </c>
-      <c r="E31" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="33"/>
-      <c r="B32" s="22">
-        <v>16.65</v>
-      </c>
-      <c r="C32" s="23">
-        <v>11</v>
-      </c>
-      <c r="D32" s="29">
-        <f t="shared" si="3"/>
-        <v>18.65</v>
-      </c>
-      <c r="E32" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="33"/>
-      <c r="B33" s="22">
-        <v>18.25</v>
-      </c>
-      <c r="C33" s="23">
-        <v>12</v>
-      </c>
-      <c r="D33" s="29">
-        <f t="shared" si="3"/>
-        <v>20.25</v>
-      </c>
-      <c r="E33" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="22">
-        <v>2.45</v>
-      </c>
-      <c r="C34" s="23">
-        <v>9</v>
-      </c>
-      <c r="D34" s="29">
-        <f t="shared" ref="D34:D41" si="4">B34+2</f>
-        <v>4.45</v>
-      </c>
-      <c r="E34" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A34" s="33"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="33"/>
-      <c r="B35" s="22">
-        <v>4.45</v>
-      </c>
-      <c r="C35" s="23">
-        <v>12</v>
-      </c>
-      <c r="D35" s="29">
-        <f t="shared" si="4"/>
-        <v>6.45</v>
-      </c>
-      <c r="E35" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="33"/>
-      <c r="B36" s="22">
-        <v>6.45</v>
-      </c>
-      <c r="C36" s="23">
-        <v>11</v>
-      </c>
-      <c r="D36" s="29">
-        <f t="shared" si="4"/>
-        <v>8.45</v>
-      </c>
-      <c r="E36" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="33"/>
-      <c r="B37" s="22">
-        <v>8.45</v>
-      </c>
-      <c r="C37" s="23">
-        <v>10</v>
-      </c>
-      <c r="D37" s="29">
-        <f t="shared" si="4"/>
-        <v>10.45</v>
-      </c>
-      <c r="E37" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="33"/>
-      <c r="B38" s="22">
-        <v>10.45</v>
-      </c>
-      <c r="C38" s="23">
-        <v>10</v>
-      </c>
-      <c r="D38" s="29">
-        <f t="shared" si="4"/>
-        <v>12.45</v>
-      </c>
-      <c r="E38" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="33"/>
-      <c r="B39" s="22">
-        <v>12.45</v>
-      </c>
-      <c r="C39" s="23">
-        <v>11</v>
-      </c>
-      <c r="D39" s="29">
-        <f t="shared" si="4"/>
-        <v>14.45</v>
-      </c>
-      <c r="E39" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="33"/>
-      <c r="B40" s="22">
-        <v>14.45</v>
-      </c>
-      <c r="C40" s="23">
-        <v>12</v>
-      </c>
-      <c r="D40" s="29">
-        <f t="shared" si="4"/>
-        <v>16.45</v>
-      </c>
-      <c r="E40" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="33"/>
-      <c r="B41" s="22">
-        <v>16.45</v>
-      </c>
-      <c r="C41" s="23">
-        <v>12</v>
-      </c>
-      <c r="D41" s="29">
-        <f t="shared" si="4"/>
-        <v>18.45</v>
-      </c>
-      <c r="E41" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="22">
-        <v>2.65</v>
-      </c>
-      <c r="C42" s="23">
-        <v>9</v>
-      </c>
-      <c r="D42" s="29">
-        <f t="shared" ref="D42:D53" si="5">B42+2</f>
-        <v>4.65</v>
-      </c>
-      <c r="E42" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A42" s="33"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="33"/>
-      <c r="B43" s="22">
-        <v>4.65</v>
-      </c>
-      <c r="C43" s="23">
-        <v>10</v>
-      </c>
-      <c r="D43" s="29">
-        <f t="shared" si="5"/>
-        <v>6.65</v>
-      </c>
-      <c r="E43" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="33"/>
-      <c r="B44" s="22">
-        <v>6.65</v>
-      </c>
-      <c r="C44" s="23">
-        <v>9</v>
-      </c>
-      <c r="D44" s="29">
-        <f t="shared" si="5"/>
-        <v>8.65</v>
-      </c>
-      <c r="E44" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="33"/>
-      <c r="B45" s="22">
-        <v>8.65</v>
-      </c>
-      <c r="C45" s="23">
-        <v>11</v>
-      </c>
-      <c r="D45" s="29">
-        <f t="shared" si="5"/>
-        <v>10.65</v>
-      </c>
-      <c r="E45" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="33"/>
-      <c r="B46" s="22">
-        <v>10.65</v>
-      </c>
-      <c r="C46" s="23">
-        <v>11</v>
-      </c>
-      <c r="D46" s="29">
-        <f t="shared" si="5"/>
-        <v>12.65</v>
-      </c>
-      <c r="E46" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="33"/>
-      <c r="B47" s="22">
-        <v>12.65</v>
-      </c>
-      <c r="C47" s="23">
-        <v>12</v>
-      </c>
-      <c r="D47" s="29">
-        <f t="shared" si="5"/>
-        <v>14.65</v>
-      </c>
-      <c r="E47" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="33"/>
-      <c r="B48" s="22">
-        <v>14.65</v>
-      </c>
-      <c r="C48" s="23">
-        <v>12</v>
-      </c>
-      <c r="D48" s="29">
-        <f t="shared" si="5"/>
-        <v>16.65</v>
-      </c>
-      <c r="E48" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" customHeight="1" spans="1:5">
-      <c r="A49" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="22">
-        <v>2.45</v>
-      </c>
-      <c r="C49" s="23">
-        <v>9</v>
-      </c>
-      <c r="D49" s="29">
-        <f t="shared" si="5"/>
-        <v>4.45</v>
-      </c>
-      <c r="E49" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="A49" s="33"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="33"/>
-      <c r="B50" s="22">
-        <v>3.95</v>
-      </c>
-      <c r="C50" s="23">
-        <v>9</v>
-      </c>
-      <c r="D50" s="29">
-        <f t="shared" si="5"/>
-        <v>5.95</v>
-      </c>
-      <c r="E50" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="33"/>
-      <c r="B51" s="22">
-        <v>5.95</v>
-      </c>
-      <c r="C51" s="23">
-        <v>10</v>
-      </c>
-      <c r="D51" s="29">
-        <f t="shared" si="5"/>
-        <v>7.95</v>
-      </c>
-      <c r="E51" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="33"/>
-      <c r="B52" s="22">
-        <v>7.95</v>
-      </c>
-      <c r="C52" s="23">
-        <v>11</v>
-      </c>
-      <c r="D52" s="29">
-        <f t="shared" si="5"/>
-        <v>9.95</v>
-      </c>
-      <c r="E52" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="33"/>
-      <c r="B53" s="22">
-        <v>9.95</v>
-      </c>
-      <c r="C53" s="23">
-        <v>12</v>
-      </c>
-      <c r="D53" s="29">
-        <f t="shared" si="5"/>
-        <v>11.95</v>
-      </c>
-      <c r="E53" s="32">
-        <v>0.3</v>
-      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="33"/>
@@ -22645,16 +24584,16 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="8"/>
     <col min="3" max="3" width="9" style="9"/>
-    <col min="4" max="5" width="19.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="10" customWidth="1"/>
+    <col min="4" max="5" width="19.8715596330275" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.1284403669725" style="10" customWidth="1"/>
+    <col min="7" max="7" width="23.3761467889908" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -22663,16 +24602,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>61</v>
+        <v>490</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>62</v>
+        <v>491</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>63</v>
+        <v>492</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>64</v>
+        <v>493</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -22687,21 +24626,11 @@
       <c r="P1" s="14"/>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2</v>
-      </c>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
@@ -22715,21 +24644,11 @@
       <c r="P2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="16">
-        <v>9.4</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
@@ -22743,21 +24662,11 @@
       <c r="P3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:16">
-      <c r="A4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
@@ -22771,21 +24680,11 @@
       <c r="P4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:16">
-      <c r="A5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="16">
-        <v>9.4</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2</v>
-      </c>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
@@ -22799,21 +24698,11 @@
       <c r="P5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:16">
-      <c r="A6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
@@ -22827,21 +24716,11 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:16">
-      <c r="A7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="16">
-        <v>9.5</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
@@ -22855,21 +24734,11 @@
       <c r="P7" s="18"/>
     </row>
     <row r="8" customHeight="1" spans="1:16">
-      <c r="A8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="16">
-        <v>9.3</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -22883,21 +24752,11 @@
       <c r="P8" s="18"/>
     </row>
     <row r="9" customHeight="1" spans="1:16">
-      <c r="A9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="19">
-        <v>9.3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
@@ -22911,21 +24770,11 @@
       <c r="P9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:16">
-      <c r="A10" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="19">
-        <v>9.3</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -22939,21 +24788,11 @@
       <c r="P10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="16">
-        <v>9.2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2</v>
-      </c>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
@@ -22967,21 +24806,11 @@
       <c r="P11" s="18"/>
     </row>
     <row r="12" customHeight="1" spans="1:16">
-      <c r="A12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="19">
-        <v>9.3</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
@@ -22995,21 +24824,11 @@
       <c r="P12" s="18"/>
     </row>
     <row r="13" customHeight="1" spans="1:16">
-      <c r="A13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="19">
-        <v>9.2</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
@@ -23023,21 +24842,11 @@
       <c r="P13" s="18"/>
     </row>
     <row r="14" customHeight="1" spans="1:16">
-      <c r="A14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="19">
-        <v>9.3</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
@@ -23051,21 +24860,11 @@
       <c r="P14" s="18"/>
     </row>
     <row r="15" customHeight="1" spans="1:16">
-      <c r="A15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="19">
-        <v>9.2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
@@ -23079,21 +24878,11 @@
       <c r="P15" s="18"/>
     </row>
     <row r="16" customHeight="1" spans="1:16">
-      <c r="A16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="19">
-        <v>9.2</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13">
-        <v>2</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
@@ -23107,21 +24896,11 @@
       <c r="P16" s="18"/>
     </row>
     <row r="17" customHeight="1" spans="1:16">
-      <c r="A17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="16">
-        <v>9.3</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>2</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
@@ -23378,31 +25157,31 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.12844036697248" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3761467889908" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>485</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>57</v>
+        <v>486</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>488</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>494</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>495</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>67</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">

--- a/理正勘察标准数据接口模板.xlsx
+++ b/理正勘察标准数据接口模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="勘探点表" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="500">
   <si>
     <t>钻孔编号</t>
   </si>
@@ -1527,13 +1527,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1614,6 +1614,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1629,6 +1644,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1636,6 +1659,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1652,17 +1700,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1690,7 +1730,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1703,46 +1743,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1750,84 +1750,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1843,19 +1765,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,25 +1873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,13 +1885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,19 +1921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,6 +1956,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1967,9 +1982,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1998,17 +2030,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,32 +2053,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2061,10 +2061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2073,133 +2073,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2210,7 +2210,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2219,7 +2219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2258,18 +2258,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2279,7 +2279,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2294,7 +2294,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,7 +2306,7 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5447,10 +5447,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E2" sqref="E2:E8"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -5748,7 +5748,7 @@
   <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
@@ -8238,10 +8238,10 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
@@ -8264,18 +8264,32 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
       <c r="A5" s="12"/>
